--- a/J1587 DA - Xav.xlsx
+++ b/J1587 DA - Xav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Xavier/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xavier Biancardi\PycharmProjects\Display_rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A04460-D4BD-8B49-88DB-3869B781E97D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E45C476-5D9F-48DB-B0C1-7B51DF3645DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" activeTab="1" xr2:uid="{518D265B-68D4-4247-BD98-CED029082955}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{518D265B-68D4-4247-BD98-CED029082955}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="944">
   <si>
     <t>PID</t>
   </si>
@@ -2447,6 +2447,1006 @@
   <si>
     <t>PID/a,
 a = Transmission Range Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The current position of the splitter cylinder. 0% = splitter cylinder fully toward the low split position; 100% = splitter
+cylinder fully toward the high split position. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Transmission Splitter Position </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The current position of the clutch engagement cylinder. 0% = cylinder fully retracted (i.e., clutch fully engaged); 100% =
+cylinder fully extended (i.e., clutch fully disengaged.) </t>
+  </si>
+  <si>
+    <t>PID/a,
+a = Clutch Cylinder Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the current status of the actuators used to control the functions of the clutch cylinder. </t>
+  </si>
+  <si>
+    <t>PID/a,
+a = Clutch Cylinder Actuator Status
+ Bits 8-7: Coarse engagement actuator status
+ Bits 6-5: Fine engagement actuator status
+ Bits 4-3: Coarse disengagement actuator status
+ Bits 2-1: Fine disengagement actuator status 
+00 Off
+01 On
+10 Error Condition
+11 Not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the current status of the actuators that move the shift finger. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Shift Finger Actuator Status
+ Bits 8-5: Not defined
+ Bits 4-3: Gear actuator #3 status
+ Bits 2-1: Rail actuator #3 status 
+00 Off
+01 On
+10 Error condition
+11 Not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The current wear condition of the clutch plates. 0% = clutch plates with no wear; 100% = clutch plates are completely
+worn out. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Clutch Plates Wear Condition </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The pressure of the air in the tank supplying the automatically shifting transmission. </t>
+  </si>
+  <si>
+    <t>6.89 kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Transmission Tank Air Pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio of volume of fuel to the total volume of the second fuel storage container. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Second Fuel Level (Right Side) </t>
+  </si>
+  <si>
+    <t>PID/a,
+a = Tire pressure check interval</t>
+  </si>
+  <si>
+    <t>1 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the current state of the switch contacts used in the engine retarder system. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the interval at which the system will check the tire pressures (e.g., 5, 10, 15 min). 
+NOTE: A value of 0 indicates continuous (real time) pressure readings. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Engine retarder switches status
+ Bits 8-7: Reserved—all bits set to 1
+ Bits 6-3: Engine retarder level switch
+ 0 = 0 cylinders
+ 1 = 1 cylinders
+ 2 = 2 cylinders
+ 3 = 3 cylinders
+ 4 = 4 cylinders
+ 5 = 5 cylinders
+ 6 = 6 cylinders
+ 7 = 7 cylinders
+ 8 = 8 cylinders
+ 9-13 = reserved—to be assigned
+ 14 = error
+ 15 = not available
+ Bits 2-1: Engine retarder switch
+ 00 = off
+ 01 = on
+ 10 = error
+ 11 = not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the current state of the switch contacts used in the cruise control system. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Cruise control switches status
+ Bits 8-7: Reserved—all bits set to 1
+ Bits 6-5: Cruise control on/off switch status
+ Bits 4-3: Cruise control set switch status
+ Bits 2-1: Cruise control resume switch status 
+00 Off
+01 On
+10 Error condition
+11 Not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the current state of an open/closed type switch used to determine if adequate pressure exists for system
+implementation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Pressure switch status
+ Bits 8-3: Reserved—all bits set to 1
+ Bits 2-1: Tire pressure supply switch status 
+00 Below set pressure
+01 At or above set pressure
+ 10 Error condition
+ 11 Not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the current state of the contacts within the ignition switch. These contacts are not necessarily mutually
+exclusive. </t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Ignition switch status
+ Bits 8-7: Start aid contacts status
+ Bits 6-5: Crank contacts status
+ Bits 4-3: Run contacts status
+ Bits 2-1: Accessory contacts status 
+00 Off
+01 On
+10 Error condition
+11 Not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the current state of the lamps used as driver attention or warning indicators. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a =Attention/warning indicator lamps status
+ Bits 8-7: Reserved—both bits set to 1
+ Bits 6-5: Protect lamp status
+ Bits 4-3: Amber lamp status
+ Bits 2-1: Red lamp status 
+00 Off
+ 01 On
+ 10 Error condition
+ 11 Not available 
+NOTE 1: The red lamp is used to indicate a mission-critical or mission-disabling situation.
+NOTE 2: The amber lamp is used to indicate a non-mission-critical or non-mission-disabling situation.
+NOTE 3: The protect lamp is used to report a problem that is most probably not electronic subsystem related. This could indicate reduced performance or potentially a mission-critical or mission-disabling situation. For instance,
+engine coolant temperature is exceeding its prescribed temperature range. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the current state of the inlet air heaters. The “wait to start lamp” signal indicates that the engine is too cold to
+start and the operator should wait until the signal becomes inactive (turns off). </t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a =Inlet air heater status
+ Bits 8-7: Reserved—all bits set to 1
+ Bits 6-5: Wait to Start Lamp
+ Bits 4-3: Heater 2 status
+ Bits 2-1: Heater 1 status
+00 Off
+ 01 On
+ 10 Error Condition
+ 11 Not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the current gage pressure inside the vehicle wet tank. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Vehicle wet tank pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the current state of vehicle retarders. </t>
+  </si>
+  <si>
+    <t>PID/a,
+a =Retarder status
+ Bits 8-3: Reserved - all bits set to 1
+ Bits 2-1: Transmission output retarder status 
+00 Off
+ 01 On
+ 10 Error condition
+ 11 Not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absolute air pressure of the atmosphere. </t>
+  </si>
+  <si>
+    <t>0.6 kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a =Extended range barometric pressure </t>
+  </si>
+  <si>
+    <t>Identifies the current state of the ABS control functions, lamp and switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = ABS control status
+ Bits 8-7: ABS off-road function switch
+ Bits 6-5: ABS retarder control
+ Bits 4-3: ABS brake control
+ Bits 2-1: ABS warning lamp 
+00 Off/Not active
+ 01 On/Active
+ 10 Error condition
+ 11 Not available  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to request the air conditioner (A/C) compressor clutch unit to temporarily disable the clutch. This parameter also
+provides the current state of the engine fan, A/C system, and compressor clutch. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Air conditioner compressor clutch status/command
+Bits 8-7: Engine fan request
+    00=No request
+    01=Fan is requested
+    10=Error
+    11=Not available/not applicable
+Bits 6-5: Air Conditioning Request Input
+    00=No request
+    01=A/C is requested
+    10=Error
+    11=Not available/not applicable.
+Bits 4-3: Request temporary clutch disengagement sense
+    00=No request
+    01=Clutch disengagement requested
+   10=Error
+   11=Not available/not applicable.
+Bits 2-1: Clutch engagement status
+   00=Off (disengaged)
+   01=On (engaged)
+   10=Error
+   11=Not available/not applicable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a =Throttle position </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The position of the valve used to regulate the supply of a fluid, usually air or fuel/air mixture, to an engine. 0% represents
+no supply and 100% is full supply. </t>
+  </si>
+  <si>
+    <t>The temperature of liquid found in the engine intercooler, located after the turbocharger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a =Engine intercooler temperature </t>
+  </si>
+  <si>
+    <t>PID/a,
+a = Transmission synchronizer clutch value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The current modulation value for the air supply to the synchronizer clutch. </t>
+  </si>
+  <si>
+    <t>PID/a,
+a =Transmission synchronizer brake value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The current modulation value for the air supply to the synchronizer brake. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the current status of the switches that represent the position of the shift finger. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Shift finger positional status
+ Bits 8-7: Reserved—both bits set to 1
+ Bits 6-5: Center rail sense
+ BIts 4-3: Fore/aft sense
+ Bits 2-1: Neutral sense 
+00 Off
+ 01 On
+10 Error condition
+11 Not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the current status of the switches that represent range position. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Transmission range switch status
+ Bits 8-5: Reserved—all bits set to 1
+ Bits 4-3: Low range sense
+ Bits 2-1: High range sense 
+00 Off
+ 01 On
+10 Error condition
+11 Not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the current status of the actuators that control the clutch, the engine defuel mechanism, and the inertia brake. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Transmission actuator status #2
+ Bits 8-7: Inertia brake actuator status
+ Bits 6-5: Defuel actuator status
+ Bits 4-3: Lockup clutch actuator status
+ Bits 2-1: Clutch actuator status 
+00 Off
+ 01 On
+10 Error condition
+11 Not available </t>
+  </si>
+  <si>
+    <t>Identifies the current status of the actuators that move the shift finger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Shift finger actuator status
+ Bits 8-7: Gear actuator #2 status
+ Bits 6-5: Rail actuator #2 status
+ Bits 4-3: Gear actuator #1 status
+ Bits 2-1: Rail actuator #1 status
+00 Off
+ 01 On
+10 Error condition
+11 Not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The current position of the shift finger in the gear direction. </t>
+  </si>
+  <si>
+    <t>PID/a,
+a = Shift finger gear position</t>
+  </si>
+  <si>
+    <t>PID/a,
+a = Steering axle temperature</t>
+  </si>
+  <si>
+    <t>PID/a,
+a = Forward rear drive axle temperature</t>
+  </si>
+  <si>
+    <t>The current position of the shift finger in the rail direction</t>
+  </si>
+  <si>
+    <t>PID/a,
+a = Shift finger rail position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the current status of the actuators that control the parking brakes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Parking brake actuator status
+ Bits 8-5: Reserved—all bits set to 1
+ Bits 4-3: Parking brake off actuator status
+ Bits 2-1: Parking brake on actuator status 
+00 Off
+ 01 On
+10 Error condition
+11 Not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the current state of the device that inhibits use of the engine retarder. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Retarder inhibit status
+ Bits 8-3: Reserved—all bits set to 1
+ Bits 2-1: Retarder inhibit status 
+00 Off (Retarder inhibit not active)
+01 On (Retarder inhibit is active)
+10 Error condition
+11 Not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the current status of the actuators used to control the functions of the auxiliary unit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Transmission actual status #1
+ Bits 8-7: Splitter indirect actuator status
+ Bits 6-5: Splitter direct actuator status
+ Bits 4-3: Range low actuator status
+ Bits 2-1: Range high actuator status 
+00 Off
+ 01 On
+10 Error condition
+11 Not available </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Direction switch status
+ Bits 8-7: Reserved—both bits set to 1
+ Bits 6-5: Forward switch status
+ Bits 4-3: Neutral switch status
+ Bits 2-1: Reverse switch status 
+00 Off
+ 01 On
+10 Error condition
+11 Not available </t>
+  </si>
+  <si>
+    <t>Identifies the current state of the switches that indicate the direction of the transmission.</t>
+  </si>
+  <si>
+    <t>Identifies the current state of the brake switches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Brake switch status
+ Bits 8-5: Reserved—all bits set to 1
+ Bits 4-3: Brake system switch status
+ Bits 2-1: Service brake switch status
+00 Off (Brake pedal released)
+01 On (Brake pedal pressed)
+10 Error condition
+11 Not available </t>
+  </si>
+  <si>
+    <t>Identifies the current state of the components that enable the vehicle to start and operate properly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Vehicle enabling component status
+Bits 8-7: Engine Compartment Door (Hood) Switch Status
+   00= Hood open
+   01= Hood closed
+   10= Error
+   11= Not available/not applicable
+Bits 6-5: Power connect device status
+   00=Off
+   01=On
+   10=Error
+   11=Not available/not applicable
+Bits 4-3: Start enable device status
+   00=Off (Can’t start)
+   01=On (Can Start)
+   10=Error
+   11=Not available/not applicable
+Bits 2-1: Ignition switch status
+   00=Off
+   01=On
+   10=Error
+   11=Not available/not applicable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the current state of the switches used to request an upshift or downshift. </t>
+  </si>
+  <si>
+    <t>PID/a,
+a = Vehicle enabling component status
+ Bits 8-5: Reserved—all bits set to 1
+ Bits 4-3: Downshift switch status
+ Bits 2-1: Upshift switch status 
+00 Off
+ 01 On
+10 Error condition
+11 Not available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio of current output torque allowed (due to adverse operating conditions) to the maximum torque available at the
+current engine speed (under normal operating conditions). 
+Torque Limiting Factor = 100 x Allowed Max. Torque at current engine speed / Max. Torque Available at current engine speed
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Torque Limiting Factor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifies the commanded range for a two speed axle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Two speed axle switch status
+Bit 8: 
+   0=high range is commanded
+   1=low range is commanded
+Bits 7-1: Undefined </t>
+  </si>
+  <si>
+    <t>Identifies the state (active/inactive) of the parking brake switch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Parking brake switch status
+Bit 8: 
+1=active/0=inactive
+Bits 7-1: Undefined </t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of the idle shutdown timer system (active, not active) for the various modes of operation. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Idle shutdown timer status
+Bit 8: Idle shutdown timer status 1=active/0=inactive
+Bits 7-5: Undefined
+Bit 4: Idle shutdown timer function 1=enabled in calibration 0=disabled in calibration
+Bit 3: Idle shutdown timer override 1=active/0=inactive
+Bit 2: Engine has shutdown by idle timer 1=yes/0=no
+Bit 1: Driver alert mode 1=active/0=inactive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relative position of the blower bypass valve. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Blower bypass valve position </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Auxiliary water pump pressure </t>
+  </si>
+  <si>
+    <t>13.8 kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gage pressure of auxiliary water pump driven as a PTO device. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum vehicle velocity allowed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Maximum road speed limit </t>
+  </si>
+  <si>
+    <t>0.5 mph</t>
+  </si>
+  <si>
+    <t>Temperature of lubricant in steering axle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Steering axle temperature </t>
+  </si>
+  <si>
+    <t>1.2 *F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gage pressure of air in system that utilizes compressed air to provide force between a lift axle and frame for purposes of
+lifting or lowering the axle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Axle #1 lift air pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature of axle lubricant in forward rear drive axle. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature of axle lubricant in rear rear drive axle.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Rear rear drive axle temperature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicated temperature of road surface over which vehicle is operating. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio of volume of liquid to total container volume of fluid reservoir in windshield wash system. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Washer fluid level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exhaust back pressure as a result of particle accumulation on filter media placed in the exhaust stream. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Particulate trap inlet pressure </t>
+  </si>
+  <si>
+    <t>0.169 kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gage pressure of air in an engine starting system that utilizes compressed air to provide the force required to rotate the
+crankshaft. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Air start pressure </t>
+  </si>
+  <si>
+    <t>State (active or not active) of the system used to limit maximum vehicle velocity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Road speed limit status
+ Bit 8: 1=active/0=not active
+ Bits 7-1: Undefined </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicated vehicle velocity. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a =Road speed </t>
+  </si>
+  <si>
+    <t>0.805 km/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of the vehicle velocity control system (active, not active), and system switch (on, off), for various system operating
+modes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Cruise control status
+ Bit 8: cruise mode 1=active/0=not active
+ Bit 7: clutch switch 1=on/0=off
+ Bit 6: brake switch 1=on/0=off
+ Bit 5: accel switch 1=on/0=off
+ Bit 4: resume switch 1=on/0=off
+ Bit 3: coast switch 1=on/0=off
+ Bit 2: set switch 1=on/0=off
+ Bit 1: cruise control switch 1=on/0=off </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value of set (chosen) velocity of velocity control system. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Cruise control set speed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum vehicle velocity allowed at any cruise control set speed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Cruise control high set limit speed </t>
+  </si>
+  <si>
+    <t>Minimum vehicle velocity allowed by cruise control before a speed adjustment is called for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Cruise control low set limit speed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of the system used to transmit engine power to auxiliary equipment. Status indication is for system (active, not
+active), and system switch (on, off), for various operating modes. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Power takeoff status
+ Bit 8: PTO mode 1=active/0=not active
+ Bit 7: clutch switch 1=on/0=off
+ Bit 6: brake switch 1=on/0=off
+ Bit 5: accel switch 1=on/0=off
+ Bit 4: resume switch 1=on/0=off
+ Bit 3: coast switch 1=on/0=off
+ Bit 2: set switch 1=on/0=off
+ Bit 1: PTO control switch 1=on/0=off </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature of lubricant in device used to transmit engine power to auxiliary equipment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Power takeoff oil temperature </t>
+  </si>
+  <si>
+    <t>PID/a,
+a = Percent accelerator pedal position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio of actual accelerator pedal position to maximum pedal position. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio of current output torque to maximum torque available at the current engine speed. </t>
+  </si>
+  <si>
+    <t>PID/a,
+a = Percent engine load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount of torque available at the engine flywheel. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Output torque </t>
+  </si>
+  <si>
+    <t>27.1 N*m</t>
+  </si>
+  <si>
+    <t>Gage pressure of fuel in system as delivered from supply pump to the injection pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Fuel delivery pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in fuel delivery pressure, measured across the filter, due to accumulation of solid or semisolid matter on the filter
+element. </t>
+  </si>
+  <si>
+    <t>PID/a,
+a = Fuel filter differential pressure</t>
+  </si>
+  <si>
+    <t>Ratio of volume of fuel to the total volume of the primary fuel storage container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Fuel level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indication (yes/no) of presence of unacceptable amount of water in fuel system. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Water in fuel indicator
+ Bit 8: 1=yes/0=no
+ Bits 7-1: Undefined </t>
+  </si>
+  <si>
+    <t>Ratio of current volume of engine sump oil to maximum required volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Engine oil level </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in engine oil pressure, measured after filter, due to accumulation of solid or semisolid material on or in the filter. </t>
+  </si>
+  <si>
+    <t>0.431 kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Oil filter differential pressure </t>
+  </si>
+  <si>
+    <t>Gage pressure of oil in engine lubrication system as provided by oil pump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Engine oil pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gage air pressure inside engine crankcase. </t>
+  </si>
+  <si>
+    <t>PID/a,
+a = Crankcase pressure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gage pressure of air measured downstream on the compressor discharge side of the turbocharger. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Boost pressure </t>
+  </si>
+  <si>
+    <t>500 rpm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotational velocity of rotor in turbocharger. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Turbocharger speed </t>
+  </si>
+  <si>
+    <t>Gage pressure of oil in turbocharger lubrication system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Turbo oil pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temperature of precombustion air found in intake manifold of engine air supply system. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Intake manifold temperature </t>
+  </si>
+  <si>
+    <t>Absolute air pressure at inlet to intake manifold or air box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Air inlet pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in engine air system pressure, measured after the filter, due to accumulation of solid foreign matter on or in the
+filter. </t>
+  </si>
+  <si>
+    <t>0.0498 kPa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Air filter differential pressure </t>
+  </si>
+  <si>
+    <t>Absolute air pressure of the atmosphere.</t>
+  </si>
+  <si>
+    <t>PID/a,
+a = Barometric pressure</t>
+  </si>
+  <si>
+    <t>The gage pressure of liquid found in engine cooling system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Coolant pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The temperature of liquid found in engine cooling system. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Engine coolant temperature </t>
+  </si>
+  <si>
+    <t>0.1 *F</t>
+  </si>
+  <si>
+    <t>Ratio of volume of liquid found in engine cooling system to total cooling system volume</t>
+  </si>
+  <si>
+    <t>Change in coolant pressure, measured after the filter, due to accumulation of solid or semisolid matter on or in the filter.</t>
+  </si>
+  <si>
+    <t>PID/a,
+a = Coolant level 
+NOTE: For a two switch system, the first switch is identified by this PID. The second switch is identified by engine SID
+number 312. Refer to manufacturer specific information for the Add Level and the Critically Low Level switch
+designations. (Associated with Engine MIDs 128, 175, 183, 184, 185, 186).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The difference between full load rated engine speed and maximum no-load governed engine speed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Coolant filter differential pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Governor drop </t>
+  </si>
+  <si>
+    <t>2.0 rpm</t>
+  </si>
+  <si>
+    <t>Net flow of electrical current into/out of the battery or batteries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Net battery count </t>
+  </si>
+  <si>
+    <t>1.2 A</t>
+  </si>
+  <si>
+    <t>Measure of electrical flow from the alternator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Alternator current </t>
+  </si>
+  <si>
+    <t>Gage pressure of compressed air or fluid in vehicle braking system measured at the brake chamber when brake shoe (or
+pad) is placed against brake drum (or disc).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Brake application pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gage pressure of air in the primary, or supply side, of the air brake system. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Brake primary pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gage pressure of air in the secondary, or service side, of the air brake system. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Brake secondary pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gage pressure of oil in hydraulic retarder system. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Hydraulic retarder pressure </t>
+  </si>
+  <si>
+    <t>The temperature of the oil in the hydraulic retarder system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Hydraulic retarder oil temperature </t>
+  </si>
+  <si>
+    <t>2.0 *F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of device used to convert engine power to vehicle retarding (stopping) force. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Engine retarder status
+ Bit 8: 1=on/0=off
+ Bit 7: undefined
+ Bit 6: undefined
+ Bit 5: 1=8 cylinder active/0=8 cylinder not active
+ Bit 4: 1=6 cylinder active/0=6 cylinder not active
+ Bit 3: 1=4 cylinder active/0=4 cylinder not active
+ Bit 2: 1=3 cylinder active/0=3 cylinder not active
+ Bit 1: 1=2 cylinder active/0=2 cylinder not active </t>
+  </si>
+  <si>
+    <t>Ratio of current engine retard force to maximum retard force available</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Engine retarder percent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gage pressure of oil within a wet clutch. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Clutch pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio of volume of transmission sump oil to recommended volume. </t>
+  </si>
+  <si>
+    <t>PID/a,
+a = Transmission oil level</t>
+  </si>
+  <si>
+    <t>Amount of current volume of transmission sump oil compared to recommended volume.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Transmission oil level High/Low </t>
+  </si>
+  <si>
+    <t>0.473 L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in transmission fluid pressure, measured after the filter, due to accumulation of solid or semisolid material on or in
+the filter. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Transmission filter differential pressure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gage pressure of lubrication fluid in transmission, measured after pump. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PID/a,
+a = Transmission oil pressure </t>
   </si>
 </sst>
 </file>
@@ -2761,7 +3761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2896,6 +3896,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2956,54 +4020,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3022,88 +4038,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="41">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3349,6 +4291,67 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -3391,79 +4394,79 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3536308-3EBF-4D1A-ADFD-4763E21E03C8}" name="Table1" displayName="Table1" ref="A1:G129" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3536308-3EBF-4D1A-ADFD-4763E21E03C8}" name="Table1" displayName="Table1" ref="A1:G129" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:G129" xr:uid="{5825FDD7-124C-4604-835D-A83B5F69E43F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7F56B9EF-7AB1-4F17-AD03-00E189154D08}" name="PID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{1E76FFCB-CA25-4944-ADCC-080F5A5CCF86}" name="Name" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{6DFCBABC-4D6D-41EE-9C62-E166B1098D21}" name="NUMBER OF DATA BYTE(s)" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{1C8FEB7C-9E06-6043-AFC2-6F3B3659F3BA}" name="Priority" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{84A05634-46A5-D642-802B-9DC80BC72432}" name="Format" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{48E2D8E8-CAD9-B541-89EB-5B79FBF21BEE}" name="Resolution" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{0545F52A-45B5-0643-854A-045374F87CEF}" name="Description" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{7F56B9EF-7AB1-4F17-AD03-00E189154D08}" name="PID" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{1E76FFCB-CA25-4944-ADCC-080F5A5CCF86}" name="Name" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{6DFCBABC-4D6D-41EE-9C62-E166B1098D21}" name="NUMBER OF DATA BYTE(s)" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{1C8FEB7C-9E06-6043-AFC2-6F3B3659F3BA}" name="Priority" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{84A05634-46A5-D642-802B-9DC80BC72432}" name="Format" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{48E2D8E8-CAD9-B541-89EB-5B79FBF21BEE}" name="Resolution" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{0545F52A-45B5-0643-854A-045374F87CEF}" name="Description" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B521781-C555-4FBA-B6F7-F1DAC33C9D1A}" name="Table2" displayName="Table2" ref="A1:C65" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B521781-C555-4FBA-B6F7-F1DAC33C9D1A}" name="Table2" displayName="Table2" ref="A1:C65" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
   <autoFilter ref="A1:C65" xr:uid="{16F1F122-3E87-45D2-8FC9-9D3F0531F4BF}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B6EC38D7-C1D3-420B-9AAA-DED5C0E4E129}" name="PID" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{B6EC38D7-C1D3-420B-9AAA-DED5C0E4E129}" name="PID" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{0E889316-95EF-461D-A56F-9E52488C9C03}" name="DESCRIPTION"/>
-    <tableColumn id="3" xr3:uid="{371B201C-6DB4-415E-9AA4-5089B6015C97}" name="NUMBER OF DATA BYTE(s)" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{371B201C-6DB4-415E-9AA4-5089B6015C97}" name="NUMBER OF DATA BYTE(s)" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7750AE10-5150-48CB-9326-8F0AE1C1A548}" name="Table3" displayName="Table3" ref="A1:C65" totalsRowShown="0" headerRowDxfId="34" headerRowBorderDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7750AE10-5150-48CB-9326-8F0AE1C1A548}" name="Table3" displayName="Table3" ref="A1:C65" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="A1:C65" xr:uid="{368B688F-CFCA-46ED-93A0-625019A054C3}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1B82DAE6-8E2F-450B-8F9E-36197193A8B9}" name="PID" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{1B82DAE6-8E2F-450B-8F9E-36197193A8B9}" name="PID" dataDxfId="22"/>
     <tableColumn id="2" xr3:uid="{E7568FDB-7502-4ECC-82E7-AAE8912D71F1}" name="DESCRIPTION"/>
-    <tableColumn id="3" xr3:uid="{5EF0E721-D9B8-4A88-9D6A-944E78B20C4B}" name="NUMBER OF DATA BYTE(s)" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{5EF0E721-D9B8-4A88-9D6A-944E78B20C4B}" name="NUMBER OF DATA BYTE(s)" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A4A04B0B-E2A8-4514-90D9-9D85659D6F17}" name="Table4" displayName="Table4" ref="A1:D129" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A4A04B0B-E2A8-4514-90D9-9D85659D6F17}" name="Table4" displayName="Table4" ref="A1:D129" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
   <autoFilter ref="A1:D129" xr:uid="{A6F50F0A-CC6C-48E8-8219-A71C2B0EDD0A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1B0BE57F-1D3C-45F3-92FC-AFF6EE4F1782}" name="EXTENSION" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{B7F3C7F5-9B6C-46B4-B08D-44AD8EA0354B}" name="PID" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{1B0BE57F-1D3C-45F3-92FC-AFF6EE4F1782}" name="EXTENSION" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{B7F3C7F5-9B6C-46B4-B08D-44AD8EA0354B}" name="PID" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{B2D1AF4A-6266-4DBA-8354-97634037444F}" name="DESCRIPTION"/>
-    <tableColumn id="4" xr3:uid="{D8145220-342A-4B61-BFC3-0EFA0A923104}" name="NUMBER OF DATA BYTE(s)" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{D8145220-342A-4B61-BFC3-0EFA0A923104}" name="NUMBER OF DATA BYTE(s)" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5E2B707C-B16F-48B6-8796-02B5F255C7D7}" name="Table5" displayName="Table5" ref="A1:D65" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5E2B707C-B16F-48B6-8796-02B5F255C7D7}" name="Table5" displayName="Table5" ref="A1:D65" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <autoFilter ref="A1:D65" xr:uid="{278BD2DA-253C-466D-BE88-EA2E44E2F531}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{133C1978-BE4C-4983-81BB-A5F97B8FC9A0}" name="EXTENSION" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{051CFE1E-D2A1-4183-98EB-772C3DB9F3F7}" name="PID" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{133C1978-BE4C-4983-81BB-A5F97B8FC9A0}" name="EXTENSION" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{051CFE1E-D2A1-4183-98EB-772C3DB9F3F7}" name="PID" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{22B52AC4-B3CA-4C1A-A6FC-9BB4603AC534}" name="DESCRIPTION"/>
-    <tableColumn id="4" xr3:uid="{C2A7C8D9-6842-4396-8BF0-2DB437904A30}" name="NUMBER OF DATA BYTE(s)" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{C2A7C8D9-6842-4396-8BF0-2DB437904A30}" name="NUMBER OF DATA BYTE(s)" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0A2FB50E-C0BB-46FF-BBAC-6D9CD9FF6E86}" name="Table6" displayName="Table6" ref="A1:D65" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0A2FB50E-C0BB-46FF-BBAC-6D9CD9FF6E86}" name="Table6" displayName="Table6" ref="A1:D65" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
   <autoFilter ref="A1:D65" xr:uid="{2986F331-E8C5-453E-81CE-1C00ED385F21}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{60272FA4-4A7F-4880-83FC-686D489D1528}" name="EXTENSION" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{31369B14-A909-42C5-94C1-C4C9C47F981C}" name="PID" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{60272FA4-4A7F-4880-83FC-686D489D1528}" name="EXTENSION" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{31369B14-A909-42C5-94C1-C4C9C47F981C}" name="PID" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{20351968-3D18-4500-AAF0-B578B5910EC3}" name="DESCRIPTION"/>
-    <tableColumn id="4" xr3:uid="{28FBBBF0-5A34-4A54-AC2B-85D2247B908B}" name="NUMBER OF DATA BYTE(s)" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{28FBBBF0-5A34-4A54-AC2B-85D2247B908B}" name="NUMBER OF DATA BYTE(s)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3775,54 +4778,54 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="8" max="8" width="33.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
     <col min="20" max="20" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="16" thickBot="1"/>
+    <row r="1" spans="2:20" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:20">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="62"/>
     </row>
-    <row r="3" spans="2:20" ht="16" thickBot="1">
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
+    <row r="3" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B3" s="90"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="2:20" ht="16" thickBot="1"/>
+    <row r="4" spans="2:20" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:20">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="69"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="62"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="98"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -3832,15 +4835,15 @@
       <c r="P5" s="63"/>
       <c r="Q5" s="63"/>
     </row>
-    <row r="6" spans="2:20" ht="16" thickBot="1">
-      <c r="B6" s="70"/>
-      <c r="C6" s="71"/>
+    <row r="6" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B6" s="94"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="62"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="77"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="101"/>
       <c r="J6" s="63"/>
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
@@ -3850,128 +4853,128 @@
       <c r="P6" s="63"/>
       <c r="Q6" s="63"/>
     </row>
-    <row r="7" spans="2:20" ht="16" thickBot="1"/>
+    <row r="7" spans="2:20" ht="15.75" thickBot="1"/>
     <row r="8" spans="2:20">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="108" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="102"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="110"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="100" t="s">
+      <c r="G8" s="108" t="s">
         <v>384</v>
       </c>
-      <c r="H8" s="101"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="102"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="110"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="2:20" ht="16" thickBot="1">
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="105"/>
+    <row r="9" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B9" s="111"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="113"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="105"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="112"/>
+      <c r="N9" s="112"/>
+      <c r="O9" s="113"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="2:20" ht="16" thickBot="1"/>
+    <row r="10" spans="2:20" ht="15.75" thickBot="1"/>
     <row r="11" spans="2:20">
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="82" t="s">
         <v>385</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="84"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="94" t="s">
+      <c r="G11" s="82" t="s">
         <v>386</v>
       </c>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="96"/>
-    </row>
-    <row r="12" spans="2:20" ht="16" thickBot="1">
-      <c r="B12" s="97"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="99"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="84"/>
+    </row>
+    <row r="12" spans="2:20" ht="15.75" thickBot="1">
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="87"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="99"/>
-    </row>
-    <row r="16" spans="2:20" ht="16" thickBot="1"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="87"/>
+    </row>
+    <row r="16" spans="2:20" ht="15.75" thickBot="1"/>
     <row r="17" spans="2:21" ht="15" customHeight="1">
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="102" t="s">
         <v>587</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
-      <c r="H17" s="84" t="s">
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
+      <c r="H17" s="79" t="s">
         <v>588</v>
       </c>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
-      <c r="M17" s="85"/>
-      <c r="N17" s="85"/>
-      <c r="O17" s="85"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="86"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+      <c r="R17" s="80"/>
+      <c r="S17" s="80"/>
+      <c r="T17" s="80"/>
+      <c r="U17" s="81"/>
     </row>
     <row r="18" spans="2:21" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B18" s="81"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="83"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="89"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="107"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
+      <c r="M18" s="77"/>
+      <c r="N18" s="77"/>
+      <c r="O18" s="77"/>
+      <c r="P18" s="77"/>
+      <c r="Q18" s="77"/>
+      <c r="R18" s="77"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="78"/>
     </row>
     <row r="19" spans="2:21" ht="21">
       <c r="B19" s="15" t="s">
@@ -3983,12 +4986,12 @@
       <c r="H19" s="40" t="s">
         <v>589</v>
       </c>
-      <c r="I19" s="90" t="s">
+      <c r="I19" s="72" t="s">
         <v>590</v>
       </c>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
       <c r="O19" s="41"/>
@@ -4132,7 +5135,7 @@
       <c r="T24" s="41"/>
       <c r="U24" s="42"/>
     </row>
-    <row r="25" spans="2:21" ht="16">
+    <row r="25" spans="2:21" ht="15.75">
       <c r="B25" s="30" t="s">
         <v>551</v>
       </c>
@@ -4164,7 +5167,7 @@
       <c r="T25" s="41"/>
       <c r="U25" s="42"/>
     </row>
-    <row r="26" spans="2:21" ht="16">
+    <row r="26" spans="2:21" ht="15.75">
       <c r="B26" s="30" t="s">
         <v>553</v>
       </c>
@@ -4224,7 +5227,7 @@
       <c r="T27" s="41"/>
       <c r="U27" s="42"/>
     </row>
-    <row r="28" spans="2:21" ht="22" thickBot="1">
+    <row r="28" spans="2:21" ht="21.75" thickBot="1">
       <c r="B28" s="30" t="s">
         <v>560</v>
       </c>
@@ -4252,7 +5255,7 @@
       <c r="T28" s="52"/>
       <c r="U28" s="53"/>
     </row>
-    <row r="29" spans="2:21" ht="16">
+    <row r="29" spans="2:21" ht="15.75">
       <c r="B29" s="30" t="s">
         <v>562</v>
       </c>
@@ -4263,7 +5266,7 @@
       <c r="E29" s="32"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:21" ht="17" thickBot="1">
+    <row r="30" spans="2:21" ht="16.5" thickBot="1">
       <c r="B30" s="30" t="s">
         <v>564</v>
       </c>
@@ -4274,7 +5277,7 @@
       <c r="E30" s="32"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:21" ht="16">
+    <row r="31" spans="2:21" ht="15.75">
       <c r="B31" s="30" t="s">
         <v>566</v>
       </c>
@@ -4305,7 +5308,7 @@
       <c r="S31" s="17"/>
       <c r="T31" s="57"/>
     </row>
-    <row r="32" spans="2:21" ht="64">
+    <row r="32" spans="2:21" ht="75">
       <c r="B32" s="30" t="s">
         <v>549</v>
       </c>
@@ -4329,7 +5332,7 @@
       </c>
       <c r="T32" s="25"/>
     </row>
-    <row r="33" spans="2:20" ht="16">
+    <row r="33" spans="2:20" ht="15.75">
       <c r="B33" s="30" t="s">
         <v>570</v>
       </c>
@@ -4351,7 +5354,7 @@
       </c>
       <c r="T33" s="25"/>
     </row>
-    <row r="34" spans="2:20" ht="16">
+    <row r="34" spans="2:20" ht="15.75">
       <c r="B34" s="30" t="s">
         <v>572</v>
       </c>
@@ -4377,7 +5380,7 @@
       </c>
       <c r="T34" s="25"/>
     </row>
-    <row r="35" spans="2:20" ht="16">
+    <row r="35" spans="2:20" ht="15.75">
       <c r="B35" s="30" t="s">
         <v>574</v>
       </c>
@@ -4400,7 +5403,7 @@
       </c>
       <c r="T35" s="25"/>
     </row>
-    <row r="36" spans="2:20" ht="16">
+    <row r="36" spans="2:20" ht="15.75">
       <c r="B36" s="30" t="s">
         <v>572</v>
       </c>
@@ -4423,7 +5426,7 @@
       </c>
       <c r="T36" s="25"/>
     </row>
-    <row r="37" spans="2:20" ht="16">
+    <row r="37" spans="2:20" ht="15.75">
       <c r="B37" s="30" t="s">
         <v>572</v>
       </c>
@@ -4442,7 +5445,7 @@
       </c>
       <c r="T37" s="25"/>
     </row>
-    <row r="38" spans="2:20" ht="16">
+    <row r="38" spans="2:20" ht="15.75">
       <c r="B38" s="30" t="s">
         <v>577</v>
       </c>
@@ -4465,7 +5468,7 @@
       </c>
       <c r="T38" s="25"/>
     </row>
-    <row r="39" spans="2:20" ht="112">
+    <row r="39" spans="2:20" ht="105">
       <c r="B39" s="30" t="s">
         <v>572</v>
       </c>
@@ -4488,7 +5491,7 @@
       </c>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" spans="2:20" ht="17" thickBot="1">
+    <row r="40" spans="2:20" ht="16.5" thickBot="1">
       <c r="B40" s="30" t="s">
         <v>580</v>
       </c>
@@ -4529,16 +5532,16 @@
         <v>582</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="91" t="s">
+      <c r="I41" s="73" t="s">
         <v>619</v>
       </c>
-      <c r="J41" s="92"/>
-      <c r="K41" s="92"/>
-      <c r="L41" s="92"/>
-      <c r="M41" s="92"/>
-      <c r="N41" s="92"/>
-      <c r="O41" s="92"/>
-      <c r="P41" s="93"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="75"/>
     </row>
     <row r="42" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
       <c r="B42" s="30" t="s">
@@ -4554,16 +5557,16 @@
         <v>584</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="87"/>
-      <c r="J42" s="88"/>
-      <c r="K42" s="88"/>
-      <c r="L42" s="88"/>
-      <c r="M42" s="88"/>
-      <c r="N42" s="88"/>
-      <c r="O42" s="88"/>
-      <c r="P42" s="89"/>
-    </row>
-    <row r="43" spans="2:20" ht="16">
+      <c r="I42" s="76"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
+      <c r="M42" s="77"/>
+      <c r="N42" s="77"/>
+      <c r="O42" s="77"/>
+      <c r="P42" s="78"/>
+    </row>
+    <row r="43" spans="2:20" ht="15.75">
       <c r="B43" s="30" t="s">
         <v>549</v>
       </c>
@@ -4586,7 +5589,7 @@
       </c>
       <c r="P43" s="25"/>
     </row>
-    <row r="44" spans="2:20" ht="16">
+    <row r="44" spans="2:20" ht="15.75">
       <c r="B44" s="30" t="s">
         <v>570</v>
       </c>
@@ -4607,7 +5610,7 @@
       </c>
       <c r="P44" s="25"/>
     </row>
-    <row r="45" spans="2:20" ht="16">
+    <row r="45" spans="2:20" ht="15.75">
       <c r="B45" s="30" t="s">
         <v>572</v>
       </c>
@@ -4626,7 +5629,7 @@
       </c>
       <c r="P45" s="25"/>
     </row>
-    <row r="46" spans="2:20" ht="16">
+    <row r="46" spans="2:20" ht="15.75">
       <c r="B46" s="30" t="s">
         <v>574</v>
       </c>
@@ -4638,7 +5641,7 @@
       <c r="J46" s="4"/>
       <c r="P46" s="25"/>
     </row>
-    <row r="47" spans="2:20" ht="17" thickBot="1">
+    <row r="47" spans="2:20" ht="16.5" thickBot="1">
       <c r="B47" s="37" t="s">
         <v>572</v>
       </c>
@@ -4657,7 +5660,7 @@
       </c>
       <c r="P47" s="25"/>
     </row>
-    <row r="48" spans="2:20" ht="16">
+    <row r="48" spans="2:20" ht="15.75">
       <c r="H48" s="1"/>
       <c r="I48" s="30"/>
       <c r="J48" s="4"/>
@@ -4666,7 +5669,7 @@
       </c>
       <c r="P48" s="25"/>
     </row>
-    <row r="49" spans="8:16" ht="16">
+    <row r="49" spans="8:16" ht="15.75">
       <c r="H49" s="1"/>
       <c r="I49" s="30"/>
       <c r="J49" s="4"/>
@@ -4675,13 +5678,13 @@
       </c>
       <c r="P49" s="25"/>
     </row>
-    <row r="50" spans="8:16" ht="16">
+    <row r="50" spans="8:16" ht="15.75">
       <c r="H50" s="1"/>
       <c r="I50" s="30"/>
       <c r="J50" s="4"/>
       <c r="P50" s="25"/>
     </row>
-    <row r="51" spans="8:16" ht="16">
+    <row r="51" spans="8:16" ht="15.75">
       <c r="H51" s="1"/>
       <c r="I51" s="30"/>
       <c r="J51" s="60" t="s">
@@ -4692,7 +5695,7 @@
       </c>
       <c r="P51" s="25"/>
     </row>
-    <row r="52" spans="8:16" ht="16">
+    <row r="52" spans="8:16" ht="15.75">
       <c r="H52" s="1"/>
       <c r="I52" s="30"/>
       <c r="J52" s="4"/>
@@ -4701,7 +5704,7 @@
       </c>
       <c r="P52" s="25"/>
     </row>
-    <row r="53" spans="8:16" ht="16">
+    <row r="53" spans="8:16" ht="15.75">
       <c r="H53" s="1"/>
       <c r="I53" s="30"/>
       <c r="J53" s="4"/>
@@ -4710,13 +5713,13 @@
       </c>
       <c r="P53" s="25"/>
     </row>
-    <row r="54" spans="8:16" ht="16">
+    <row r="54" spans="8:16" ht="15.75">
       <c r="H54" s="1"/>
       <c r="I54" s="30"/>
       <c r="J54" s="4"/>
       <c r="P54" s="25"/>
     </row>
-    <row r="55" spans="8:16" ht="16">
+    <row r="55" spans="8:16" ht="15.75">
       <c r="H55" s="1"/>
       <c r="I55" s="30"/>
       <c r="J55" s="60" t="s">
@@ -4727,7 +5730,7 @@
       </c>
       <c r="P55" s="25"/>
     </row>
-    <row r="56" spans="8:16" ht="16">
+    <row r="56" spans="8:16" ht="15.75">
       <c r="H56" s="1"/>
       <c r="I56" s="30"/>
       <c r="J56" s="4"/>
@@ -4736,7 +5739,7 @@
       </c>
       <c r="P56" s="25"/>
     </row>
-    <row r="57" spans="8:16" ht="16">
+    <row r="57" spans="8:16" ht="15.75">
       <c r="H57" s="1"/>
       <c r="I57" s="30"/>
       <c r="K57" t="s">
@@ -4744,12 +5747,12 @@
       </c>
       <c r="P57" s="25"/>
     </row>
-    <row r="58" spans="8:16" ht="16">
+    <row r="58" spans="8:16" ht="15.75">
       <c r="H58" s="1"/>
       <c r="I58" s="30"/>
       <c r="P58" s="25"/>
     </row>
-    <row r="59" spans="8:16" ht="16">
+    <row r="59" spans="8:16" ht="15.75">
       <c r="H59" s="1"/>
       <c r="I59" s="30"/>
       <c r="J59" s="60" t="s">
@@ -4760,7 +5763,7 @@
       </c>
       <c r="P59" s="25"/>
     </row>
-    <row r="60" spans="8:16" ht="17" thickBot="1">
+    <row r="60" spans="8:16" ht="16.5" thickBot="1">
       <c r="H60" s="1"/>
       <c r="I60" s="37"/>
       <c r="J60" s="38"/>
@@ -4771,31 +5774,31 @@
       <c r="O60" s="38"/>
       <c r="P60" s="39"/>
     </row>
-    <row r="61" spans="8:16" ht="16">
+    <row r="61" spans="8:16" ht="15.75">
       <c r="H61" s="1"/>
-      <c r="I61" s="84" t="s">
+      <c r="I61" s="79" t="s">
         <v>638</v>
       </c>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="85"/>
-      <c r="P61" s="86"/>
-    </row>
-    <row r="62" spans="8:16" ht="17" thickBot="1">
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="81"/>
+    </row>
+    <row r="62" spans="8:16" ht="16.5" thickBot="1">
       <c r="H62" s="1"/>
-      <c r="I62" s="87"/>
-      <c r="J62" s="88"/>
-      <c r="K62" s="88"/>
-      <c r="L62" s="88"/>
-      <c r="M62" s="88"/>
-      <c r="N62" s="88"/>
-      <c r="O62" s="88"/>
-      <c r="P62" s="89"/>
-    </row>
-    <row r="63" spans="8:16" ht="16">
+      <c r="I62" s="76"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="77"/>
+      <c r="N62" s="77"/>
+      <c r="O62" s="77"/>
+      <c r="P62" s="78"/>
+    </row>
+    <row r="63" spans="8:16" ht="15.75">
       <c r="H63" s="1"/>
       <c r="I63" s="30">
         <v>0</v>
@@ -4805,7 +5808,7 @@
       </c>
       <c r="P63" s="25"/>
     </row>
-    <row r="64" spans="8:16" ht="16">
+    <row r="64" spans="8:16" ht="15.75">
       <c r="H64" s="1"/>
       <c r="I64" s="30">
         <v>1</v>
@@ -4815,7 +5818,7 @@
       </c>
       <c r="P64" s="25"/>
     </row>
-    <row r="65" spans="8:16" ht="16">
+    <row r="65" spans="8:16" ht="15.75">
       <c r="H65" s="1"/>
       <c r="I65" s="30">
         <v>2</v>
@@ -4825,7 +5828,7 @@
       </c>
       <c r="P65" s="25"/>
     </row>
-    <row r="66" spans="8:16" ht="16">
+    <row r="66" spans="8:16" ht="15.75">
       <c r="H66" s="1"/>
       <c r="I66" s="30">
         <v>3</v>
@@ -4835,7 +5838,7 @@
       </c>
       <c r="P66" s="25"/>
     </row>
-    <row r="67" spans="8:16" ht="16">
+    <row r="67" spans="8:16" ht="15.75">
       <c r="H67" s="1"/>
       <c r="I67" s="30">
         <v>4</v>
@@ -4845,7 +5848,7 @@
       </c>
       <c r="P67" s="25"/>
     </row>
-    <row r="68" spans="8:16" ht="16">
+    <row r="68" spans="8:16" ht="15.75">
       <c r="H68" s="1"/>
       <c r="I68" s="30">
         <v>5</v>
@@ -4855,7 +5858,7 @@
       </c>
       <c r="P68" s="25"/>
     </row>
-    <row r="69" spans="8:16" ht="16">
+    <row r="69" spans="8:16" ht="15.75">
       <c r="H69" s="1"/>
       <c r="I69" s="30">
         <v>6</v>
@@ -4865,7 +5868,7 @@
       </c>
       <c r="P69" s="25"/>
     </row>
-    <row r="70" spans="8:16" ht="16">
+    <row r="70" spans="8:16" ht="15.75">
       <c r="H70" s="1"/>
       <c r="I70" s="30">
         <v>7</v>
@@ -4875,7 +5878,7 @@
       </c>
       <c r="P70" s="25"/>
     </row>
-    <row r="71" spans="8:16" ht="16">
+    <row r="71" spans="8:16" ht="15.75">
       <c r="H71" s="1"/>
       <c r="I71" s="30">
         <v>8</v>
@@ -4885,7 +5888,7 @@
       </c>
       <c r="P71" s="25"/>
     </row>
-    <row r="72" spans="8:16" ht="16">
+    <row r="72" spans="8:16" ht="15.75">
       <c r="H72" s="1"/>
       <c r="I72" s="30">
         <v>9</v>
@@ -4895,7 +5898,7 @@
       </c>
       <c r="P72" s="25"/>
     </row>
-    <row r="73" spans="8:16" ht="16">
+    <row r="73" spans="8:16" ht="15.75">
       <c r="H73" s="1"/>
       <c r="I73" s="30">
         <v>10</v>
@@ -4905,7 +5908,7 @@
       </c>
       <c r="P73" s="25"/>
     </row>
-    <row r="74" spans="8:16" ht="16">
+    <row r="74" spans="8:16" ht="15.75">
       <c r="H74" s="1"/>
       <c r="I74" s="30">
         <v>11</v>
@@ -4915,7 +5918,7 @@
       </c>
       <c r="P74" s="25"/>
     </row>
-    <row r="75" spans="8:16" ht="16">
+    <row r="75" spans="8:16" ht="15.75">
       <c r="H75" s="1"/>
       <c r="I75" s="30">
         <v>12</v>
@@ -4925,7 +5928,7 @@
       </c>
       <c r="P75" s="25"/>
     </row>
-    <row r="76" spans="8:16" ht="16">
+    <row r="76" spans="8:16" ht="15.75">
       <c r="H76" s="1"/>
       <c r="I76" s="30">
         <v>13</v>
@@ -4935,7 +5938,7 @@
       </c>
       <c r="P76" s="25"/>
     </row>
-    <row r="77" spans="8:16" ht="16">
+    <row r="77" spans="8:16" ht="15.75">
       <c r="H77" s="1"/>
       <c r="I77" s="30">
         <v>14</v>
@@ -4945,7 +5948,7 @@
       </c>
       <c r="P77" s="25"/>
     </row>
-    <row r="78" spans="8:16" ht="17" thickBot="1">
+    <row r="78" spans="8:16" ht="16.5" thickBot="1">
       <c r="H78" s="1"/>
       <c r="I78" s="37">
         <v>15</v>
@@ -4962,11 +5965,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I41:P42"/>
-    <mergeCell ref="I61:P62"/>
-    <mergeCell ref="B11:E12"/>
-    <mergeCell ref="G11:M12"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="E5:I6"/>
@@ -4974,6 +5972,11 @@
     <mergeCell ref="H17:U18"/>
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="G8:O9"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I41:P42"/>
+    <mergeCell ref="I61:P62"/>
+    <mergeCell ref="B11:E12"/>
+    <mergeCell ref="G11:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4984,17 +5987,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B987EB9-2B7F-41FC-B8FF-2D038FB617ED}">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="52.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="9" t="s">
         <v>389</v>
       </c>
@@ -6313,2317 +7316,3367 @@
   </sheetPr>
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="109" customWidth="1"/>
-    <col min="2" max="2" width="49.33203125" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="109" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="113.5" style="111" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="111" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43" style="112" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="108"/>
+    <col min="1" max="1" width="13.42578125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="49.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="113.42578125" style="69" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="69" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43" style="70" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="64" t="s">
         <v>662</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="64" t="s">
         <v>655</v>
       </c>
-      <c r="E1" s="106" t="s">
+      <c r="E1" s="64" t="s">
         <v>656</v>
       </c>
-      <c r="F1" s="106" t="s">
+      <c r="F1" s="64" t="s">
         <v>658</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="64" t="s">
         <v>663</v>
       </c>
-      <c r="H1" s="108" t="s">
+      <c r="H1" s="66" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="109">
+      <c r="A2" s="67">
         <v>0</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="109">
-        <v>1</v>
-      </c>
-      <c r="D2" s="109">
+      <c r="C2" s="67">
+        <v>1</v>
+      </c>
+      <c r="D2" s="67">
         <v>8</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="69" t="s">
         <v>657</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="70" t="s">
         <v>665</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="66" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="109">
-        <v>1</v>
-      </c>
-      <c r="B3" s="108" t="s">
+      <c r="A3" s="67">
+        <v>1</v>
+      </c>
+      <c r="B3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="109">
-        <v>1</v>
-      </c>
-      <c r="D3" s="109" t="s">
+      <c r="C3" s="67">
+        <v>1</v>
+      </c>
+      <c r="D3" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="E3" s="111" t="s">
+      <c r="E3" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="F3" s="109" t="s">
+      <c r="F3" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="H3" s="108" t="s">
+      <c r="H3" s="66" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="109">
+      <c r="A4" s="67">
         <v>2</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="109">
-        <v>1</v>
-      </c>
-      <c r="D4" s="109" t="s">
+      <c r="C4" s="67">
+        <v>1</v>
+      </c>
+      <c r="D4" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="F4" s="109" t="s">
+      <c r="F4" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="G4" s="111" t="s">
+      <c r="G4" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="66" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="109">
+      <c r="A5" s="67">
         <v>3</v>
       </c>
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="109">
-        <v>1</v>
-      </c>
-      <c r="D5" s="109" t="s">
+      <c r="C5" s="67">
+        <v>1</v>
+      </c>
+      <c r="D5" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="G5" s="111" t="s">
+      <c r="G5" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1">
-      <c r="A6" s="109">
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="67">
         <v>4</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="66" t="s">
         <v>660</v>
       </c>
-      <c r="C6" s="109">
-        <v>1</v>
-      </c>
-      <c r="D6" s="109">
+      <c r="C6" s="67">
+        <v>1</v>
+      </c>
+      <c r="D6" s="67">
         <v>8</v>
       </c>
-      <c r="E6" s="111" t="s">
+      <c r="E6" s="69" t="s">
         <v>661</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G6" s="112" t="s">
+      <c r="G6" s="70" t="s">
         <v>664</v>
       </c>
-      <c r="H6" s="108" t="s">
+      <c r="H6" s="66" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="109">
+      <c r="A7" s="67">
         <v>5</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="109">
-        <v>1</v>
-      </c>
-      <c r="D7" s="109" t="s">
+      <c r="C7" s="67">
+        <v>1</v>
+      </c>
+      <c r="D7" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="F7" s="109" t="s">
+      <c r="F7" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="G7" s="111" t="s">
+      <c r="G7" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="H7" s="108" t="s">
+      <c r="H7" s="66" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="109">
+      <c r="A8" s="67">
         <v>6</v>
       </c>
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="109">
-        <v>1</v>
-      </c>
-      <c r="D8" s="109" t="s">
+      <c r="C8" s="67">
+        <v>1</v>
+      </c>
+      <c r="D8" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="E8" s="111" t="s">
+      <c r="E8" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="F8" s="109" t="s">
+      <c r="F8" s="67" t="s">
         <v>388</v>
       </c>
-      <c r="G8" s="111" t="s">
+      <c r="G8" s="69" t="s">
         <v>388</v>
       </c>
-      <c r="H8" s="108" t="s">
+      <c r="H8" s="66" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="109">
+      <c r="A9" s="67">
         <v>7</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="109">
-        <v>1</v>
-      </c>
-      <c r="D9" s="109">
+      <c r="C9" s="67">
+        <v>1</v>
+      </c>
+      <c r="D9" s="67">
         <v>5</v>
       </c>
-      <c r="E9" s="111" t="s">
+      <c r="E9" s="69" t="s">
         <v>666</v>
       </c>
-      <c r="F9" s="109" t="s">
+      <c r="F9" s="67" t="s">
         <v>667</v>
       </c>
-      <c r="G9" s="112" t="s">
+      <c r="G9" s="70" t="s">
         <v>668</v>
       </c>
-      <c r="H9" s="108" t="s">
+      <c r="H9" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1">
-      <c r="A10" s="109">
+    <row r="10" spans="1:8" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="67">
         <v>8</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="109">
-        <v>1</v>
-      </c>
-      <c r="D10" s="109" t="s">
+      <c r="C10" s="67">
+        <v>1</v>
+      </c>
+      <c r="D10" s="67" t="s">
         <v>675</v>
       </c>
-      <c r="E10" s="113" t="s">
+      <c r="E10" s="71" t="s">
         <v>671</v>
       </c>
-      <c r="F10" s="109" t="s">
+      <c r="F10" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G10" s="112" t="s">
+      <c r="G10" s="70" t="s">
         <v>670</v>
       </c>
-      <c r="H10" s="108" t="s">
+      <c r="H10" s="66" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="109">
+      <c r="A11" s="67">
         <v>9</v>
       </c>
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="109">
-        <v>1</v>
-      </c>
-      <c r="D11" s="109" t="s">
+      <c r="C11" s="67">
+        <v>1</v>
+      </c>
+      <c r="D11" s="67" t="s">
         <v>673</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="69" t="s">
         <v>674</v>
       </c>
-      <c r="F11" s="109" t="s">
+      <c r="F11" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G11" s="112" t="s">
+      <c r="G11" s="70" t="s">
         <v>672</v>
       </c>
-      <c r="H11" s="108" t="s">
+      <c r="H11" s="66" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="109">
+      <c r="A12" s="67">
         <v>10</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="109">
-        <v>1</v>
-      </c>
-      <c r="D12" s="109" t="s">
+      <c r="C12" s="67">
+        <v>1</v>
+      </c>
+      <c r="D12" s="67" t="s">
         <v>673</v>
       </c>
-      <c r="E12" s="111" t="s">
+      <c r="E12" s="69" t="s">
         <v>676</v>
       </c>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G12" s="112" t="s">
+      <c r="G12" s="70" t="s">
         <v>677</v>
       </c>
-      <c r="H12" s="108" t="s">
+      <c r="H12" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="176">
-      <c r="A13" s="109">
+    <row r="13" spans="1:8" ht="165">
+      <c r="A13" s="67">
         <v>11</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="109">
-        <v>1</v>
-      </c>
-      <c r="D13" s="109" t="s">
+      <c r="C13" s="67">
+        <v>1</v>
+      </c>
+      <c r="D13" s="67" t="s">
         <v>678</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="68" t="s">
         <v>679</v>
       </c>
-      <c r="F13" s="109" t="s">
+      <c r="F13" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G13" s="112" t="s">
+      <c r="G13" s="70" t="s">
         <v>680</v>
       </c>
-      <c r="H13" s="108" t="s">
+      <c r="H13" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="240">
-      <c r="A14" s="109">
+    <row r="14" spans="1:8" ht="225">
+      <c r="A14" s="67">
         <v>12</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="109">
-        <v>1</v>
-      </c>
-      <c r="D14" s="109" t="s">
+      <c r="C14" s="67">
+        <v>1</v>
+      </c>
+      <c r="D14" s="67" t="s">
         <v>682</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="68" t="s">
         <v>683</v>
       </c>
-      <c r="F14" s="109" t="s">
+      <c r="F14" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G14" s="112" t="s">
+      <c r="G14" s="70" t="s">
         <v>681</v>
       </c>
-      <c r="H14" s="108" t="s">
+      <c r="H14" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="48">
-      <c r="A15" s="109">
+    <row r="15" spans="1:8" ht="30">
+      <c r="A15" s="67">
         <v>13</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="109">
-        <v>1</v>
-      </c>
-      <c r="D15" s="109" t="s">
+      <c r="C15" s="67">
+        <v>1</v>
+      </c>
+      <c r="D15" s="67" t="s">
         <v>673</v>
       </c>
-      <c r="E15" s="110" t="s">
+      <c r="E15" s="68" t="s">
         <v>686</v>
       </c>
-      <c r="F15" s="109" t="s">
+      <c r="F15" s="67" t="s">
         <v>685</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="70" t="s">
         <v>684</v>
       </c>
-      <c r="H15" s="108" t="s">
+      <c r="H15" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="32">
-      <c r="A16" s="109">
+    <row r="16" spans="1:8" ht="30">
+      <c r="A16" s="67">
         <v>14</v>
       </c>
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="109">
-        <v>1</v>
-      </c>
-      <c r="D16" s="109" t="s">
+      <c r="C16" s="67">
+        <v>1</v>
+      </c>
+      <c r="D16" s="67" t="s">
         <v>673</v>
       </c>
-      <c r="E16" s="110" t="s">
+      <c r="E16" s="68" t="s">
         <v>689</v>
       </c>
-      <c r="F16" s="109" t="s">
+      <c r="F16" s="67" t="s">
         <v>688</v>
       </c>
-      <c r="G16" s="112" t="s">
+      <c r="G16" s="70" t="s">
         <v>687</v>
       </c>
-      <c r="H16" s="108" t="s">
+      <c r="H16" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="32">
-      <c r="A17" s="109">
+    <row r="17" spans="1:8" ht="30">
+      <c r="A17" s="67">
         <v>15</v>
       </c>
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="109">
-        <v>1</v>
-      </c>
-      <c r="D17" s="109" t="s">
+      <c r="C17" s="67">
+        <v>1</v>
+      </c>
+      <c r="D17" s="67" t="s">
         <v>678</v>
       </c>
-      <c r="E17" s="110" t="s">
+      <c r="E17" s="68" t="s">
         <v>692</v>
       </c>
-      <c r="F17" s="109" t="s">
+      <c r="F17" s="67" t="s">
         <v>691</v>
       </c>
-      <c r="G17" s="112" t="s">
+      <c r="G17" s="70" t="s">
         <v>690</v>
       </c>
-      <c r="H17" s="108" t="s">
+      <c r="H17" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="48">
-      <c r="A18" s="109">
+    <row r="18" spans="1:8" ht="30">
+      <c r="A18" s="67">
         <v>16</v>
       </c>
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="109">
-        <v>1</v>
-      </c>
-      <c r="D18" s="109" t="s">
+      <c r="C18" s="67">
+        <v>1</v>
+      </c>
+      <c r="D18" s="67" t="s">
         <v>678</v>
       </c>
-      <c r="E18" s="110" t="s">
+      <c r="E18" s="68" t="s">
         <v>694</v>
       </c>
-      <c r="F18" s="109" t="s">
+      <c r="F18" s="67" t="s">
         <v>691</v>
       </c>
-      <c r="G18" s="112" t="s">
+      <c r="G18" s="70" t="s">
         <v>693</v>
       </c>
-      <c r="H18" s="108" t="s">
+      <c r="H18" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="32">
-      <c r="A19" s="109">
+    <row r="19" spans="1:8" ht="30">
+      <c r="A19" s="67">
         <v>17</v>
       </c>
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="109">
-        <v>1</v>
-      </c>
-      <c r="D19" s="109" t="s">
+      <c r="C19" s="67">
+        <v>1</v>
+      </c>
+      <c r="D19" s="67" t="s">
         <v>678</v>
       </c>
-      <c r="E19" s="110" t="s">
+      <c r="E19" s="68" t="s">
         <v>697</v>
       </c>
-      <c r="F19" s="109" t="s">
+      <c r="F19" s="67" t="s">
         <v>696</v>
       </c>
-      <c r="G19" s="112" t="s">
+      <c r="G19" s="70" t="s">
         <v>695</v>
       </c>
-      <c r="H19" s="108" t="s">
+      <c r="H19" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="32">
-      <c r="A20" s="109">
+    <row r="20" spans="1:8" ht="30">
+      <c r="A20" s="67">
         <v>18</v>
       </c>
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="109">
-        <v>1</v>
-      </c>
-      <c r="D20" s="109" t="s">
+      <c r="C20" s="67">
+        <v>1</v>
+      </c>
+      <c r="D20" s="67" t="s">
         <v>675</v>
       </c>
-      <c r="E20" s="110" t="s">
+      <c r="E20" s="68" t="s">
         <v>699</v>
       </c>
-      <c r="F20" s="109" t="s">
+      <c r="F20" s="67" t="s">
         <v>700</v>
       </c>
-      <c r="G20" s="112" t="s">
+      <c r="G20" s="70" t="s">
         <v>698</v>
       </c>
-      <c r="H20" s="108" t="s">
+      <c r="H20" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="48">
-      <c r="A21" s="109">
+    <row r="21" spans="1:8" ht="30">
+      <c r="A21" s="67">
         <v>19</v>
       </c>
-      <c r="B21" s="108" t="s">
+      <c r="B21" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="109">
-        <v>1</v>
-      </c>
-      <c r="D21" s="109" t="s">
+      <c r="C21" s="67">
+        <v>1</v>
+      </c>
+      <c r="D21" s="67" t="s">
         <v>675</v>
       </c>
-      <c r="E21" s="110" t="s">
+      <c r="E21" s="68" t="s">
         <v>702</v>
       </c>
-      <c r="F21" s="109" t="s">
+      <c r="F21" s="67" t="s">
         <v>700</v>
       </c>
-      <c r="G21" s="112" t="s">
+      <c r="G21" s="70" t="s">
         <v>701</v>
       </c>
-      <c r="H21" s="108" t="s">
+      <c r="H21" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="48">
-      <c r="A22" s="109">
+    <row r="22" spans="1:8" ht="30">
+      <c r="A22" s="67">
         <v>20</v>
       </c>
-      <c r="B22" s="108" t="s">
+      <c r="B22" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="109">
-        <v>1</v>
-      </c>
-      <c r="D22" s="109" t="s">
+      <c r="C22" s="67">
+        <v>1</v>
+      </c>
+      <c r="D22" s="67" t="s">
         <v>675</v>
       </c>
-      <c r="E22" s="110" t="s">
+      <c r="E22" s="68" t="s">
         <v>704</v>
       </c>
-      <c r="F22" s="109" t="s">
+      <c r="F22" s="67" t="s">
         <v>705</v>
       </c>
-      <c r="G22" s="112" t="s">
+      <c r="G22" s="70" t="s">
         <v>703</v>
       </c>
-      <c r="H22" s="108" t="s">
+      <c r="H22" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="32">
-      <c r="A23" s="109">
+    <row r="23" spans="1:8" ht="30">
+      <c r="A23" s="67">
         <v>21</v>
       </c>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="109">
-        <v>1</v>
-      </c>
-      <c r="D23" s="109" t="s">
+      <c r="C23" s="67">
+        <v>1</v>
+      </c>
+      <c r="D23" s="67" t="s">
         <v>673</v>
       </c>
-      <c r="E23" s="110" t="s">
+      <c r="E23" s="68" t="s">
         <v>707</v>
       </c>
-      <c r="F23" s="109" t="s">
+      <c r="F23" s="67" t="s">
         <v>708</v>
       </c>
-      <c r="G23" s="112" t="s">
+      <c r="G23" s="70" t="s">
         <v>706</v>
       </c>
-      <c r="H23" s="108" t="s">
+      <c r="H23" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="48">
-      <c r="A24" s="109">
+    <row r="24" spans="1:8" ht="30">
+      <c r="A24" s="67">
         <v>22</v>
       </c>
-      <c r="B24" s="108" t="s">
+      <c r="B24" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="109">
-        <v>1</v>
-      </c>
-      <c r="D24" s="109" t="s">
+      <c r="C24" s="67">
+        <v>1</v>
+      </c>
+      <c r="D24" s="67" t="s">
         <v>675</v>
       </c>
-      <c r="E24" s="110" t="s">
+      <c r="E24" s="68" t="s">
         <v>711</v>
       </c>
-      <c r="F24" s="109" t="s">
+      <c r="F24" s="67" t="s">
         <v>710</v>
       </c>
-      <c r="G24" s="112" t="s">
+      <c r="G24" s="70" t="s">
         <v>709</v>
       </c>
-      <c r="H24" s="108" t="s">
+      <c r="H24" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="32">
-      <c r="A25" s="109">
+    <row r="25" spans="1:8" ht="30">
+      <c r="A25" s="67">
         <v>23</v>
       </c>
-      <c r="B25" s="108" t="s">
+      <c r="B25" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="109">
-        <v>1</v>
-      </c>
-      <c r="D25" s="109" t="s">
+      <c r="C25" s="67">
+        <v>1</v>
+      </c>
+      <c r="D25" s="67" t="s">
         <v>675</v>
       </c>
-      <c r="E25" s="110" t="s">
+      <c r="E25" s="68" t="s">
         <v>714</v>
       </c>
-      <c r="F25" s="109" t="s">
+      <c r="F25" s="67" t="s">
         <v>713</v>
       </c>
-      <c r="G25" s="112" t="s">
+      <c r="G25" s="70" t="s">
         <v>712</v>
       </c>
-      <c r="H25" s="108" t="s">
+      <c r="H25" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="32">
-      <c r="A26" s="109">
+    <row r="26" spans="1:8" ht="30">
+      <c r="A26" s="67">
         <v>24</v>
       </c>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="109">
-        <v>1</v>
-      </c>
-      <c r="D26" s="109" t="s">
+      <c r="C26" s="67">
+        <v>1</v>
+      </c>
+      <c r="D26" s="67" t="s">
         <v>675</v>
       </c>
-      <c r="E26" s="110" t="s">
+      <c r="E26" s="68" t="s">
         <v>717</v>
       </c>
-      <c r="F26" s="109" t="s">
+      <c r="F26" s="67" t="s">
         <v>716</v>
       </c>
-      <c r="G26" s="112" t="s">
+      <c r="G26" s="70" t="s">
         <v>715</v>
       </c>
-      <c r="H26" s="108" t="s">
+      <c r="H26" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="409.6">
-      <c r="A27" s="109">
+    <row r="27" spans="1:8" ht="390">
+      <c r="A27" s="67">
         <v>25</v>
       </c>
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="109">
-        <v>1</v>
-      </c>
-      <c r="D27" s="109" t="s">
+      <c r="C27" s="67">
+        <v>1</v>
+      </c>
+      <c r="D27" s="67" t="s">
         <v>673</v>
       </c>
-      <c r="E27" s="110" t="s">
+      <c r="E27" s="68" t="s">
         <v>719</v>
       </c>
-      <c r="F27" s="109" t="s">
+      <c r="F27" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G27" s="112" t="s">
+      <c r="G27" s="70" t="s">
         <v>718</v>
       </c>
-      <c r="H27" s="108" t="s">
+      <c r="H27" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="32">
-      <c r="A28" s="109">
+    <row r="28" spans="1:8" ht="30">
+      <c r="A28" s="67">
         <v>26</v>
       </c>
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="109">
-        <v>1</v>
-      </c>
-      <c r="D28" s="109" t="s">
+      <c r="C28" s="67">
+        <v>1</v>
+      </c>
+      <c r="D28" s="67" t="s">
         <v>673</v>
       </c>
-      <c r="E28" s="110" t="s">
+      <c r="E28" s="68" t="s">
         <v>721</v>
       </c>
-      <c r="F28" s="109" t="s">
+      <c r="F28" s="67" t="s">
         <v>685</v>
       </c>
-      <c r="G28" s="112" t="s">
+      <c r="G28" s="70" t="s">
         <v>720</v>
       </c>
-      <c r="H28" s="108" t="s">
+      <c r="H28" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="32">
-      <c r="A29" s="109">
+    <row r="29" spans="1:8" ht="30">
+      <c r="A29" s="67">
         <v>27</v>
       </c>
-      <c r="B29" s="108" t="s">
+      <c r="B29" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="109">
-        <v>1</v>
-      </c>
-      <c r="D29" s="109" t="s">
+      <c r="C29" s="67">
+        <v>1</v>
+      </c>
+      <c r="D29" s="67" t="s">
         <v>675</v>
       </c>
-      <c r="E29" s="110" t="s">
+      <c r="E29" s="68" t="s">
         <v>722</v>
       </c>
-      <c r="F29" s="109" t="s">
+      <c r="F29" s="67" t="s">
         <v>696</v>
       </c>
-      <c r="G29" s="112" t="s">
+      <c r="G29" s="70" t="s">
         <v>723</v>
       </c>
-      <c r="H29" s="108" t="s">
+      <c r="H29" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="32">
-      <c r="A30" s="109">
+    <row r="30" spans="1:8" ht="30">
+      <c r="A30" s="67">
         <v>28</v>
       </c>
-      <c r="B30" s="108" t="s">
+      <c r="B30" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="109">
-        <v>1</v>
-      </c>
-      <c r="D30" s="109" t="s">
+      <c r="C30" s="67">
+        <v>1</v>
+      </c>
+      <c r="D30" s="67" t="s">
         <v>726</v>
       </c>
-      <c r="E30" s="110" t="s">
+      <c r="E30" s="68" t="s">
         <v>725</v>
       </c>
-      <c r="F30" s="109" t="s">
+      <c r="F30" s="67" t="s">
         <v>685</v>
       </c>
-      <c r="G30" s="112" t="s">
+      <c r="G30" s="70" t="s">
         <v>724</v>
       </c>
-      <c r="H30" s="108" t="s">
+      <c r="H30" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="32">
-      <c r="A31" s="109">
+    <row r="31" spans="1:8" ht="30">
+      <c r="A31" s="67">
         <v>29</v>
       </c>
-      <c r="B31" s="108" t="s">
+      <c r="B31" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="109">
-        <v>1</v>
-      </c>
-      <c r="D31" s="109" t="s">
+      <c r="C31" s="67">
+        <v>1</v>
+      </c>
+      <c r="D31" s="67" t="s">
         <v>726</v>
       </c>
-      <c r="E31" s="110" t="s">
+      <c r="E31" s="68" t="s">
         <v>727</v>
       </c>
-      <c r="F31" s="109" t="s">
+      <c r="F31" s="67" t="s">
         <v>685</v>
       </c>
-      <c r="G31" s="112" t="s">
+      <c r="G31" s="70" t="s">
         <v>724</v>
       </c>
-      <c r="H31" s="108" t="s">
+      <c r="H31" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="32">
-      <c r="A32" s="109">
+    <row r="32" spans="1:8" ht="30">
+      <c r="A32" s="67">
         <v>30</v>
       </c>
-      <c r="B32" s="108" t="s">
+      <c r="B32" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="109">
-        <v>1</v>
-      </c>
-      <c r="D32" s="109" t="s">
+      <c r="C32" s="67">
+        <v>1</v>
+      </c>
+      <c r="D32" s="67" t="s">
         <v>675</v>
       </c>
-      <c r="E32" s="110" t="s">
+      <c r="E32" s="68" t="s">
         <v>729</v>
       </c>
-      <c r="F32" s="109" t="s">
+      <c r="F32" s="67" t="s">
         <v>728</v>
       </c>
-      <c r="G32" s="112" t="s">
+      <c r="G32" s="70" t="s">
         <v>709</v>
       </c>
-      <c r="H32" s="108" t="s">
+      <c r="H32" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="32">
-      <c r="A33" s="109">
+    <row r="33" spans="1:8" ht="30">
+      <c r="A33" s="67">
         <v>31</v>
       </c>
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="109">
-        <v>1</v>
-      </c>
-      <c r="D33" s="109" t="s">
+      <c r="C33" s="67">
+        <v>1</v>
+      </c>
+      <c r="D33" s="67" t="s">
         <v>673</v>
       </c>
-      <c r="E33" s="110" t="s">
+      <c r="E33" s="68" t="s">
         <v>731</v>
       </c>
-      <c r="F33" s="109" t="s">
+      <c r="F33" s="67" t="s">
         <v>685</v>
       </c>
-      <c r="G33" s="112" t="s">
+      <c r="G33" s="70" t="s">
         <v>730</v>
       </c>
-      <c r="H33" s="108" t="s">
+      <c r="H33" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="109">
+    <row r="34" spans="1:8" ht="60">
+      <c r="A34" s="67">
         <v>32</v>
       </c>
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="109">
-        <v>1</v>
-      </c>
-      <c r="F34" s="109"/>
-      <c r="H34" s="108" t="s">
+      <c r="C34" s="67">
+        <v>1</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E34" s="68" t="s">
+        <v>733</v>
+      </c>
+      <c r="F34" s="67" t="s">
+        <v>685</v>
+      </c>
+      <c r="G34" s="114" t="s">
+        <v>732</v>
+      </c>
+      <c r="H34" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="109">
+    <row r="35" spans="1:8" ht="75">
+      <c r="A35" s="67">
         <v>33</v>
       </c>
-      <c r="B35" s="108" t="s">
+      <c r="B35" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="109">
-        <v>1</v>
-      </c>
-      <c r="F35" s="109"/>
-      <c r="H35" s="108" t="s">
+      <c r="C35" s="67">
+        <v>1</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E35" s="68" t="s">
+        <v>735</v>
+      </c>
+      <c r="F35" s="67" t="s">
+        <v>685</v>
+      </c>
+      <c r="G35" s="114" t="s">
+        <v>734</v>
+      </c>
+      <c r="H35" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="109">
+    <row r="36" spans="1:8" ht="165">
+      <c r="A36" s="67">
         <v>34</v>
       </c>
-      <c r="B36" s="108" t="s">
+      <c r="B36" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="109">
-        <v>1</v>
-      </c>
-      <c r="F36" s="109"/>
-      <c r="H36" s="108" t="s">
+      <c r="C36" s="67">
+        <v>1</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E36" s="68" t="s">
+        <v>737</v>
+      </c>
+      <c r="F36" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G36" s="70" t="s">
+        <v>736</v>
+      </c>
+      <c r="H36" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="109">
+    <row r="37" spans="1:8" ht="165">
+      <c r="A37" s="67">
         <v>35</v>
       </c>
-      <c r="B37" s="108" t="s">
+      <c r="B37" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="109">
-        <v>1</v>
-      </c>
-      <c r="F37" s="109"/>
-      <c r="H37" s="108" t="s">
+      <c r="C37" s="67">
+        <v>1</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E37" s="68" t="s">
+        <v>739</v>
+      </c>
+      <c r="F37" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G37" s="70" t="s">
+        <v>738</v>
+      </c>
+      <c r="H37" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="109">
+    <row r="38" spans="1:8" ht="60">
+      <c r="A38" s="67">
         <v>36</v>
       </c>
-      <c r="B38" s="108" t="s">
+      <c r="B38" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="109">
-        <v>1</v>
-      </c>
-      <c r="F38" s="109"/>
-      <c r="H38" s="108" t="s">
+      <c r="C38" s="67">
+        <v>1</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E38" s="68" t="s">
+        <v>741</v>
+      </c>
+      <c r="F38" s="67" t="s">
+        <v>685</v>
+      </c>
+      <c r="G38" s="114" t="s">
+        <v>740</v>
+      </c>
+      <c r="H38" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="109">
+    <row r="39" spans="1:8" ht="30">
+      <c r="A39" s="67">
         <v>37</v>
       </c>
-      <c r="B39" s="108" t="s">
+      <c r="B39" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="109">
-        <v>1</v>
-      </c>
-      <c r="F39" s="109"/>
-      <c r="H39" s="108" t="s">
+      <c r="C39" s="67">
+        <v>1</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="E39" s="68" t="s">
+        <v>744</v>
+      </c>
+      <c r="F39" s="67" t="s">
+        <v>743</v>
+      </c>
+      <c r="G39" s="70" t="s">
+        <v>742</v>
+      </c>
+      <c r="H39" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="109">
+    <row r="40" spans="1:8" ht="30">
+      <c r="A40" s="67">
         <v>38</v>
       </c>
-      <c r="B40" s="108" t="s">
+      <c r="B40" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="109">
-        <v>1</v>
-      </c>
-      <c r="F40" s="109"/>
-      <c r="H40" s="108" t="s">
+      <c r="C40" s="67">
+        <v>1</v>
+      </c>
+      <c r="D40" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="E40" s="68" t="s">
+        <v>746</v>
+      </c>
+      <c r="F40" s="67" t="s">
+        <v>696</v>
+      </c>
+      <c r="G40" s="70" t="s">
+        <v>745</v>
+      </c>
+      <c r="H40" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="109">
+    <row r="41" spans="1:8" ht="75">
+      <c r="A41" s="67">
         <v>39</v>
       </c>
-      <c r="B41" s="108" t="s">
+      <c r="B41" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="109">
-        <v>1</v>
-      </c>
-      <c r="F41" s="109"/>
-      <c r="H41" s="108" t="s">
+      <c r="C41" s="67">
+        <v>1</v>
+      </c>
+      <c r="D41" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E41" s="68" t="s">
+        <v>747</v>
+      </c>
+      <c r="F41" s="67" t="s">
+        <v>748</v>
+      </c>
+      <c r="G41" s="114" t="s">
+        <v>750</v>
+      </c>
+      <c r="H41" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="109">
+    <row r="42" spans="1:8" ht="315">
+      <c r="A42" s="67">
         <v>40</v>
       </c>
-      <c r="B42" s="108" t="s">
+      <c r="B42" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="109">
-        <v>1</v>
-      </c>
-      <c r="F42" s="109"/>
-      <c r="H42" s="108" t="s">
+      <c r="C42" s="67">
+        <v>1</v>
+      </c>
+      <c r="D42" s="67" t="s">
+        <v>726</v>
+      </c>
+      <c r="E42" s="68" t="s">
+        <v>751</v>
+      </c>
+      <c r="F42" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G42" s="70" t="s">
+        <v>749</v>
+      </c>
+      <c r="H42" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="109">
+    <row r="43" spans="1:8" ht="165">
+      <c r="A43" s="67">
         <v>41</v>
       </c>
-      <c r="B43" s="108" t="s">
+      <c r="B43" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="C43" s="109">
-        <v>1</v>
-      </c>
-      <c r="F43" s="109"/>
-      <c r="H43" s="108" t="s">
+      <c r="C43" s="67">
+        <v>1</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>726</v>
+      </c>
+      <c r="E43" s="68" t="s">
+        <v>753</v>
+      </c>
+      <c r="F43" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G43" s="70" t="s">
+        <v>752</v>
+      </c>
+      <c r="H43" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="109">
+    <row r="44" spans="1:8" ht="135">
+      <c r="A44" s="67">
         <v>42</v>
       </c>
-      <c r="B44" s="108" t="s">
+      <c r="B44" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C44" s="109">
-        <v>1</v>
-      </c>
-      <c r="F44" s="109"/>
-      <c r="H44" s="108" t="s">
+      <c r="C44" s="67">
+        <v>1</v>
+      </c>
+      <c r="D44" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E44" s="68" t="s">
+        <v>755</v>
+      </c>
+      <c r="F44" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G44" s="114" t="s">
+        <v>754</v>
+      </c>
+      <c r="H44" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="109">
+    <row r="45" spans="1:8" ht="165">
+      <c r="A45" s="67">
         <v>43</v>
       </c>
-      <c r="B45" s="108" t="s">
+      <c r="B45" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="109">
-        <v>1</v>
-      </c>
-      <c r="F45" s="109"/>
-      <c r="H45" s="108" t="s">
+      <c r="C45" s="67">
+        <v>1</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E45" s="68" t="s">
+        <v>758</v>
+      </c>
+      <c r="F45" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G45" s="114" t="s">
+        <v>756</v>
+      </c>
+      <c r="H45" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="109">
+    <row r="46" spans="1:8" ht="255">
+      <c r="A46" s="67">
         <v>44</v>
       </c>
-      <c r="B46" s="108" t="s">
+      <c r="B46" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="109">
-        <v>1</v>
-      </c>
-      <c r="F46" s="109"/>
-      <c r="H46" s="108" t="s">
+      <c r="C46" s="67">
+        <v>1</v>
+      </c>
+      <c r="D46" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E46" s="68" t="s">
+        <v>760</v>
+      </c>
+      <c r="F46" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G46" s="70" t="s">
+        <v>759</v>
+      </c>
+      <c r="H46" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="109">
+    <row r="47" spans="1:8" ht="165">
+      <c r="A47" s="67">
         <v>45</v>
       </c>
-      <c r="B47" s="108" t="s">
+      <c r="B47" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="109">
-        <v>1</v>
-      </c>
-      <c r="F47" s="109"/>
-      <c r="H47" s="108" t="s">
+      <c r="C47" s="67">
+        <v>1</v>
+      </c>
+      <c r="D47" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E47" s="68" t="s">
+        <v>764</v>
+      </c>
+      <c r="F47" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G47" s="114" t="s">
+        <v>761</v>
+      </c>
+      <c r="H47" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="109">
+    <row r="48" spans="1:8" ht="30">
+      <c r="A48" s="67">
         <v>46</v>
       </c>
-      <c r="B48" s="108" t="s">
+      <c r="B48" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="109">
-        <v>1</v>
-      </c>
-      <c r="F48" s="109"/>
-      <c r="H48" s="108" t="s">
+      <c r="C48" s="67">
+        <v>1</v>
+      </c>
+      <c r="E48" s="68" t="s">
+        <v>766</v>
+      </c>
+      <c r="F48" s="67" t="s">
+        <v>743</v>
+      </c>
+      <c r="G48" s="70" t="s">
+        <v>765</v>
+      </c>
+      <c r="H48" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="109">
+    <row r="49" spans="1:8" ht="135">
+      <c r="A49" s="67">
         <v>47</v>
       </c>
-      <c r="B49" s="108" t="s">
+      <c r="B49" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="109">
-        <v>1</v>
-      </c>
-      <c r="F49" s="109"/>
-      <c r="H49" s="108" t="s">
+      <c r="C49" s="67">
+        <v>1</v>
+      </c>
+      <c r="E49" s="68" t="s">
+        <v>768</v>
+      </c>
+      <c r="F49" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G49" s="70" t="s">
+        <v>767</v>
+      </c>
+      <c r="H49" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="109">
+    <row r="50" spans="1:8" ht="30">
+      <c r="A50" s="67">
         <v>48</v>
       </c>
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C50" s="109">
-        <v>1</v>
-      </c>
-      <c r="F50" s="109"/>
-      <c r="H50" s="108" t="s">
+      <c r="C50" s="67">
+        <v>1</v>
+      </c>
+      <c r="D50" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E50" s="68" t="s">
+        <v>771</v>
+      </c>
+      <c r="F50" s="67" t="s">
+        <v>770</v>
+      </c>
+      <c r="G50" s="70" t="s">
+        <v>769</v>
+      </c>
+      <c r="H50" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="109">
+    <row r="51" spans="1:8" ht="165">
+      <c r="A51" s="67">
         <v>49</v>
       </c>
-      <c r="B51" s="108" t="s">
+      <c r="B51" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="109">
-        <v>1</v>
-      </c>
-      <c r="F51" s="109"/>
-      <c r="H51" s="108" t="s">
+      <c r="C51" s="67">
+        <v>1</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>726</v>
+      </c>
+      <c r="E51" s="68" t="s">
+        <v>773</v>
+      </c>
+      <c r="F51" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G51" t="s">
+        <v>772</v>
+      </c>
+      <c r="H51" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="109">
+    <row r="52" spans="1:8" ht="330">
+      <c r="A52" s="67">
         <v>50</v>
       </c>
-      <c r="B52" s="108" t="s">
+      <c r="B52" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="109">
-        <v>1</v>
-      </c>
-      <c r="F52" s="109"/>
-      <c r="H52" s="108" t="s">
+      <c r="C52" s="67">
+        <v>1</v>
+      </c>
+      <c r="D52" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E52" s="68" t="s">
+        <v>775</v>
+      </c>
+      <c r="F52" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G52" s="114" t="s">
+        <v>774</v>
+      </c>
+      <c r="H52" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="109">
+    <row r="53" spans="1:8" ht="60">
+      <c r="A53" s="67">
         <v>51</v>
       </c>
-      <c r="B53" s="108" t="s">
+      <c r="B53" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="109">
-        <v>1</v>
-      </c>
-      <c r="F53" s="109"/>
-      <c r="H53" s="108" t="s">
+      <c r="C53" s="67">
+        <v>1</v>
+      </c>
+      <c r="D53" s="67" t="s">
+        <v>726</v>
+      </c>
+      <c r="E53" s="68" t="s">
+        <v>776</v>
+      </c>
+      <c r="F53" s="67" t="s">
+        <v>685</v>
+      </c>
+      <c r="G53" s="114" t="s">
+        <v>777</v>
+      </c>
+      <c r="H53" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="109">
+    <row r="54" spans="1:8" ht="30">
+      <c r="A54" s="67">
         <v>52</v>
       </c>
-      <c r="B54" s="108" t="s">
+      <c r="B54" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="109">
-        <v>1</v>
-      </c>
-      <c r="F54" s="109"/>
-      <c r="H54" s="108" t="s">
+      <c r="C54" s="67">
+        <v>1</v>
+      </c>
+      <c r="D54" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="E54" s="68" t="s">
+        <v>779</v>
+      </c>
+      <c r="F54" s="67" t="s">
+        <v>716</v>
+      </c>
+      <c r="G54" s="70" t="s">
+        <v>778</v>
+      </c>
+      <c r="H54" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="109">
+    <row r="55" spans="1:8" ht="30">
+      <c r="A55" s="67">
         <v>53</v>
       </c>
-      <c r="B55" s="108" t="s">
+      <c r="B55" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="109">
-        <v>1</v>
-      </c>
-      <c r="F55" s="109"/>
-      <c r="H55" s="108" t="s">
+      <c r="C55" s="67">
+        <v>1</v>
+      </c>
+      <c r="D55" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E55" s="68" t="s">
+        <v>780</v>
+      </c>
+      <c r="F55" s="67" t="s">
+        <v>685</v>
+      </c>
+      <c r="G55" s="70" t="s">
+        <v>781</v>
+      </c>
+      <c r="H55" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="109">
+    <row r="56" spans="1:8" ht="30">
+      <c r="A56" s="67">
         <v>54</v>
       </c>
-      <c r="B56" s="108" t="s">
+      <c r="B56" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C56" s="109">
-        <v>1</v>
-      </c>
-      <c r="F56" s="109"/>
-      <c r="H56" s="108" t="s">
+      <c r="C56" s="67">
+        <v>1</v>
+      </c>
+      <c r="D56" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E56" s="68" t="s">
+        <v>782</v>
+      </c>
+      <c r="F56" s="67" t="s">
+        <v>685</v>
+      </c>
+      <c r="G56" s="70" t="s">
+        <v>783</v>
+      </c>
+      <c r="H56" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="109">
+    <row r="57" spans="1:8" ht="165">
+      <c r="A57" s="67">
         <v>55</v>
       </c>
-      <c r="B57" s="108" t="s">
+      <c r="B57" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="109">
-        <v>1</v>
-      </c>
-      <c r="F57" s="109"/>
-      <c r="H57" s="108" t="s">
+      <c r="C57" s="67">
+        <v>1</v>
+      </c>
+      <c r="D57" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E57" s="68" t="s">
+        <v>785</v>
+      </c>
+      <c r="F57" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G57" s="70" t="s">
+        <v>784</v>
+      </c>
+      <c r="H57" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="109">
+    <row r="58" spans="1:8" ht="150">
+      <c r="A58" s="67">
         <v>56</v>
       </c>
-      <c r="B58" s="108" t="s">
+      <c r="B58" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="109">
-        <v>1</v>
-      </c>
-      <c r="F58" s="109"/>
-      <c r="H58" s="108" t="s">
+      <c r="C58" s="67">
+        <v>1</v>
+      </c>
+      <c r="D58" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E58" s="68" t="s">
+        <v>787</v>
+      </c>
+      <c r="F58" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G58" s="70" t="s">
+        <v>786</v>
+      </c>
+      <c r="H58" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="109">
+    <row r="59" spans="1:8" ht="165">
+      <c r="A59" s="67">
         <v>57</v>
       </c>
-      <c r="B59" s="108" t="s">
+      <c r="B59" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C59" s="109">
-        <v>1</v>
-      </c>
-      <c r="F59" s="109"/>
-      <c r="H59" s="108" t="s">
+      <c r="C59" s="67">
+        <v>1</v>
+      </c>
+      <c r="D59" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E59" s="68" t="s">
+        <v>789</v>
+      </c>
+      <c r="F59" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G59" s="70" t="s">
+        <v>788</v>
+      </c>
+      <c r="H59" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="109">
+    <row r="60" spans="1:8" ht="165">
+      <c r="A60" s="67">
         <v>58</v>
       </c>
-      <c r="B60" s="108" t="s">
+      <c r="B60" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C60" s="109">
-        <v>1</v>
-      </c>
-      <c r="F60" s="109"/>
-      <c r="H60" s="108" t="s">
+      <c r="C60" s="67">
+        <v>1</v>
+      </c>
+      <c r="D60" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E60" s="68" t="s">
+        <v>791</v>
+      </c>
+      <c r="F60" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G60" s="70" t="s">
+        <v>790</v>
+      </c>
+      <c r="H60" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="109">
+    <row r="61" spans="1:8" ht="30">
+      <c r="A61" s="67">
         <v>59</v>
       </c>
-      <c r="B61" s="108" t="s">
+      <c r="B61" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="109">
-        <v>1</v>
-      </c>
-      <c r="F61" s="109"/>
-      <c r="H61" s="108" t="s">
+      <c r="C61" s="67">
+        <v>1</v>
+      </c>
+      <c r="D61" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E61" s="68" t="s">
+        <v>793</v>
+      </c>
+      <c r="F61" s="67" t="s">
+        <v>685</v>
+      </c>
+      <c r="G61" s="70" t="s">
+        <v>792</v>
+      </c>
+      <c r="H61" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="109">
+    <row r="62" spans="1:8" ht="30">
+      <c r="A62" s="67">
         <v>60</v>
       </c>
-      <c r="B62" s="108" t="s">
+      <c r="B62" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="109">
-        <v>1</v>
-      </c>
-      <c r="F62" s="109"/>
-      <c r="H62" s="108" t="s">
+      <c r="C62" s="67">
+        <v>1</v>
+      </c>
+      <c r="D62" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E62" s="68" t="s">
+        <v>797</v>
+      </c>
+      <c r="F62" s="67" t="s">
+        <v>685</v>
+      </c>
+      <c r="G62" s="70" t="s">
+        <v>796</v>
+      </c>
+      <c r="H62" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="109">
+    <row r="63" spans="1:8" ht="150">
+      <c r="A63" s="67">
         <v>61</v>
       </c>
-      <c r="B63" s="108" t="s">
+      <c r="B63" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="109">
-        <v>1</v>
-      </c>
-      <c r="F63" s="109"/>
-      <c r="H63" s="108" t="s">
+      <c r="C63" s="67">
+        <v>1</v>
+      </c>
+      <c r="D63" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E63" s="68" t="s">
+        <v>799</v>
+      </c>
+      <c r="F63" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G63" s="70" t="s">
+        <v>798</v>
+      </c>
+      <c r="H63" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="109">
+    <row r="64" spans="1:8" ht="135">
+      <c r="A64" s="67">
         <v>62</v>
       </c>
-      <c r="B64" s="108" t="s">
+      <c r="B64" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="109">
-        <v>1</v>
-      </c>
-      <c r="F64" s="109"/>
-      <c r="H64" s="108" t="s">
+      <c r="C64" s="67">
+        <v>1</v>
+      </c>
+      <c r="D64" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E64" s="68" t="s">
+        <v>801</v>
+      </c>
+      <c r="F64" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G64" s="70" t="s">
+        <v>800</v>
+      </c>
+      <c r="H64" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="109">
+    <row r="65" spans="1:8" ht="165">
+      <c r="A65" s="67">
         <v>63</v>
       </c>
-      <c r="B65" s="108" t="s">
+      <c r="B65" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="109">
-        <v>1</v>
-      </c>
-      <c r="F65" s="109"/>
-      <c r="H65" s="108" t="s">
+      <c r="C65" s="67">
+        <v>1</v>
+      </c>
+      <c r="D65" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E65" s="68" t="s">
+        <v>803</v>
+      </c>
+      <c r="F65" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G65" s="70" t="s">
+        <v>802</v>
+      </c>
+      <c r="H65" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="109">
+    <row r="66" spans="1:8" ht="165">
+      <c r="A66" s="67">
         <v>64</v>
       </c>
-      <c r="B66" s="108" t="s">
+      <c r="B66" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="109">
-        <v>1</v>
-      </c>
-      <c r="F66" s="109"/>
-      <c r="H66" s="108" t="s">
+      <c r="C66" s="67">
+        <v>1</v>
+      </c>
+      <c r="D66" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E66" s="68" t="s">
+        <v>804</v>
+      </c>
+      <c r="F66" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G66" t="s">
+        <v>805</v>
+      </c>
+      <c r="H66" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="109">
+    <row r="67" spans="1:8" ht="150">
+      <c r="A67" s="67">
         <v>65</v>
       </c>
-      <c r="B67" s="108" t="s">
+      <c r="B67" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="109">
-        <v>1</v>
-      </c>
-      <c r="F67" s="109"/>
-      <c r="H67" s="108" t="s">
+      <c r="C67" s="67">
+        <v>1</v>
+      </c>
+      <c r="D67" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E67" s="68" t="s">
+        <v>807</v>
+      </c>
+      <c r="F67" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G67" s="70" t="s">
+        <v>806</v>
+      </c>
+      <c r="H67" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="109">
+    <row r="68" spans="1:8" ht="330">
+      <c r="A68" s="67">
         <v>66</v>
       </c>
-      <c r="B68" s="108" t="s">
+      <c r="B68" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="C68" s="109">
-        <v>1</v>
-      </c>
-      <c r="F68" s="109"/>
-      <c r="H68" s="108" t="s">
+      <c r="C68" s="67">
+        <v>1</v>
+      </c>
+      <c r="D68" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E68" s="68" t="s">
+        <v>809</v>
+      </c>
+      <c r="F68" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G68" s="70" t="s">
+        <v>808</v>
+      </c>
+      <c r="H68" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="109">
+    <row r="69" spans="1:8" ht="150">
+      <c r="A69" s="67">
         <v>67</v>
       </c>
-      <c r="B69" s="108" t="s">
+      <c r="B69" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="109">
-        <v>1</v>
-      </c>
-      <c r="F69" s="109"/>
-      <c r="H69" s="108" t="s">
+      <c r="C69" s="67">
+        <v>1</v>
+      </c>
+      <c r="D69" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E69" s="68" t="s">
+        <v>811</v>
+      </c>
+      <c r="F69" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G69" s="70" t="s">
+        <v>810</v>
+      </c>
+      <c r="H69" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="109">
+    <row r="70" spans="1:8" ht="150">
+      <c r="A70" s="67">
         <v>68</v>
       </c>
-      <c r="B70" s="108" t="s">
+      <c r="B70" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="109">
-        <v>1</v>
-      </c>
-      <c r="F70" s="109"/>
-      <c r="H70" s="108" t="s">
+      <c r="C70" s="67">
+        <v>1</v>
+      </c>
+      <c r="D70" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="E70" s="68" t="s">
+        <v>813</v>
+      </c>
+      <c r="F70" s="67" t="s">
+        <v>696</v>
+      </c>
+      <c r="G70" s="114" t="s">
+        <v>812</v>
+      </c>
+      <c r="H70" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="109">
+    <row r="71" spans="1:8" ht="90">
+      <c r="A71" s="67">
         <v>69</v>
       </c>
-      <c r="B71" s="108" t="s">
+      <c r="B71" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="C71" s="109">
-        <v>1</v>
-      </c>
-      <c r="F71" s="109"/>
-      <c r="H71" s="108" t="s">
+      <c r="C71" s="67">
+        <v>1</v>
+      </c>
+      <c r="D71" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="E71" s="68" t="s">
+        <v>815</v>
+      </c>
+      <c r="F71" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G71" s="70" t="s">
+        <v>814</v>
+      </c>
+      <c r="H71" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="109">
+    <row r="72" spans="1:8" ht="75">
+      <c r="A72" s="67">
         <v>70</v>
       </c>
-      <c r="B72" s="108" t="s">
+      <c r="B72" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="109">
-        <v>1</v>
-      </c>
-      <c r="F72" s="109"/>
-      <c r="H72" s="108" t="s">
+      <c r="C72" s="67">
+        <v>1</v>
+      </c>
+      <c r="D72" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E72" s="68" t="s">
+        <v>817</v>
+      </c>
+      <c r="F72" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G72" t="s">
+        <v>816</v>
+      </c>
+      <c r="H72" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="109">
+    <row r="73" spans="1:8" ht="120">
+      <c r="A73" s="67">
         <v>71</v>
       </c>
-      <c r="B73" s="108" t="s">
+      <c r="B73" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="109">
-        <v>1</v>
-      </c>
-      <c r="F73" s="109"/>
-      <c r="H73" s="108" t="s">
+      <c r="C73" s="67">
+        <v>1</v>
+      </c>
+      <c r="D73" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E73" s="68" t="s">
+        <v>819</v>
+      </c>
+      <c r="F73" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G73" s="70" t="s">
+        <v>818</v>
+      </c>
+      <c r="H73" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="109">
+    <row r="74" spans="1:8" ht="30">
+      <c r="A74" s="67">
         <v>72</v>
       </c>
-      <c r="B74" s="108" t="s">
+      <c r="B74" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C74" s="109">
-        <v>1</v>
-      </c>
-      <c r="F74" s="109"/>
-      <c r="H74" s="108" t="s">
+      <c r="C74" s="67">
+        <v>1</v>
+      </c>
+      <c r="D74" s="67" t="s">
+        <v>726</v>
+      </c>
+      <c r="E74" s="68" t="s">
+        <v>821</v>
+      </c>
+      <c r="F74" s="67" t="s">
+        <v>685</v>
+      </c>
+      <c r="G74" s="70" t="s">
+        <v>820</v>
+      </c>
+      <c r="H74" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="109">
+    <row r="75" spans="1:8" ht="30">
+      <c r="A75" s="67">
         <v>73</v>
       </c>
-      <c r="B75" s="108" t="s">
+      <c r="B75" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="C75" s="109">
-        <v>1</v>
-      </c>
-      <c r="F75" s="109"/>
-      <c r="H75" s="108" t="s">
+      <c r="C75" s="67">
+        <v>1</v>
+      </c>
+      <c r="D75" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="E75" s="68" t="s">
+        <v>822</v>
+      </c>
+      <c r="F75" s="67" t="s">
+        <v>823</v>
+      </c>
+      <c r="G75" s="70" t="s">
+        <v>824</v>
+      </c>
+      <c r="H75" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="109">
+    <row r="76" spans="1:8" ht="30">
+      <c r="A76" s="67">
         <v>74</v>
       </c>
-      <c r="B76" s="108" t="s">
+      <c r="B76" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="C76" s="109">
-        <v>1</v>
-      </c>
-      <c r="F76" s="109"/>
-      <c r="H76" s="108" t="s">
+      <c r="C76" s="67">
+        <v>1</v>
+      </c>
+      <c r="D76" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E76" s="68" t="s">
+        <v>826</v>
+      </c>
+      <c r="F76" s="67" t="s">
+        <v>827</v>
+      </c>
+      <c r="G76" s="70" t="s">
+        <v>825</v>
+      </c>
+      <c r="H76" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="109">
+    <row r="77" spans="1:8" ht="30">
+      <c r="A77" s="67">
         <v>75</v>
       </c>
-      <c r="B77" s="108" t="s">
+      <c r="B77" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="109">
-        <v>1</v>
-      </c>
-      <c r="F77" s="109"/>
-      <c r="H77" s="108" t="s">
+      <c r="C77" s="67">
+        <v>1</v>
+      </c>
+      <c r="D77" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E77" s="68" t="s">
+        <v>829</v>
+      </c>
+      <c r="F77" s="67" t="s">
+        <v>830</v>
+      </c>
+      <c r="G77" t="s">
+        <v>828</v>
+      </c>
+      <c r="H77" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="109">
+    <row r="78" spans="1:8" ht="60">
+      <c r="A78" s="67">
         <v>76</v>
       </c>
-      <c r="B78" s="108" t="s">
+      <c r="B78" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="109">
-        <v>1</v>
-      </c>
-      <c r="F78" s="109"/>
-      <c r="H78" s="108" t="s">
+      <c r="C78" s="67">
+        <v>1</v>
+      </c>
+      <c r="D78" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E78" s="68" t="s">
+        <v>832</v>
+      </c>
+      <c r="F78" s="67" t="s">
+        <v>667</v>
+      </c>
+      <c r="G78" s="114" t="s">
+        <v>831</v>
+      </c>
+      <c r="H78" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="109">
+    <row r="79" spans="1:8" ht="30">
+      <c r="A79" s="67">
         <v>77</v>
       </c>
-      <c r="B79" s="108" t="s">
+      <c r="B79" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C79" s="109">
-        <v>1</v>
-      </c>
-      <c r="F79" s="109"/>
-      <c r="H79" s="108" t="s">
+      <c r="C79" s="67">
+        <v>1</v>
+      </c>
+      <c r="D79" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E79" s="68" t="s">
+        <v>795</v>
+      </c>
+      <c r="F79" s="67" t="s">
+        <v>830</v>
+      </c>
+      <c r="G79" s="70" t="s">
+        <v>833</v>
+      </c>
+      <c r="H79" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="109">
+    <row r="80" spans="1:8" ht="30">
+      <c r="A80" s="67">
         <v>78</v>
       </c>
-      <c r="B80" s="108" t="s">
+      <c r="B80" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C80" s="109">
-        <v>1</v>
-      </c>
-      <c r="F80" s="109"/>
-      <c r="H80" s="108" t="s">
+      <c r="C80" s="67">
+        <v>1</v>
+      </c>
+      <c r="D80" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E80" s="68" t="s">
+        <v>835</v>
+      </c>
+      <c r="F80" s="67" t="s">
+        <v>830</v>
+      </c>
+      <c r="G80" s="70" t="s">
+        <v>834</v>
+      </c>
+      <c r="H80" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="109">
+    <row r="81" spans="1:8" ht="30">
+      <c r="A81" s="67">
         <v>79</v>
       </c>
-      <c r="B81" s="108" t="s">
+      <c r="B81" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C81" s="109">
-        <v>1</v>
-      </c>
-      <c r="F81" s="109"/>
-      <c r="H81" s="108" t="s">
+      <c r="C81" s="67">
+        <v>1</v>
+      </c>
+      <c r="D81" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="E81" s="68" t="s">
+        <v>794</v>
+      </c>
+      <c r="F81" s="67" t="s">
+        <v>708</v>
+      </c>
+      <c r="G81" s="70" t="s">
+        <v>836</v>
+      </c>
+      <c r="H81" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="109">
+    <row r="82" spans="1:8" ht="30">
+      <c r="A82" s="67">
         <v>80</v>
       </c>
-      <c r="B82" s="108" t="s">
+      <c r="B82" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C82" s="109">
-        <v>1</v>
-      </c>
-      <c r="F82" s="109"/>
-      <c r="H82" s="108" t="s">
+      <c r="C82" s="67">
+        <v>1</v>
+      </c>
+      <c r="D82" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="E82" s="68" t="s">
+        <v>838</v>
+      </c>
+      <c r="F82" s="67" t="s">
+        <v>696</v>
+      </c>
+      <c r="G82" s="70" t="s">
+        <v>837</v>
+      </c>
+      <c r="H82" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="109">
+    <row r="83" spans="1:8" ht="30">
+      <c r="A83" s="67">
         <v>81</v>
       </c>
-      <c r="B83" s="108" t="s">
+      <c r="B83" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C83" s="109">
-        <v>1</v>
-      </c>
-      <c r="F83" s="109"/>
-      <c r="H83" s="108" t="s">
+      <c r="C83" s="67">
+        <v>1</v>
+      </c>
+      <c r="D83" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="E83" s="68" t="s">
+        <v>840</v>
+      </c>
+      <c r="F83" s="67" t="s">
+        <v>841</v>
+      </c>
+      <c r="G83" s="70" t="s">
+        <v>839</v>
+      </c>
+      <c r="H83" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="109">
+    <row r="84" spans="1:8" ht="60">
+      <c r="A84" s="67">
         <v>82</v>
       </c>
-      <c r="B84" s="108" t="s">
+      <c r="B84" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C84" s="109">
-        <v>1</v>
-      </c>
-      <c r="F84" s="109"/>
-      <c r="H84" s="108" t="s">
+      <c r="C84" s="67">
+        <v>1</v>
+      </c>
+      <c r="D84" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E84" s="68" t="s">
+        <v>843</v>
+      </c>
+      <c r="F84" s="67" t="s">
+        <v>667</v>
+      </c>
+      <c r="G84" s="114" t="s">
+        <v>842</v>
+      </c>
+      <c r="H84" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="109">
+    <row r="85" spans="1:8" ht="60">
+      <c r="A85" s="67">
         <v>83</v>
       </c>
-      <c r="B85" s="108" t="s">
+      <c r="B85" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C85" s="109">
-        <v>1</v>
-      </c>
-      <c r="F85" s="109"/>
-      <c r="H85" s="108" t="s">
+      <c r="C85" s="67">
+        <v>1</v>
+      </c>
+      <c r="D85" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="E85" s="68" t="s">
+        <v>845</v>
+      </c>
+      <c r="F85" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G85" s="70" t="s">
+        <v>844</v>
+      </c>
+      <c r="H85" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="109">
+    <row r="86" spans="1:8" ht="30">
+      <c r="A86" s="67">
         <v>84</v>
       </c>
-      <c r="B86" s="108" t="s">
+      <c r="B86" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="109">
-        <v>1</v>
-      </c>
-      <c r="F86" s="109"/>
-      <c r="H86" s="108" t="s">
+      <c r="C86" s="67">
+        <v>1</v>
+      </c>
+      <c r="D86" s="67" t="s">
+        <v>762</v>
+      </c>
+      <c r="E86" s="68" t="s">
+        <v>847</v>
+      </c>
+      <c r="F86" s="67" t="s">
+        <v>848</v>
+      </c>
+      <c r="G86" s="70" t="s">
+        <v>846</v>
+      </c>
+      <c r="H86" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="109">
+    <row r="87" spans="1:8" ht="150">
+      <c r="A87" s="67">
         <v>85</v>
       </c>
-      <c r="B87" s="108" t="s">
+      <c r="B87" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="C87" s="109">
-        <v>1</v>
-      </c>
-      <c r="F87" s="109"/>
-      <c r="H87" s="108" t="s">
+      <c r="C87" s="67">
+        <v>1</v>
+      </c>
+      <c r="D87" s="67" t="s">
+        <v>726</v>
+      </c>
+      <c r="E87" s="68" t="s">
+        <v>850</v>
+      </c>
+      <c r="F87" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G87" s="114" t="s">
+        <v>849</v>
+      </c>
+      <c r="H87" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="109">
+    <row r="88" spans="1:8" ht="30">
+      <c r="A88" s="67">
         <v>86</v>
       </c>
-      <c r="B88" s="108" t="s">
+      <c r="B88" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C88" s="109">
-        <v>1</v>
-      </c>
-      <c r="F88" s="109"/>
-      <c r="H88" s="108" t="s">
+      <c r="C88" s="67">
+        <v>1</v>
+      </c>
+      <c r="D88" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="E88" s="68" t="s">
+        <v>852</v>
+      </c>
+      <c r="F88" s="67" t="s">
+        <v>848</v>
+      </c>
+      <c r="G88" s="70" t="s">
+        <v>851</v>
+      </c>
+      <c r="H88" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="109">
+    <row r="89" spans="1:8" ht="30">
+      <c r="A89" s="67">
         <v>87</v>
       </c>
-      <c r="B89" s="108" t="s">
+      <c r="B89" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C89" s="109">
-        <v>1</v>
-      </c>
-      <c r="F89" s="109"/>
-      <c r="H89" s="108" t="s">
+      <c r="C89" s="67">
+        <v>1</v>
+      </c>
+      <c r="D89" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E89" s="68" t="s">
+        <v>854</v>
+      </c>
+      <c r="F89" s="67" t="s">
+        <v>848</v>
+      </c>
+      <c r="G89" s="70" t="s">
+        <v>853</v>
+      </c>
+      <c r="H89" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="109">
+    <row r="90" spans="1:8" ht="30">
+      <c r="A90" s="67">
         <v>88</v>
       </c>
-      <c r="B90" s="108" t="s">
+      <c r="B90" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="C90" s="109">
-        <v>1</v>
-      </c>
-      <c r="F90" s="109"/>
-      <c r="H90" s="108" t="s">
+      <c r="C90" s="67">
+        <v>1</v>
+      </c>
+      <c r="D90" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E90" s="68" t="s">
+        <v>856</v>
+      </c>
+      <c r="F90" s="67" t="s">
+        <v>848</v>
+      </c>
+      <c r="G90" s="70" t="s">
+        <v>855</v>
+      </c>
+      <c r="H90" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="109">
+    <row r="91" spans="1:8" ht="150">
+      <c r="A91" s="67">
         <v>89</v>
       </c>
-      <c r="B91" s="108" t="s">
+      <c r="B91" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C91" s="109">
-        <v>1</v>
-      </c>
-      <c r="F91" s="109"/>
-      <c r="H91" s="108" t="s">
+      <c r="C91" s="67">
+        <v>1</v>
+      </c>
+      <c r="D91" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E91" s="68" t="s">
+        <v>858</v>
+      </c>
+      <c r="F91" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G91" s="114" t="s">
+        <v>857</v>
+      </c>
+      <c r="H91" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="109">
+    <row r="92" spans="1:8" ht="30">
+      <c r="A92" s="67">
         <v>90</v>
       </c>
-      <c r="B92" s="108" t="s">
+      <c r="B92" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C92" s="109">
-        <v>1</v>
-      </c>
-      <c r="F92" s="109"/>
-      <c r="H92" s="108" t="s">
+      <c r="C92" s="67">
+        <v>1</v>
+      </c>
+      <c r="D92" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E92" s="68" t="s">
+        <v>860</v>
+      </c>
+      <c r="F92" s="67" t="s">
+        <v>830</v>
+      </c>
+      <c r="G92" s="70" t="s">
+        <v>859</v>
+      </c>
+      <c r="H92" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="109">
+    <row r="93" spans="1:8" ht="30">
+      <c r="A93" s="67">
         <v>91</v>
       </c>
-      <c r="B93" s="108" t="s">
+      <c r="B93" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C93" s="109">
-        <v>1</v>
-      </c>
-      <c r="F93" s="109"/>
-      <c r="H93" s="108" t="s">
+      <c r="C93" s="67">
+        <v>1</v>
+      </c>
+      <c r="D93" s="67" t="s">
+        <v>726</v>
+      </c>
+      <c r="E93" s="68" t="s">
+        <v>861</v>
+      </c>
+      <c r="F93" s="67" t="s">
+        <v>685</v>
+      </c>
+      <c r="G93" s="70" t="s">
+        <v>862</v>
+      </c>
+      <c r="H93" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="109">
+    <row r="94" spans="1:8" ht="30">
+      <c r="A94" s="67">
         <v>92</v>
       </c>
-      <c r="B94" s="108" t="s">
+      <c r="B94" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="C94" s="109">
-        <v>1</v>
-      </c>
-      <c r="F94" s="109"/>
-      <c r="H94" s="108" t="s">
+      <c r="C94" s="67">
+        <v>1</v>
+      </c>
+      <c r="D94" s="67" t="s">
+        <v>726</v>
+      </c>
+      <c r="E94" s="68" t="s">
+        <v>864</v>
+      </c>
+      <c r="F94" s="67" t="s">
+        <v>696</v>
+      </c>
+      <c r="G94" s="70" t="s">
+        <v>863</v>
+      </c>
+      <c r="H94" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="109">
+    <row r="95" spans="1:8" ht="30">
+      <c r="A95" s="67">
         <v>93</v>
       </c>
-      <c r="B95" s="108" t="s">
+      <c r="B95" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C95" s="109">
-        <v>1</v>
-      </c>
-      <c r="F95" s="109"/>
-      <c r="H95" s="108" t="s">
+      <c r="C95" s="67">
+        <v>1</v>
+      </c>
+      <c r="D95" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E95" s="68" t="s">
+        <v>866</v>
+      </c>
+      <c r="F95" s="67" t="s">
+        <v>867</v>
+      </c>
+      <c r="G95" s="70" t="s">
+        <v>865</v>
+      </c>
+      <c r="H95" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="109">
+    <row r="96" spans="1:8" ht="30">
+      <c r="A96" s="67">
         <v>94</v>
       </c>
-      <c r="B96" s="108" t="s">
+      <c r="B96" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C96" s="109">
-        <v>1</v>
-      </c>
-      <c r="F96" s="109"/>
-      <c r="H96" s="108" t="s">
+      <c r="C96" s="67">
+        <v>1</v>
+      </c>
+      <c r="D96" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="E96" s="68" t="s">
+        <v>869</v>
+      </c>
+      <c r="F96" s="67" t="s">
+        <v>713</v>
+      </c>
+      <c r="G96" s="70" t="s">
+        <v>868</v>
+      </c>
+      <c r="H96" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="109">
+    <row r="97" spans="1:8" ht="60">
+      <c r="A97" s="67">
         <v>95</v>
       </c>
-      <c r="B97" s="108" t="s">
+      <c r="B97" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C97" s="109">
-        <v>1</v>
-      </c>
-      <c r="F97" s="109"/>
-      <c r="H97" s="108" t="s">
+      <c r="C97" s="67">
+        <v>1</v>
+      </c>
+      <c r="D97" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="E97" s="68" t="s">
+        <v>871</v>
+      </c>
+      <c r="F97" s="67" t="s">
+        <v>691</v>
+      </c>
+      <c r="G97" s="114" t="s">
+        <v>870</v>
+      </c>
+      <c r="H97" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="109">
+    <row r="98" spans="1:8" ht="30">
+      <c r="A98" s="67">
         <v>96</v>
       </c>
-      <c r="B98" s="108" t="s">
+      <c r="B98" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C98" s="109">
-        <v>1</v>
-      </c>
-      <c r="F98" s="109"/>
-      <c r="H98" s="108" t="s">
+      <c r="C98" s="67">
+        <v>1</v>
+      </c>
+      <c r="D98" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="E98" s="68" t="s">
+        <v>873</v>
+      </c>
+      <c r="F98" s="67" t="s">
+        <v>696</v>
+      </c>
+      <c r="G98" s="70" t="s">
+        <v>872</v>
+      </c>
+      <c r="H98" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="109">
+    <row r="99" spans="1:8" ht="60">
+      <c r="A99" s="67">
         <v>97</v>
       </c>
-      <c r="B99" s="108" t="s">
+      <c r="B99" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C99" s="109">
-        <v>1</v>
-      </c>
-      <c r="F99" s="109"/>
-      <c r="H99" s="108" t="s">
+      <c r="C99" s="67">
+        <v>1</v>
+      </c>
+      <c r="D99" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="E99" s="68" t="s">
+        <v>875</v>
+      </c>
+      <c r="F99" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G99" s="70" t="s">
+        <v>874</v>
+      </c>
+      <c r="H99" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="109">
+    <row r="100" spans="1:8" ht="30">
+      <c r="A100" s="67">
         <v>98</v>
       </c>
-      <c r="B100" s="108" t="s">
+      <c r="B100" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C100" s="109">
-        <v>1</v>
-      </c>
-      <c r="F100" s="109"/>
-      <c r="H100" s="108" t="s">
+      <c r="C100" s="67">
+        <v>1</v>
+      </c>
+      <c r="D100" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="E100" s="68" t="s">
+        <v>877</v>
+      </c>
+      <c r="F100" s="67" t="s">
+        <v>696</v>
+      </c>
+      <c r="G100" s="70" t="s">
+        <v>876</v>
+      </c>
+      <c r="H100" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="109">
+    <row r="101" spans="1:8" ht="30">
+      <c r="A101" s="67">
         <v>99</v>
       </c>
-      <c r="B101" s="108" t="s">
+      <c r="B101" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C101" s="109">
-        <v>1</v>
-      </c>
-      <c r="F101" s="109"/>
-      <c r="H101" s="108" t="s">
+      <c r="C101" s="67">
+        <v>1</v>
+      </c>
+      <c r="D101" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="E101" s="68" t="s">
+        <v>880</v>
+      </c>
+      <c r="F101" s="67" t="s">
+        <v>879</v>
+      </c>
+      <c r="G101" s="70" t="s">
+        <v>878</v>
+      </c>
+      <c r="H101" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
-      <c r="A102" s="109">
+    <row r="102" spans="1:8" ht="30">
+      <c r="A102" s="67">
         <v>100</v>
       </c>
-      <c r="B102" s="108" t="s">
+      <c r="B102" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="C102" s="109">
-        <v>1</v>
-      </c>
-      <c r="F102" s="109"/>
-      <c r="H102" s="108" t="s">
+      <c r="C102" s="67">
+        <v>1</v>
+      </c>
+      <c r="D102" s="67" t="s">
+        <v>763</v>
+      </c>
+      <c r="E102" s="68" t="s">
+        <v>882</v>
+      </c>
+      <c r="F102" s="67" t="s">
+        <v>713</v>
+      </c>
+      <c r="G102" s="70" t="s">
+        <v>881</v>
+      </c>
+      <c r="H102" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
-      <c r="A103" s="109">
+    <row r="103" spans="1:8" ht="30">
+      <c r="A103" s="67">
         <v>101</v>
       </c>
-      <c r="B103" s="108" t="s">
+      <c r="B103" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C103" s="109">
-        <v>1</v>
-      </c>
-      <c r="F103" s="109"/>
-      <c r="H103" s="108" t="s">
+      <c r="C103" s="67">
+        <v>1</v>
+      </c>
+      <c r="D103" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="E103" s="68" t="s">
+        <v>884</v>
+      </c>
+      <c r="F103" s="67" t="s">
+        <v>728</v>
+      </c>
+      <c r="G103" s="70" t="s">
+        <v>883</v>
+      </c>
+      <c r="H103" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
-      <c r="A104" s="109">
+    <row r="104" spans="1:8" ht="30">
+      <c r="A104" s="67">
         <v>102</v>
       </c>
-      <c r="B104" s="108" t="s">
+      <c r="B104" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="109">
-        <v>1</v>
-      </c>
-      <c r="F104" s="109"/>
-      <c r="H104" s="108" t="s">
+      <c r="C104" s="67">
+        <v>1</v>
+      </c>
+      <c r="D104" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="E104" s="68" t="s">
+        <v>886</v>
+      </c>
+      <c r="F104" s="67" t="s">
+        <v>728</v>
+      </c>
+      <c r="G104" s="70" t="s">
+        <v>885</v>
+      </c>
+      <c r="H104" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="109">
+    <row r="105" spans="1:8" ht="30">
+      <c r="A105" s="67">
         <v>103</v>
       </c>
-      <c r="B105" s="108" t="s">
+      <c r="B105" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="C105" s="109">
-        <v>1</v>
-      </c>
-      <c r="F105" s="109"/>
-      <c r="H105" s="108" t="s">
+      <c r="C105" s="67">
+        <v>1</v>
+      </c>
+      <c r="D105" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="E105" s="68" t="s">
+        <v>889</v>
+      </c>
+      <c r="F105" s="67" t="s">
+        <v>887</v>
+      </c>
+      <c r="G105" s="70" t="s">
+        <v>888</v>
+      </c>
+      <c r="H105" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
-      <c r="A106" s="109">
+    <row r="106" spans="1:8" ht="30">
+      <c r="A106" s="67">
         <v>104</v>
       </c>
-      <c r="B106" s="108" t="s">
+      <c r="B106" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C106" s="109">
-        <v>1</v>
-      </c>
-      <c r="F106" s="109"/>
-      <c r="H106" s="108" t="s">
+      <c r="C106" s="67">
+        <v>1</v>
+      </c>
+      <c r="D106" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="E106" s="68" t="s">
+        <v>891</v>
+      </c>
+      <c r="F106" s="67" t="s">
+        <v>667</v>
+      </c>
+      <c r="G106" s="70" t="s">
+        <v>890</v>
+      </c>
+      <c r="H106" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
-      <c r="A107" s="109">
+    <row r="107" spans="1:8" ht="30">
+      <c r="A107" s="67">
         <v>105</v>
       </c>
-      <c r="B107" s="108" t="s">
+      <c r="B107" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="C107" s="109">
-        <v>1</v>
-      </c>
-      <c r="F107" s="109"/>
-      <c r="H107" s="108" t="s">
+      <c r="C107" s="67">
+        <v>1</v>
+      </c>
+      <c r="D107" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E107" s="68" t="s">
+        <v>893</v>
+      </c>
+      <c r="F107" s="67" t="s">
+        <v>716</v>
+      </c>
+      <c r="G107" s="70" t="s">
+        <v>892</v>
+      </c>
+      <c r="H107" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
-      <c r="A108" s="109">
+    <row r="108" spans="1:8" ht="30">
+      <c r="A108" s="67">
         <v>106</v>
       </c>
-      <c r="B108" s="108" t="s">
+      <c r="B108" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="C108" s="109">
-        <v>1</v>
-      </c>
-      <c r="F108" s="109"/>
-      <c r="H108" s="108" t="s">
+      <c r="C108" s="67">
+        <v>1</v>
+      </c>
+      <c r="D108" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E108" s="68" t="s">
+        <v>895</v>
+      </c>
+      <c r="F108" s="67" t="s">
+        <v>691</v>
+      </c>
+      <c r="G108" t="s">
+        <v>894</v>
+      </c>
+      <c r="H108" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="109">
+    <row r="109" spans="1:8" ht="60">
+      <c r="A109" s="67">
         <v>107</v>
       </c>
-      <c r="B109" s="108" t="s">
+      <c r="B109" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="C109" s="109">
-        <v>1</v>
-      </c>
-      <c r="F109" s="109"/>
-      <c r="H109" s="108" t="s">
+      <c r="C109" s="67">
+        <v>1</v>
+      </c>
+      <c r="D109" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="E109" s="68" t="s">
+        <v>898</v>
+      </c>
+      <c r="F109" s="67" t="s">
+        <v>897</v>
+      </c>
+      <c r="G109" s="114" t="s">
+        <v>896</v>
+      </c>
+      <c r="H109" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="109">
+    <row r="110" spans="1:8" ht="30">
+      <c r="A110" s="67">
         <v>108</v>
       </c>
-      <c r="B110" s="108" t="s">
+      <c r="B110" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="C110" s="109">
-        <v>1</v>
-      </c>
-      <c r="F110" s="109"/>
-      <c r="H110" s="108" t="s">
+      <c r="C110" s="67">
+        <v>1</v>
+      </c>
+      <c r="D110" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E110" s="68" t="s">
+        <v>900</v>
+      </c>
+      <c r="F110" s="67" t="s">
+        <v>879</v>
+      </c>
+      <c r="G110" t="s">
+        <v>899</v>
+      </c>
+      <c r="H110" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="109">
+    <row r="111" spans="1:8" ht="30">
+      <c r="A111" s="67">
         <v>109</v>
       </c>
-      <c r="B111" s="108" t="s">
+      <c r="B111" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="C111" s="109">
-        <v>1</v>
-      </c>
-      <c r="F111" s="109"/>
-      <c r="H111" s="108" t="s">
+      <c r="C111" s="67">
+        <v>1</v>
+      </c>
+      <c r="D111" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="E111" s="68" t="s">
+        <v>902</v>
+      </c>
+      <c r="F111" s="67" t="s">
+        <v>728</v>
+      </c>
+      <c r="G111" t="s">
+        <v>901</v>
+      </c>
+      <c r="H111" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="109">
+    <row r="112" spans="1:8" ht="30">
+      <c r="A112" s="67">
         <v>110</v>
       </c>
-      <c r="B112" s="108" t="s">
+      <c r="B112" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="C112" s="109">
-        <v>1</v>
-      </c>
-      <c r="F112" s="109"/>
-      <c r="H112" s="108" t="s">
+      <c r="C112" s="67">
+        <v>1</v>
+      </c>
+      <c r="D112" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="E112" s="68" t="s">
+        <v>904</v>
+      </c>
+      <c r="F112" s="67" t="s">
+        <v>905</v>
+      </c>
+      <c r="G112" s="70" t="s">
+        <v>903</v>
+      </c>
+      <c r="H112" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="109">
+    <row r="113" spans="1:8" ht="90">
+      <c r="A113" s="67">
         <v>111</v>
       </c>
-      <c r="B113" s="108" t="s">
+      <c r="B113" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="C113" s="109">
-        <v>1</v>
-      </c>
-      <c r="F113" s="109"/>
-      <c r="H113" s="108" t="s">
+      <c r="C113" s="67">
+        <v>1</v>
+      </c>
+      <c r="D113" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="E113" s="68" t="s">
+        <v>908</v>
+      </c>
+      <c r="F113" s="67" t="s">
+        <v>696</v>
+      </c>
+      <c r="G113" t="s">
+        <v>906</v>
+      </c>
+      <c r="H113" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
-      <c r="A114" s="109">
+    <row r="114" spans="1:8" ht="30">
+      <c r="A114" s="67">
         <v>112</v>
       </c>
-      <c r="B114" s="108" t="s">
+      <c r="B114" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="C114" s="109">
-        <v>1</v>
-      </c>
-      <c r="F114" s="109"/>
-      <c r="H114" s="108" t="s">
+      <c r="C114" s="67">
+        <v>1</v>
+      </c>
+      <c r="D114" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="E114" s="68" t="s">
+        <v>910</v>
+      </c>
+      <c r="F114" s="67" t="s">
+        <v>879</v>
+      </c>
+      <c r="G114" t="s">
+        <v>907</v>
+      </c>
+      <c r="H114" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
-      <c r="A115" s="109">
+    <row r="115" spans="1:8" ht="30">
+      <c r="A115" s="67">
         <v>113</v>
       </c>
-      <c r="B115" s="108" t="s">
+      <c r="B115" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="C115" s="109">
-        <v>1</v>
-      </c>
-      <c r="F115" s="109"/>
-      <c r="H115" s="108" t="s">
+      <c r="C115" s="67">
+        <v>1</v>
+      </c>
+      <c r="D115" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="E115" s="68" t="s">
+        <v>911</v>
+      </c>
+      <c r="F115" s="67" t="s">
+        <v>912</v>
+      </c>
+      <c r="G115" s="70" t="s">
+        <v>909</v>
+      </c>
+      <c r="H115" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
-      <c r="A116" s="109">
+    <row r="116" spans="1:8" ht="30">
+      <c r="A116" s="67">
         <v>114</v>
       </c>
-      <c r="B116" s="108" t="s">
+      <c r="B116" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="C116" s="109">
-        <v>1</v>
-      </c>
-      <c r="F116" s="109"/>
-      <c r="H116" s="108" t="s">
+      <c r="C116" s="67">
+        <v>1</v>
+      </c>
+      <c r="D116" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E116" s="68" t="s">
+        <v>914</v>
+      </c>
+      <c r="F116" s="67" t="s">
+        <v>915</v>
+      </c>
+      <c r="G116" s="70" t="s">
+        <v>913</v>
+      </c>
+      <c r="H116" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="109">
+    <row r="117" spans="1:8" ht="30">
+      <c r="A117" s="67">
         <v>115</v>
       </c>
-      <c r="B117" s="108" t="s">
+      <c r="B117" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="C117" s="109">
-        <v>1</v>
-      </c>
-      <c r="F117" s="109"/>
-      <c r="H117" s="108" t="s">
+      <c r="C117" s="67">
+        <v>1</v>
+      </c>
+      <c r="D117" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E117" s="68" t="s">
+        <v>917</v>
+      </c>
+      <c r="F117" s="67" t="s">
+        <v>915</v>
+      </c>
+      <c r="G117" s="70" t="s">
+        <v>916</v>
+      </c>
+      <c r="H117" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
-      <c r="A118" s="109">
+    <row r="118" spans="1:8" ht="60">
+      <c r="A118" s="67">
         <v>116</v>
       </c>
-      <c r="B118" s="108" t="s">
+      <c r="B118" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="C118" s="109">
-        <v>1</v>
-      </c>
-      <c r="F118" s="109"/>
-      <c r="H118" s="108" t="s">
+      <c r="C118" s="67">
+        <v>1</v>
+      </c>
+      <c r="D118" s="67" t="s">
+        <v>762</v>
+      </c>
+      <c r="E118" s="68" t="s">
+        <v>919</v>
+      </c>
+      <c r="F118" s="67" t="s">
+        <v>667</v>
+      </c>
+      <c r="G118" s="114" t="s">
+        <v>918</v>
+      </c>
+      <c r="H118" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
-      <c r="A119" s="109">
+    <row r="119" spans="1:8" ht="30">
+      <c r="A119" s="67">
         <v>117</v>
       </c>
-      <c r="B119" s="108" t="s">
+      <c r="B119" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="C119" s="109">
-        <v>1</v>
-      </c>
-      <c r="F119" s="109"/>
-      <c r="H119" s="108" t="s">
+      <c r="C119" s="67">
+        <v>1</v>
+      </c>
+      <c r="D119" s="67" t="s">
+        <v>762</v>
+      </c>
+      <c r="E119" s="68" t="s">
+        <v>921</v>
+      </c>
+      <c r="F119" s="67" t="s">
+        <v>667</v>
+      </c>
+      <c r="G119" s="70" t="s">
+        <v>920</v>
+      </c>
+      <c r="H119" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
-      <c r="A120" s="109">
+    <row r="120" spans="1:8" ht="30">
+      <c r="A120" s="67">
         <v>118</v>
       </c>
-      <c r="B120" s="108" t="s">
+      <c r="B120" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="C120" s="109">
-        <v>1</v>
-      </c>
-      <c r="F120" s="109"/>
-      <c r="H120" s="108" t="s">
+      <c r="C120" s="67">
+        <v>1</v>
+      </c>
+      <c r="D120" s="67" t="s">
+        <v>762</v>
+      </c>
+      <c r="E120" s="68" t="s">
+        <v>923</v>
+      </c>
+      <c r="F120" s="67" t="s">
+        <v>667</v>
+      </c>
+      <c r="G120" s="70" t="s">
+        <v>922</v>
+      </c>
+      <c r="H120" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
-      <c r="A121" s="109">
+    <row r="121" spans="1:8" ht="30">
+      <c r="A121" s="67">
         <v>119</v>
       </c>
-      <c r="B121" s="108" t="s">
+      <c r="B121" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="C121" s="109">
-        <v>1</v>
-      </c>
-      <c r="F121" s="109"/>
-      <c r="H121" s="108" t="s">
+      <c r="C121" s="67">
+        <v>1</v>
+      </c>
+      <c r="D121" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E121" s="68" t="s">
+        <v>925</v>
+      </c>
+      <c r="F121" s="67" t="s">
+        <v>667</v>
+      </c>
+      <c r="G121" s="70" t="s">
+        <v>924</v>
+      </c>
+      <c r="H121" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
-      <c r="A122" s="109">
+    <row r="122" spans="1:8" ht="30">
+      <c r="A122" s="67">
         <v>120</v>
       </c>
-      <c r="B122" s="108" t="s">
+      <c r="B122" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="C122" s="109">
-        <v>1</v>
-      </c>
-      <c r="F122" s="109"/>
-      <c r="H122" s="108" t="s">
+      <c r="C122" s="67">
+        <v>1</v>
+      </c>
+      <c r="D122" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E122" s="68" t="s">
+        <v>927</v>
+      </c>
+      <c r="F122" s="67" t="s">
+        <v>928</v>
+      </c>
+      <c r="G122" t="s">
+        <v>926</v>
+      </c>
+      <c r="H122" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
-      <c r="A123" s="109">
+    <row r="123" spans="1:8" ht="150">
+      <c r="A123" s="67">
         <v>121</v>
       </c>
-      <c r="B123" s="108" t="s">
+      <c r="B123" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="C123" s="109">
-        <v>1</v>
-      </c>
-      <c r="F123" s="109"/>
-      <c r="H123" s="108" t="s">
+      <c r="C123" s="67">
+        <v>1</v>
+      </c>
+      <c r="D123" s="67" t="s">
+        <v>726</v>
+      </c>
+      <c r="E123" s="68" t="s">
+        <v>930</v>
+      </c>
+      <c r="F123" s="67" t="s">
+        <v>659</v>
+      </c>
+      <c r="G123" s="70" t="s">
+        <v>929</v>
+      </c>
+      <c r="H123" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
-      <c r="A124" s="109">
+    <row r="124" spans="1:8" ht="30">
+      <c r="A124" s="67">
         <v>122</v>
       </c>
-      <c r="B124" s="108" t="s">
+      <c r="B124" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="C124" s="109">
-        <v>1</v>
-      </c>
-      <c r="F124" s="109"/>
-      <c r="H124" s="108" t="s">
+      <c r="C124" s="67">
+        <v>1</v>
+      </c>
+      <c r="D124" s="67" t="s">
+        <v>757</v>
+      </c>
+      <c r="E124" s="68" t="s">
+        <v>932</v>
+      </c>
+      <c r="F124" s="67" t="s">
+        <v>696</v>
+      </c>
+      <c r="G124" s="70" t="s">
+        <v>931</v>
+      </c>
+      <c r="H124" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
-      <c r="A125" s="109">
+    <row r="125" spans="1:8" ht="30">
+      <c r="A125" s="67">
         <v>123</v>
       </c>
-      <c r="B125" s="108" t="s">
+      <c r="B125" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="C125" s="109">
-        <v>1</v>
-      </c>
-      <c r="F125" s="109"/>
-      <c r="H125" s="108" t="s">
+      <c r="C125" s="67">
+        <v>1</v>
+      </c>
+      <c r="D125" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="E125" s="68" t="s">
+        <v>934</v>
+      </c>
+      <c r="F125" s="67" t="s">
+        <v>823</v>
+      </c>
+      <c r="G125" s="70" t="s">
+        <v>933</v>
+      </c>
+      <c r="H125" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="16">
-      <c r="A126" s="109">
+    <row r="126" spans="1:8" ht="30">
+      <c r="A126" s="67">
         <v>124</v>
       </c>
-      <c r="B126" s="110" t="s">
+      <c r="B126" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="C126" s="109">
-        <v>1</v>
-      </c>
-      <c r="F126" s="109"/>
-      <c r="H126" s="108" t="s">
+      <c r="C126" s="67">
+        <v>1</v>
+      </c>
+      <c r="D126" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="E126" s="68" t="s">
+        <v>936</v>
+      </c>
+      <c r="F126" s="67" t="s">
+        <v>696</v>
+      </c>
+      <c r="G126" s="70" t="s">
+        <v>935</v>
+      </c>
+      <c r="H126" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
-      <c r="A127" s="109">
+    <row r="127" spans="1:8" ht="30">
+      <c r="A127" s="67">
         <v>125</v>
       </c>
-      <c r="B127" s="108" t="s">
+      <c r="B127" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="C127" s="109">
-        <v>1</v>
-      </c>
-      <c r="F127" s="109"/>
-      <c r="H127" s="108" t="s">
+      <c r="C127" s="67">
+        <v>1</v>
+      </c>
+      <c r="D127" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="E127" s="68" t="s">
+        <v>938</v>
+      </c>
+      <c r="F127" s="67" t="s">
+        <v>939</v>
+      </c>
+      <c r="G127" s="70" t="s">
+        <v>937</v>
+      </c>
+      <c r="H127" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="109">
+    <row r="128" spans="1:8" ht="60">
+      <c r="A128" s="67">
         <v>126</v>
       </c>
-      <c r="B128" s="108" t="s">
+      <c r="B128" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="C128" s="109">
-        <v>1</v>
-      </c>
-      <c r="F128" s="109"/>
-      <c r="H128" s="108" t="s">
+      <c r="C128" s="67">
+        <v>1</v>
+      </c>
+      <c r="D128" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="E128" s="68" t="s">
+        <v>941</v>
+      </c>
+      <c r="F128" s="67" t="s">
+        <v>691</v>
+      </c>
+      <c r="G128" s="114" t="s">
+        <v>940</v>
+      </c>
+      <c r="H128" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="109">
+    <row r="129" spans="1:8" ht="30">
+      <c r="A129" s="67">
         <v>127</v>
       </c>
-      <c r="B129" s="108" t="s">
+      <c r="B129" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="C129" s="109">
-        <v>1</v>
-      </c>
-      <c r="F129" s="109"/>
-      <c r="H129" s="108" t="s">
+      <c r="C129" s="67">
+        <v>1</v>
+      </c>
+      <c r="D129" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="E129" s="68" t="s">
+        <v>943</v>
+      </c>
+      <c r="F129" s="67" t="s">
+        <v>823</v>
+      </c>
+      <c r="G129" s="70" t="s">
+        <v>942</v>
+      </c>
+      <c r="H129" s="66" t="s">
         <v>669</v>
       </c>
     </row>
@@ -8646,11 +10699,11 @@
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
@@ -9387,11 +11440,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="59.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21">
@@ -10128,13 +12181,13 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="49" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
@@ -11425,7 +13478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="16">
+    <row r="93" spans="1:4">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -11962,12 +14015,12 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="54.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
@@ -12899,12 +14952,12 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">

--- a/J1587 DA - Xav.xlsx
+++ b/J1587 DA - Xav.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xavier Biancardi\PycharmProjects\Display_rep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Xavier/Desktop/Kivystuff/Truck Monitoring/Truck Screen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E45C476-5D9F-48DB-B0C1-7B51DF3645DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF88DFEA-6366-914F-B46B-FBB6C2168E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{518D265B-68D4-4247-BD98-CED029082955}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" activeTab="4" xr2:uid="{518D265B-68D4-4247-BD98-CED029082955}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="1088">
   <si>
     <t>PID</t>
   </si>
@@ -3447,6 +3447,588 @@
   <si>
     <t xml:space="preserve">PID/a,
 a = Transmission oil pressure </t>
+  </si>
+  <si>
+    <t>PID/a/b,
+a = Parameter number of the requested parameter
+b =MID of the component from which the parameter data is requested</t>
+  </si>
+  <si>
+    <t>Used to request parameter data transmissions from a specified component on the data link.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Injector metering rail #2 pressure</t>
+  </si>
+  <si>
+    <t>The gage pressure of fuel in the metering rail #2 as delivered from the supply pump to the injector metering inlet.</t>
+  </si>
+  <si>
+    <t>0.689 kPa</t>
+  </si>
+  <si>
+    <t>Instantaneous fuel economy of the engine, typically for off-highway equipment.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Power specific fuel economy</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Exhaust back pressure</t>
+  </si>
+  <si>
+    <t>6.733 x 10^-3 kPa</t>
+  </si>
+  <si>
+    <t>1.97 x 10^-3 kWh/L</t>
+  </si>
+  <si>
+    <t>Gage pressure of exhaust gas measured at the exhaust manifold.</t>
+  </si>
+  <si>
+    <t>Mass air flow measured at the fresh air intake.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125 kg/min </t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Mass air flow</t>
+  </si>
+  <si>
+    <t>Continuous averaging of gallons of fuel per hour per segment of engine operation. The average period and reset options are to be defined in the manufacturer’s application document.</t>
+  </si>
+  <si>
+    <t>16.428 x 10^-6 L/s</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Average fuel rate</t>
+  </si>
+  <si>
+    <t>PID/a/b,
+a— Wheel speed sensor status: left side
+Bits 8-7: Wheel sensor ABS axle: 1 left
+Bits 6-5: Wheel sensor ABS axle: 2 left
+Bits 4-3: Wheel sensor ABS axle: 3 left
+Bits 2-1: Wheel sensor ABS axle: 4 left
+b— Wheel speed sensor status: right side
+Bits 8-7: Wheel sensor ABS axle: 1 right
+Bits 6-5: Wheel sensor ABS axle: 2 right
+Bits 4-3: Wheel sensor ABS axle: 3 right
+Bits 2-1: Wheel sensor ABS axle: 4 right
+00 Off/Not active (Sensor present/No active signal)
+01 On/Active (Sensor present/Active signal)
+10 Error condition (Sensor present/Error condition detected) 
+11 Not available (Sensor not present)</t>
+  </si>
+  <si>
+    <t>Identifies the current state of the device that signals individual wheel speeds to the ABS Electronic control Unit.</t>
+  </si>
+  <si>
+    <t>Absolute pressure of fuel in system delivered from the supply pump.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Extended Range Fuel Delivery Pressure (Absolute)</t>
+  </si>
+  <si>
+    <t>Identifies the current vacuum pressure (relative to atmosphere) that is configured uniquely per application. Not to be used in place of existing PIDs.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Auxiliary Vacuum Pressure Reading</t>
+  </si>
+  <si>
+    <t>Identifies the current gage pressure (relative to atmosphere) that is configured uniquely per application. Not to be used in place of existing PIDs.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Auxiliary Gage pressure reading #1</t>
+  </si>
+  <si>
+    <t>Identifies the current absolute pressure (relative to absolute 0 pressure) that is configured uniquely per application. Not to be used in place of existing PIDs.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Auxiliary Absolute Pressure Reading</t>
+  </si>
+  <si>
+    <t>Indicates the functional mode of each channel.</t>
+  </si>
+  <si>
+    <t>PID/a/b,
+a— Tire pressure control system functional mode #1
+Bits 8-5: Reserved—all bits set to 1
+Bits 4-1: Steer channel mode
+b— Tire pressure control system functional mode #2
+Bits 8-5: Drive channel mode
+Bits 4-1: Trailer/tag channel mode
+0000 Maintain
+0001 Inflate
+0010 Deflate
+0011 Confirm
+0100 Inflate wait—system will inflate when conditions allow
+0101 Deflate wait—system will deflate when conditions allow
+0110 Pressure check
+0111-1101 Reserved
+1110 Error condition
+1111 Not available</t>
+  </si>
+  <si>
+    <t>Identifies the current state of the solenoids used to implement a tire pressure control system in its pneumatic control unit (PCU).</t>
+  </si>
+  <si>
+    <t>PID/a/b,
+a— Tire pressure control system solenoid status #1
+Bits 8-5: Bits 4-3: Bits 2-1:
+Reserved—all bits set to 1 PCU steer solenoid status PCU drive solenoid status
+b— Tire pressure control system solenoid status #2
+Bits 8-7: Bits 6-5: Bits 4-3: Bits 2-1:
+PCU trailer, tag, or push solenoid status PCU supply solenoid status
+PCU control solenoid status
+PCU deflate solenoid status
+00 Off
+00 On
+10 Error condition 
+11 Not available</t>
+  </si>
+  <si>
+    <t>The tire pressure control system's target gage pressure for the trailer #1, tag #1, or push #1 group of tires.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Trailer #1, tag #1, or push #1 tire pressure target</t>
+  </si>
+  <si>
+    <t>The tire pressure control system's target gage pressure for the drive group of tires.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Drive channel tire pressure target</t>
+  </si>
+  <si>
+    <t>The tire pressure control system's target gage pressure for the steer group of tires.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Steer channel tire pressure target</t>
+  </si>
+  <si>
+    <t>The latest gage pressure reading of the trailer #1, tag #1, or push #1 group of tires, as opposed to the pressure in each tire.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Trailer #1, tag #1, or push #1 tire pressure</t>
+  </si>
+  <si>
+    <t>The latest gage pressure reading of the drive group of tires, as opposed to the pressure in each tire.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Drive channel tire pressure</t>
+  </si>
+  <si>
+    <t>The latest gage pressure reading of the steer group of tires, as opposed to the pressure in each tire.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Steer channel tire pressure</t>
+  </si>
+  <si>
+    <t>Average of instantaneous fuel economy for that segment of vehicle operation of interest.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Average fuel economy (natural gas)</t>
+  </si>
+  <si>
+    <t>1/512 km/kg</t>
+  </si>
+  <si>
+    <t>Current fuel economy at current vehicle velocity.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Instantaneous fuel economy (natural gas)</t>
+  </si>
+  <si>
+    <t>Amount of fuel consumed by engine per unit of time.</t>
+  </si>
+  <si>
+    <t>0.125 kg/h</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Fuel mass flow rate (natural gas)</t>
+  </si>
+  <si>
+    <t>Identifies the current state of the input and output functions used to control the engagement of PTO devices.</t>
+  </si>
+  <si>
+    <t>PID/a/b,
+a— PTO input status
+Bits 8-7: PTO #4 engagement control switch status
+Bits 6-5: PTO #3 engagement control switch status
+b— PTO output status
+Bits 8-7: PTO #4 engagement actuator status Bits 6-5: PTO #3 engagement actuator status
+00 Off/Not active 
+01 On/Active
+10 Error condition 
+11 Not available</t>
+  </si>
+  <si>
+    <t>Identifies the current state of the ATC control functions, signals, lamp, and switch.</t>
+  </si>
+  <si>
+    <t>PID/a/b,
+a— ATC control status #1
+Bits 8-7: Bits 6-5: Bits 4-3: Bits 2-1:
+ATC spin-out signal detection ATC engine control
+ATC brake control
+ATC status lamp
+b— ATC control status #2
+Bits 8-7: Bits 6-5: Bits 4-3: Bits 2-1:
+Reserved
+VDC engine control
+VDC brake control
+ATC deep snow/mud function switch
+00 Off/Not active
+01 On/Active
+10 Error condition
+11 Not available</t>
+  </si>
+  <si>
+    <t>The number of times the ECU has completed a successful power-up sequence.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Number of ECU resets</t>
+  </si>
+  <si>
+    <t>Gage air pressure inside engine crankcase.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Crankcase pressure</t>
+  </si>
+  <si>
+    <t>7.8125 x 10^-3 kPa</t>
+  </si>
+  <si>
+    <t>Identifies the current status of auxiliary input and output functions that are configured uniquely per application. Not to be used in place of existing PIDs.</t>
+  </si>
+  <si>
+    <t>PID/a/b,
+a— Auxiliary input status
+Bits 8-7: Auxiliary input #8
+Bits 6-5: Auxiliary input #7
+Bits 4-3: Auxiliary input #6
+Bits 2-1: Auxiliary input #5
+b— Auxiliary output status 
+Bits 8-7: Auxiliary output #8
+Bits 6-5: Auxiliary output #7
+Bits 4-3: Auxiliary output #6
+Bits 2-1: Auxiliary output #5
+00 Off
+01 On
+10 Error condition
+11 Not available</t>
+  </si>
+  <si>
+    <t>PID/a/b,
+a— Auxiliary input status
+Bits 8-7: Auxiliary input #4
+Bits 6-5: Auxiliary input #3
+Bits 4-3: Auxiliary input #2
+Bits 2-1: Auxiliary input #1
+b— Auxiliary output status 
+Bits 8-7: Auxiliary output #4
+Bits 6-5: Auxiliary output #3
+Bits 4-3: Auxiliary output #2
+Bits 2-1: Auxiliary output #1
+00 Off
+01 On
+10 Error condition
+11 Not available</t>
+  </si>
+  <si>
+    <t>The gage pressure of fuel in the timing rail as delivered from the supply pump to the injector timing inlet.</t>
+  </si>
+  <si>
+    <t>The gage pressure of fuel in the metering rail as delivered from the supply pump to the injector metering inlet.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Injector metering rail pressure</t>
+  </si>
+  <si>
+    <t>Electrical potential measured at the input of the electronic control unit supplied through a switching device.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Battery potential (voltage)—switched</t>
+  </si>
+  <si>
+    <t>0.05 V</t>
+  </si>
+  <si>
+    <t>Gas supply pressure (gage) to fuel metering device.</t>
+  </si>
+  <si>
+    <t>0.345 kPa</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Gas supply pressure</t>
+  </si>
+  <si>
+    <t>Rotational velocity of the first intermediate shaft of the transmission.</t>
+  </si>
+  <si>
+    <t>0.25 rpm</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Main shaft speed</t>
+  </si>
+  <si>
+    <t>Rotational velocity of the primary shaft transferring power into the transmission. When a torque converter is present, it is the output of the torque converter.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Input shaft speed</t>
+  </si>
+  <si>
+    <t>Range selected by the operator. Characters may include P, R2, R1, R, N, D, D1, D2, L, L1, L2, 1, 2, 3, ... If only one displayable character is required (ASCII 32 to 127), the second character shall be used and the first character shall be either a space (ASCII 32) or a control character (ASCII 0 to 31). If the first character is a control character, refer to the manufacturer’s application document for definition.</t>
+  </si>
+  <si>
+    <t>ASCII</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Transmission range selected and/or control character</t>
+  </si>
+  <si>
+    <t>Range currently being commanded by the transmission control system. Characters may include P, R2, R1, R, N, D, D1, D2, L, L1, L2, 1, 2, 3, ... If only one displayable character is required (ASCII 32 to 127), the second character shall be used and the first character shall be either a space (ASCII 32) or a control character (ASCII 0 to 31). If the first character is a control character, refer to the manufacturer’s application document for definition.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Transmission range attained and/or control character</t>
+  </si>
+  <si>
+    <t>The gage pressure of the hydraulic accumulator that powers fuel injection.</t>
+  </si>
+  <si>
+    <t>1/256 Mpa</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Injection control pressure</t>
+  </si>
+  <si>
+    <t>Present compass bearing of vehicle</t>
+  </si>
+  <si>
+    <t>0.01 degree</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Present compass bearing</t>
+  </si>
+  <si>
+    <t>Net brake power that the engine will deliver continuously, specified for a given application at a rated speed.</t>
+  </si>
+  <si>
+    <t>0.745 kW</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Rated engine power</t>
+  </si>
+  <si>
+    <t>Measured electrical potential of the alternator.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Alternator potential</t>
+  </si>
+  <si>
+    <t>Measured electrical potential of the battery.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = battery potential (voltage)</t>
+  </si>
+  <si>
+    <t>Temperature of air inside vehicle container used to accommodate cargo.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Cargo ambient temperature</t>
+  </si>
+  <si>
+    <t>0.25 *F</t>
+  </si>
+  <si>
+    <t>Temperature of air inside the part of the vehicle that encloses the driver and vehicle operating controls.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Cab interior temperature</t>
+  </si>
+  <si>
+    <t>Temperature of air surrounding vehicle.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Ambient air temperature</t>
+  </si>
+  <si>
+    <t>Temperature of air entering vehicle air induction system.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Air inlet temperature</t>
+  </si>
+  <si>
+    <t>Temperature of combustion byproducts leaving the engine.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Exhaust gas temperature</t>
+  </si>
+  <si>
+    <t>Temperature of fuel entering injectors.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Fuel temperature</t>
+  </si>
+  <si>
+    <t>Temperature of engine lubricant.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Engine oil temperature</t>
+  </si>
+  <si>
+    <t>Temperature of turbocharger lubricant.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Turbo oil temperature</t>
+  </si>
+  <si>
+    <t>Temperature of transmission lubricant.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Transmission oil temperature</t>
+  </si>
+  <si>
+    <t>Total force of gravity imposed by the front tires on the road surface.</t>
+  </si>
+  <si>
+    <t>4.448 N</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Front axle weight</t>
+  </si>
+  <si>
+    <t>Force of gravity imposed on the road surface by all the tires on each individual rear axle.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Rear axle weight</t>
+  </si>
+  <si>
+    <t>Total force of gravity of freight-carrying vehicle designed to be pulled by truck, including the weight of the contents.</t>
+  </si>
+  <si>
+    <t>17.792 N</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Trailer weight</t>
+  </si>
+  <si>
+    <t>The force of gravity of freight carried.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Cargo weight</t>
+  </si>
+  <si>
+    <t>Fuel consumed during all or part of a journey.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.473 L </t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Trip fuel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.428 x 10^-6 L/s </t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Fuel rate (instantaneous)</t>
+  </si>
+  <si>
+    <t>1.66072 x 10^-3 km/L</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Instantaneous fuel economy</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Average fuel economy</t>
+  </si>
+  <si>
+    <t>Rotational velocity of device used to transmit engine power to auxiliary equipment.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Power takeoff speed</t>
+  </si>
+  <si>
+    <t>Rotational velocity selected by operator for device used to transmit engine power to auxiliary equipment.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Power takeoff set speed</t>
+  </si>
+  <si>
+    <t>Minimum nontransient rotational velocity of crankshaft while engine is supplying power to itself and its attendant support systems.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Idle engine speed</t>
+  </si>
+  <si>
+    <t>The maximum governed rotational velocity of the engine crankshaft under full load conditions.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Rated engine speed</t>
+  </si>
+  <si>
+    <t>Rotational velocity of crankshaft.</t>
+  </si>
+  <si>
+    <t>PID/a/a,
+a = Engine speed</t>
+  </si>
+  <si>
+    <t>Rotational velocity of shaft transferring force from transmission to driveshaft.</t>
+  </si>
+  <si>
+    <t>NAME</t>
   </si>
 </sst>
 </file>
@@ -3761,7 +4343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3912,6 +4494,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4038,14 +4626,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="43">
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4245,6 +4833,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4382,7 +4973,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AD4AF160-CAC1-41E9-8591-E348BB04A206}" name="Table7" displayName="Table7" ref="A1:C130" totalsRowShown="0" headerRowDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AD4AF160-CAC1-41E9-8591-E348BB04A206}" name="Table7" displayName="Table7" ref="A1:C130" totalsRowShown="0" headerRowDxfId="42">
   <autoFilter ref="A1:C130" xr:uid="{3FAA1825-644E-4C24-9544-9AAC1496BEFF}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8D45D789-AA8E-4F75-B14D-93DB541F2659}" name="MIDs:"/>
@@ -4394,79 +4985,87 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3536308-3EBF-4D1A-ADFD-4763E21E03C8}" name="Table1" displayName="Table1" ref="A1:G129" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3536308-3EBF-4D1A-ADFD-4763E21E03C8}" name="Table1" displayName="Table1" ref="A1:G129" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:G129" xr:uid="{5825FDD7-124C-4604-835D-A83B5F69E43F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7F56B9EF-7AB1-4F17-AD03-00E189154D08}" name="PID" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{1E76FFCB-CA25-4944-ADCC-080F5A5CCF86}" name="Name" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{6DFCBABC-4D6D-41EE-9C62-E166B1098D21}" name="NUMBER OF DATA BYTE(s)" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{1C8FEB7C-9E06-6043-AFC2-6F3B3659F3BA}" name="Priority" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{84A05634-46A5-D642-802B-9DC80BC72432}" name="Format" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{48E2D8E8-CAD9-B541-89EB-5B79FBF21BEE}" name="Resolution" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{0545F52A-45B5-0643-854A-045374F87CEF}" name="Description" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{7F56B9EF-7AB1-4F17-AD03-00E189154D08}" name="PID" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{1E76FFCB-CA25-4944-ADCC-080F5A5CCF86}" name="Name" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{6DFCBABC-4D6D-41EE-9C62-E166B1098D21}" name="NUMBER OF DATA BYTE(s)" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{1C8FEB7C-9E06-6043-AFC2-6F3B3659F3BA}" name="Priority" dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{84A05634-46A5-D642-802B-9DC80BC72432}" name="Format" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{48E2D8E8-CAD9-B541-89EB-5B79FBF21BEE}" name="Resolution" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{0545F52A-45B5-0643-854A-045374F87CEF}" name="Description" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B521781-C555-4FBA-B6F7-F1DAC33C9D1A}" name="Table2" displayName="Table2" ref="A1:C65" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
-  <autoFilter ref="A1:C65" xr:uid="{16F1F122-3E87-45D2-8FC9-9D3F0531F4BF}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B6EC38D7-C1D3-420B-9AAA-DED5C0E4E129}" name="PID" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{0E889316-95EF-461D-A56F-9E52488C9C03}" name="DESCRIPTION"/>
-    <tableColumn id="3" xr3:uid="{371B201C-6DB4-415E-9AA4-5089B6015C97}" name="NUMBER OF DATA BYTE(s)" dataDxfId="26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B521781-C555-4FBA-B6F7-F1DAC33C9D1A}" name="Table2" displayName="Table2" ref="A1:G65" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
+  <autoFilter ref="A1:G65" xr:uid="{16F1F122-3E87-45D2-8FC9-9D3F0531F4BF}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B6EC38D7-C1D3-420B-9AAA-DED5C0E4E129}" name="PID" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{0E889316-95EF-461D-A56F-9E52488C9C03}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{371B201C-6DB4-415E-9AA4-5089B6015C97}" name="NUMBER OF DATA BYTE(s)" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{57A3A3AD-2CC8-ED4B-9752-E44A78E3D014}" name="Priority" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{6D77E486-02C3-2845-AC58-F2992D59A29D}" name="Format"/>
+    <tableColumn id="6" xr3:uid="{A516089B-557C-2749-A52C-807B9D002EF8}" name="Resolution" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{05744BE8-1E22-7B44-81EC-075F7ECA3024}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7750AE10-5150-48CB-9326-8F0AE1C1A548}" name="Table3" displayName="Table3" ref="A1:C65" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
-  <autoFilter ref="A1:C65" xr:uid="{368B688F-CFCA-46ED-93A0-625019A054C3}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1B82DAE6-8E2F-450B-8F9E-36197193A8B9}" name="PID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{E7568FDB-7502-4ECC-82E7-AAE8912D71F1}" name="DESCRIPTION"/>
-    <tableColumn id="3" xr3:uid="{5EF0E721-D9B8-4A88-9D6A-944E78B20C4B}" name="NUMBER OF DATA BYTE(s)" dataDxfId="21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7750AE10-5150-48CB-9326-8F0AE1C1A548}" name="Table3" displayName="Table3" ref="A1:G65" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
+  <autoFilter ref="A1:G65" xr:uid="{368B688F-CFCA-46ED-93A0-625019A054C3}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{1B82DAE6-8E2F-450B-8F9E-36197193A8B9}" name="PID" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{E7568FDB-7502-4ECC-82E7-AAE8912D71F1}" name="NAME"/>
+    <tableColumn id="3" xr3:uid="{5EF0E721-D9B8-4A88-9D6A-944E78B20C4B}" name="NUMBER OF DATA BYTE(s)" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{AF8EF2BA-E839-0E45-9C04-F2A4342BE110}" name="Priority"/>
+    <tableColumn id="5" xr3:uid="{2C9FEEC0-E449-1445-BEDB-D3164844FEAA}" name="Format"/>
+    <tableColumn id="6" xr3:uid="{2A22B418-FE23-D543-9B99-CCC4BD304DB3}" name="Resolution"/>
+    <tableColumn id="7" xr3:uid="{3D930BE9-FE84-D747-9942-F2EB42D143FB}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A4A04B0B-E2A8-4514-90D9-9D85659D6F17}" name="Table4" displayName="Table4" ref="A1:D129" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A4A04B0B-E2A8-4514-90D9-9D85659D6F17}" name="Table4" displayName="Table4" ref="A1:D129" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
   <autoFilter ref="A1:D129" xr:uid="{A6F50F0A-CC6C-48E8-8219-A71C2B0EDD0A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1B0BE57F-1D3C-45F3-92FC-AFF6EE4F1782}" name="EXTENSION" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{B7F3C7F5-9B6C-46B4-B08D-44AD8EA0354B}" name="PID" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{1B0BE57F-1D3C-45F3-92FC-AFF6EE4F1782}" name="EXTENSION" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{B7F3C7F5-9B6C-46B4-B08D-44AD8EA0354B}" name="PID" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{B2D1AF4A-6266-4DBA-8354-97634037444F}" name="DESCRIPTION"/>
-    <tableColumn id="4" xr3:uid="{D8145220-342A-4B61-BFC3-0EFA0A923104}" name="NUMBER OF DATA BYTE(s)" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{D8145220-342A-4B61-BFC3-0EFA0A923104}" name="NUMBER OF DATA BYTE(s)" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5E2B707C-B16F-48B6-8796-02B5F255C7D7}" name="Table5" displayName="Table5" ref="A1:D65" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5E2B707C-B16F-48B6-8796-02B5F255C7D7}" name="Table5" displayName="Table5" ref="A1:D65" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
   <autoFilter ref="A1:D65" xr:uid="{278BD2DA-253C-466D-BE88-EA2E44E2F531}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{133C1978-BE4C-4983-81BB-A5F97B8FC9A0}" name="EXTENSION" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{051CFE1E-D2A1-4183-98EB-772C3DB9F3F7}" name="PID" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{133C1978-BE4C-4983-81BB-A5F97B8FC9A0}" name="EXTENSION" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{051CFE1E-D2A1-4183-98EB-772C3DB9F3F7}" name="PID" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{22B52AC4-B3CA-4C1A-A6FC-9BB4603AC534}" name="DESCRIPTION"/>
-    <tableColumn id="4" xr3:uid="{C2A7C8D9-6842-4396-8BF0-2DB437904A30}" name="NUMBER OF DATA BYTE(s)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{C2A7C8D9-6842-4396-8BF0-2DB437904A30}" name="NUMBER OF DATA BYTE(s)" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0A2FB50E-C0BB-46FF-BBAC-6D9CD9FF6E86}" name="Table6" displayName="Table6" ref="A1:D65" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0A2FB50E-C0BB-46FF-BBAC-6D9CD9FF6E86}" name="Table6" displayName="Table6" ref="A1:D65" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <autoFilter ref="A1:D65" xr:uid="{2986F331-E8C5-453E-81CE-1C00ED385F21}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{60272FA4-4A7F-4880-83FC-686D489D1528}" name="EXTENSION" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{31369B14-A909-42C5-94C1-C4C9C47F981C}" name="PID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{60272FA4-4A7F-4880-83FC-686D489D1528}" name="EXTENSION" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{31369B14-A909-42C5-94C1-C4C9C47F981C}" name="PID" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{20351968-3D18-4500-AAF0-B578B5910EC3}" name="DESCRIPTION"/>
-    <tableColumn id="4" xr3:uid="{28FBBBF0-5A34-4A54-AC2B-85D2247B908B}" name="NUMBER OF DATA BYTE(s)" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{28FBBBF0-5A34-4A54-AC2B-85D2247B908B}" name="NUMBER OF DATA BYTE(s)" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4778,54 +5377,54 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="8" max="8" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" customWidth="1"/>
     <col min="20" max="20" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1"/>
+    <row r="1" spans="2:20" ht="16" thickBot="1"/>
     <row r="2" spans="2:20">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="89"/>
+      <c r="C2" s="91"/>
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
       <c r="F2" s="62"/>
       <c r="G2" s="62"/>
       <c r="H2" s="62"/>
     </row>
-    <row r="3" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
+    <row r="3" spans="2:20" ht="16" thickBot="1">
+      <c r="B3" s="92"/>
+      <c r="C3" s="93"/>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
       <c r="F3" s="62"/>
       <c r="G3" s="62"/>
       <c r="H3" s="62"/>
     </row>
-    <row r="4" spans="2:20" ht="15.75" thickBot="1"/>
+    <row r="4" spans="2:20" ht="16" thickBot="1"/>
     <row r="5" spans="2:20">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="94" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="93"/>
+      <c r="C5" s="95"/>
       <c r="D5" s="62"/>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="100"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -4835,15 +5434,15 @@
       <c r="P5" s="63"/>
       <c r="Q5" s="63"/>
     </row>
-    <row r="6" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B6" s="94"/>
-      <c r="C6" s="95"/>
+    <row r="6" spans="2:20" ht="16" thickBot="1">
+      <c r="B6" s="96"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="62"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="103"/>
       <c r="J6" s="63"/>
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
@@ -4853,128 +5452,128 @@
       <c r="P6" s="63"/>
       <c r="Q6" s="63"/>
     </row>
-    <row r="7" spans="2:20" ht="15.75" thickBot="1"/>
+    <row r="7" spans="2:20" ht="16" thickBot="1"/>
     <row r="8" spans="2:20">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="110" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="110"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="112"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="108" t="s">
+      <c r="G8" s="110" t="s">
         <v>384</v>
       </c>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="110"/>
+      <c r="H8" s="111"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="111"/>
+      <c r="K8" s="111"/>
+      <c r="L8" s="111"/>
+      <c r="M8" s="111"/>
+      <c r="N8" s="111"/>
+      <c r="O8" s="112"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B9" s="111"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
+    <row r="9" spans="2:20" ht="16" thickBot="1">
+      <c r="B9" s="113"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="115"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
+      <c r="N9" s="114"/>
+      <c r="O9" s="115"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="2:20" ht="15.75" thickBot="1"/>
+    <row r="10" spans="2:20" ht="16" thickBot="1"/>
     <row r="11" spans="2:20">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="84" t="s">
         <v>385</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="86"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="82" t="s">
+      <c r="G11" s="84" t="s">
         <v>386</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="84"/>
-    </row>
-    <row r="12" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="86"/>
+    </row>
+    <row r="12" spans="2:20" ht="16" thickBot="1">
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="87"/>
-    </row>
-    <row r="16" spans="2:20" ht="15.75" thickBot="1"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="89"/>
+    </row>
+    <row r="16" spans="2:20" ht="16" thickBot="1"/>
     <row r="17" spans="2:21" ht="15" customHeight="1">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="104" t="s">
         <v>587</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
-      <c r="H17" s="79" t="s">
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="H17" s="81" t="s">
         <v>588</v>
       </c>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="81"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
+      <c r="S17" s="82"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="83"/>
     </row>
     <row r="18" spans="2:21" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B18" s="105"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="78"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="109"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="80"/>
     </row>
     <row r="19" spans="2:21" ht="21">
       <c r="B19" s="15" t="s">
@@ -4986,12 +5585,12 @@
       <c r="H19" s="40" t="s">
         <v>589</v>
       </c>
-      <c r="I19" s="72" t="s">
+      <c r="I19" s="74" t="s">
         <v>590</v>
       </c>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
       <c r="O19" s="41"/>
@@ -5135,7 +5734,7 @@
       <c r="T24" s="41"/>
       <c r="U24" s="42"/>
     </row>
-    <row r="25" spans="2:21" ht="15.75">
+    <row r="25" spans="2:21" ht="16">
       <c r="B25" s="30" t="s">
         <v>551</v>
       </c>
@@ -5167,7 +5766,7 @@
       <c r="T25" s="41"/>
       <c r="U25" s="42"/>
     </row>
-    <row r="26" spans="2:21" ht="15.75">
+    <row r="26" spans="2:21" ht="16">
       <c r="B26" s="30" t="s">
         <v>553</v>
       </c>
@@ -5227,7 +5826,7 @@
       <c r="T27" s="41"/>
       <c r="U27" s="42"/>
     </row>
-    <row r="28" spans="2:21" ht="21.75" thickBot="1">
+    <row r="28" spans="2:21" ht="22" thickBot="1">
       <c r="B28" s="30" t="s">
         <v>560</v>
       </c>
@@ -5255,7 +5854,7 @@
       <c r="T28" s="52"/>
       <c r="U28" s="53"/>
     </row>
-    <row r="29" spans="2:21" ht="15.75">
+    <row r="29" spans="2:21" ht="16">
       <c r="B29" s="30" t="s">
         <v>562</v>
       </c>
@@ -5266,7 +5865,7 @@
       <c r="E29" s="32"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="2:21" ht="16.5" thickBot="1">
+    <row r="30" spans="2:21" ht="17" thickBot="1">
       <c r="B30" s="30" t="s">
         <v>564</v>
       </c>
@@ -5277,7 +5876,7 @@
       <c r="E30" s="32"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="2:21" ht="15.75">
+    <row r="31" spans="2:21" ht="16">
       <c r="B31" s="30" t="s">
         <v>566</v>
       </c>
@@ -5308,7 +5907,7 @@
       <c r="S31" s="17"/>
       <c r="T31" s="57"/>
     </row>
-    <row r="32" spans="2:21" ht="75">
+    <row r="32" spans="2:21" ht="64">
       <c r="B32" s="30" t="s">
         <v>549</v>
       </c>
@@ -5332,7 +5931,7 @@
       </c>
       <c r="T32" s="25"/>
     </row>
-    <row r="33" spans="2:20" ht="15.75">
+    <row r="33" spans="2:20" ht="16">
       <c r="B33" s="30" t="s">
         <v>570</v>
       </c>
@@ -5354,7 +5953,7 @@
       </c>
       <c r="T33" s="25"/>
     </row>
-    <row r="34" spans="2:20" ht="15.75">
+    <row r="34" spans="2:20" ht="16">
       <c r="B34" s="30" t="s">
         <v>572</v>
       </c>
@@ -5380,7 +5979,7 @@
       </c>
       <c r="T34" s="25"/>
     </row>
-    <row r="35" spans="2:20" ht="15.75">
+    <row r="35" spans="2:20" ht="16">
       <c r="B35" s="30" t="s">
         <v>574</v>
       </c>
@@ -5403,7 +6002,7 @@
       </c>
       <c r="T35" s="25"/>
     </row>
-    <row r="36" spans="2:20" ht="15.75">
+    <row r="36" spans="2:20" ht="16">
       <c r="B36" s="30" t="s">
         <v>572</v>
       </c>
@@ -5426,7 +6025,7 @@
       </c>
       <c r="T36" s="25"/>
     </row>
-    <row r="37" spans="2:20" ht="15.75">
+    <row r="37" spans="2:20" ht="16">
       <c r="B37" s="30" t="s">
         <v>572</v>
       </c>
@@ -5445,7 +6044,7 @@
       </c>
       <c r="T37" s="25"/>
     </row>
-    <row r="38" spans="2:20" ht="15.75">
+    <row r="38" spans="2:20" ht="16">
       <c r="B38" s="30" t="s">
         <v>577</v>
       </c>
@@ -5468,7 +6067,7 @@
       </c>
       <c r="T38" s="25"/>
     </row>
-    <row r="39" spans="2:20" ht="105">
+    <row r="39" spans="2:20" ht="112">
       <c r="B39" s="30" t="s">
         <v>572</v>
       </c>
@@ -5491,7 +6090,7 @@
       </c>
       <c r="T39" s="25"/>
     </row>
-    <row r="40" spans="2:20" ht="16.5" thickBot="1">
+    <row r="40" spans="2:20" ht="17" thickBot="1">
       <c r="B40" s="30" t="s">
         <v>580</v>
       </c>
@@ -5532,16 +6131,16 @@
         <v>582</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="73" t="s">
+      <c r="I41" s="75" t="s">
         <v>619</v>
       </c>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="75"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="77"/>
     </row>
     <row r="42" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
       <c r="B42" s="30" t="s">
@@ -5557,16 +6156,16 @@
         <v>584</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="78"/>
-    </row>
-    <row r="43" spans="2:20" ht="15.75">
+      <c r="I42" s="78"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="79"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="79"/>
+      <c r="O42" s="79"/>
+      <c r="P42" s="80"/>
+    </row>
+    <row r="43" spans="2:20" ht="16">
       <c r="B43" s="30" t="s">
         <v>549</v>
       </c>
@@ -5589,7 +6188,7 @@
       </c>
       <c r="P43" s="25"/>
     </row>
-    <row r="44" spans="2:20" ht="15.75">
+    <row r="44" spans="2:20" ht="16">
       <c r="B44" s="30" t="s">
         <v>570</v>
       </c>
@@ -5610,7 +6209,7 @@
       </c>
       <c r="P44" s="25"/>
     </row>
-    <row r="45" spans="2:20" ht="15.75">
+    <row r="45" spans="2:20" ht="16">
       <c r="B45" s="30" t="s">
         <v>572</v>
       </c>
@@ -5629,7 +6228,7 @@
       </c>
       <c r="P45" s="25"/>
     </row>
-    <row r="46" spans="2:20" ht="15.75">
+    <row r="46" spans="2:20" ht="16">
       <c r="B46" s="30" t="s">
         <v>574</v>
       </c>
@@ -5641,7 +6240,7 @@
       <c r="J46" s="4"/>
       <c r="P46" s="25"/>
     </row>
-    <row r="47" spans="2:20" ht="16.5" thickBot="1">
+    <row r="47" spans="2:20" ht="17" thickBot="1">
       <c r="B47" s="37" t="s">
         <v>572</v>
       </c>
@@ -5660,7 +6259,7 @@
       </c>
       <c r="P47" s="25"/>
     </row>
-    <row r="48" spans="2:20" ht="15.75">
+    <row r="48" spans="2:20" ht="16">
       <c r="H48" s="1"/>
       <c r="I48" s="30"/>
       <c r="J48" s="4"/>
@@ -5669,7 +6268,7 @@
       </c>
       <c r="P48" s="25"/>
     </row>
-    <row r="49" spans="8:16" ht="15.75">
+    <row r="49" spans="8:16" ht="16">
       <c r="H49" s="1"/>
       <c r="I49" s="30"/>
       <c r="J49" s="4"/>
@@ -5678,13 +6277,13 @@
       </c>
       <c r="P49" s="25"/>
     </row>
-    <row r="50" spans="8:16" ht="15.75">
+    <row r="50" spans="8:16" ht="16">
       <c r="H50" s="1"/>
       <c r="I50" s="30"/>
       <c r="J50" s="4"/>
       <c r="P50" s="25"/>
     </row>
-    <row r="51" spans="8:16" ht="15.75">
+    <row r="51" spans="8:16" ht="16">
       <c r="H51" s="1"/>
       <c r="I51" s="30"/>
       <c r="J51" s="60" t="s">
@@ -5695,7 +6294,7 @@
       </c>
       <c r="P51" s="25"/>
     </row>
-    <row r="52" spans="8:16" ht="15.75">
+    <row r="52" spans="8:16" ht="16">
       <c r="H52" s="1"/>
       <c r="I52" s="30"/>
       <c r="J52" s="4"/>
@@ -5704,7 +6303,7 @@
       </c>
       <c r="P52" s="25"/>
     </row>
-    <row r="53" spans="8:16" ht="15.75">
+    <row r="53" spans="8:16" ht="16">
       <c r="H53" s="1"/>
       <c r="I53" s="30"/>
       <c r="J53" s="4"/>
@@ -5713,13 +6312,13 @@
       </c>
       <c r="P53" s="25"/>
     </row>
-    <row r="54" spans="8:16" ht="15.75">
+    <row r="54" spans="8:16" ht="16">
       <c r="H54" s="1"/>
       <c r="I54" s="30"/>
       <c r="J54" s="4"/>
       <c r="P54" s="25"/>
     </row>
-    <row r="55" spans="8:16" ht="15.75">
+    <row r="55" spans="8:16" ht="16">
       <c r="H55" s="1"/>
       <c r="I55" s="30"/>
       <c r="J55" s="60" t="s">
@@ -5730,7 +6329,7 @@
       </c>
       <c r="P55" s="25"/>
     </row>
-    <row r="56" spans="8:16" ht="15.75">
+    <row r="56" spans="8:16" ht="16">
       <c r="H56" s="1"/>
       <c r="I56" s="30"/>
       <c r="J56" s="4"/>
@@ -5739,7 +6338,7 @@
       </c>
       <c r="P56" s="25"/>
     </row>
-    <row r="57" spans="8:16" ht="15.75">
+    <row r="57" spans="8:16" ht="16">
       <c r="H57" s="1"/>
       <c r="I57" s="30"/>
       <c r="K57" t="s">
@@ -5747,12 +6346,12 @@
       </c>
       <c r="P57" s="25"/>
     </row>
-    <row r="58" spans="8:16" ht="15.75">
+    <row r="58" spans="8:16" ht="16">
       <c r="H58" s="1"/>
       <c r="I58" s="30"/>
       <c r="P58" s="25"/>
     </row>
-    <row r="59" spans="8:16" ht="15.75">
+    <row r="59" spans="8:16" ht="16">
       <c r="H59" s="1"/>
       <c r="I59" s="30"/>
       <c r="J59" s="60" t="s">
@@ -5763,7 +6362,7 @@
       </c>
       <c r="P59" s="25"/>
     </row>
-    <row r="60" spans="8:16" ht="16.5" thickBot="1">
+    <row r="60" spans="8:16" ht="17" thickBot="1">
       <c r="H60" s="1"/>
       <c r="I60" s="37"/>
       <c r="J60" s="38"/>
@@ -5774,31 +6373,31 @@
       <c r="O60" s="38"/>
       <c r="P60" s="39"/>
     </row>
-    <row r="61" spans="8:16" ht="15.75">
+    <row r="61" spans="8:16" ht="16">
       <c r="H61" s="1"/>
-      <c r="I61" s="79" t="s">
+      <c r="I61" s="81" t="s">
         <v>638</v>
       </c>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="80"/>
-      <c r="O61" s="80"/>
-      <c r="P61" s="81"/>
-    </row>
-    <row r="62" spans="8:16" ht="16.5" thickBot="1">
+      <c r="J61" s="82"/>
+      <c r="K61" s="82"/>
+      <c r="L61" s="82"/>
+      <c r="M61" s="82"/>
+      <c r="N61" s="82"/>
+      <c r="O61" s="82"/>
+      <c r="P61" s="83"/>
+    </row>
+    <row r="62" spans="8:16" ht="17" thickBot="1">
       <c r="H62" s="1"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="77"/>
-      <c r="L62" s="77"/>
-      <c r="M62" s="77"/>
-      <c r="N62" s="77"/>
-      <c r="O62" s="77"/>
-      <c r="P62" s="78"/>
-    </row>
-    <row r="63" spans="8:16" ht="15.75">
+      <c r="I62" s="78"/>
+      <c r="J62" s="79"/>
+      <c r="K62" s="79"/>
+      <c r="L62" s="79"/>
+      <c r="M62" s="79"/>
+      <c r="N62" s="79"/>
+      <c r="O62" s="79"/>
+      <c r="P62" s="80"/>
+    </row>
+    <row r="63" spans="8:16" ht="16">
       <c r="H63" s="1"/>
       <c r="I63" s="30">
         <v>0</v>
@@ -5808,7 +6407,7 @@
       </c>
       <c r="P63" s="25"/>
     </row>
-    <row r="64" spans="8:16" ht="15.75">
+    <row r="64" spans="8:16" ht="16">
       <c r="H64" s="1"/>
       <c r="I64" s="30">
         <v>1</v>
@@ -5818,7 +6417,7 @@
       </c>
       <c r="P64" s="25"/>
     </row>
-    <row r="65" spans="8:16" ht="15.75">
+    <row r="65" spans="8:16" ht="16">
       <c r="H65" s="1"/>
       <c r="I65" s="30">
         <v>2</v>
@@ -5828,7 +6427,7 @@
       </c>
       <c r="P65" s="25"/>
     </row>
-    <row r="66" spans="8:16" ht="15.75">
+    <row r="66" spans="8:16" ht="16">
       <c r="H66" s="1"/>
       <c r="I66" s="30">
         <v>3</v>
@@ -5838,7 +6437,7 @@
       </c>
       <c r="P66" s="25"/>
     </row>
-    <row r="67" spans="8:16" ht="15.75">
+    <row r="67" spans="8:16" ht="16">
       <c r="H67" s="1"/>
       <c r="I67" s="30">
         <v>4</v>
@@ -5848,7 +6447,7 @@
       </c>
       <c r="P67" s="25"/>
     </row>
-    <row r="68" spans="8:16" ht="15.75">
+    <row r="68" spans="8:16" ht="16">
       <c r="H68" s="1"/>
       <c r="I68" s="30">
         <v>5</v>
@@ -5858,7 +6457,7 @@
       </c>
       <c r="P68" s="25"/>
     </row>
-    <row r="69" spans="8:16" ht="15.75">
+    <row r="69" spans="8:16" ht="16">
       <c r="H69" s="1"/>
       <c r="I69" s="30">
         <v>6</v>
@@ -5868,7 +6467,7 @@
       </c>
       <c r="P69" s="25"/>
     </row>
-    <row r="70" spans="8:16" ht="15.75">
+    <row r="70" spans="8:16" ht="16">
       <c r="H70" s="1"/>
       <c r="I70" s="30">
         <v>7</v>
@@ -5878,7 +6477,7 @@
       </c>
       <c r="P70" s="25"/>
     </row>
-    <row r="71" spans="8:16" ht="15.75">
+    <row r="71" spans="8:16" ht="16">
       <c r="H71" s="1"/>
       <c r="I71" s="30">
         <v>8</v>
@@ -5888,7 +6487,7 @@
       </c>
       <c r="P71" s="25"/>
     </row>
-    <row r="72" spans="8:16" ht="15.75">
+    <row r="72" spans="8:16" ht="16">
       <c r="H72" s="1"/>
       <c r="I72" s="30">
         <v>9</v>
@@ -5898,7 +6497,7 @@
       </c>
       <c r="P72" s="25"/>
     </row>
-    <row r="73" spans="8:16" ht="15.75">
+    <row r="73" spans="8:16" ht="16">
       <c r="H73" s="1"/>
       <c r="I73" s="30">
         <v>10</v>
@@ -5908,7 +6507,7 @@
       </c>
       <c r="P73" s="25"/>
     </row>
-    <row r="74" spans="8:16" ht="15.75">
+    <row r="74" spans="8:16" ht="16">
       <c r="H74" s="1"/>
       <c r="I74" s="30">
         <v>11</v>
@@ -5918,7 +6517,7 @@
       </c>
       <c r="P74" s="25"/>
     </row>
-    <row r="75" spans="8:16" ht="15.75">
+    <row r="75" spans="8:16" ht="16">
       <c r="H75" s="1"/>
       <c r="I75" s="30">
         <v>12</v>
@@ -5928,7 +6527,7 @@
       </c>
       <c r="P75" s="25"/>
     </row>
-    <row r="76" spans="8:16" ht="15.75">
+    <row r="76" spans="8:16" ht="16">
       <c r="H76" s="1"/>
       <c r="I76" s="30">
         <v>13</v>
@@ -5938,7 +6537,7 @@
       </c>
       <c r="P76" s="25"/>
     </row>
-    <row r="77" spans="8:16" ht="15.75">
+    <row r="77" spans="8:16" ht="16">
       <c r="H77" s="1"/>
       <c r="I77" s="30">
         <v>14</v>
@@ -5948,7 +6547,7 @@
       </c>
       <c r="P77" s="25"/>
     </row>
-    <row r="78" spans="8:16" ht="16.5" thickBot="1">
+    <row r="78" spans="8:16" ht="17" thickBot="1">
       <c r="H78" s="1"/>
       <c r="I78" s="37">
         <v>15</v>
@@ -5991,13 +6590,13 @@
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="52.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="9" t="s">
         <v>389</v>
       </c>
@@ -7316,20 +7915,20 @@
   </sheetPr>
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="67" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="66" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="113.42578125" style="69" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="69" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5" style="67" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" style="66" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="113.5" style="69" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="69" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="43" style="70" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="66"/>
+    <col min="8" max="16384" width="8.83203125" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21">
@@ -7462,7 +8061,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:8" ht="20" customHeight="1">
       <c r="A6" s="67">
         <v>4</v>
       </c>
@@ -7566,7 +8165,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:8" ht="17" customHeight="1">
       <c r="A10" s="67">
         <v>8</v>
       </c>
@@ -7644,7 +8243,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="165">
+    <row r="13" spans="1:8" ht="176">
       <c r="A13" s="67">
         <v>11</v>
       </c>
@@ -7670,7 +8269,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="225">
+    <row r="14" spans="1:8" ht="240">
       <c r="A14" s="67">
         <v>12</v>
       </c>
@@ -7696,7 +8295,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="30">
+    <row r="15" spans="1:8" ht="32">
       <c r="A15" s="67">
         <v>13</v>
       </c>
@@ -7722,7 +8321,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30">
+    <row r="16" spans="1:8" ht="32">
       <c r="A16" s="67">
         <v>14</v>
       </c>
@@ -7748,7 +8347,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="30">
+    <row r="17" spans="1:8" ht="32">
       <c r="A17" s="67">
         <v>15</v>
       </c>
@@ -7774,7 +8373,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30">
+    <row r="18" spans="1:8" ht="32">
       <c r="A18" s="67">
         <v>16</v>
       </c>
@@ -7800,7 +8399,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30">
+    <row r="19" spans="1:8" ht="32">
       <c r="A19" s="67">
         <v>17</v>
       </c>
@@ -7826,7 +8425,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30">
+    <row r="20" spans="1:8" ht="32">
       <c r="A20" s="67">
         <v>18</v>
       </c>
@@ -7852,7 +8451,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30">
+    <row r="21" spans="1:8" ht="32">
       <c r="A21" s="67">
         <v>19</v>
       </c>
@@ -7878,7 +8477,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30">
+    <row r="22" spans="1:8" ht="32">
       <c r="A22" s="67">
         <v>20</v>
       </c>
@@ -7904,7 +8503,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30">
+    <row r="23" spans="1:8" ht="32">
       <c r="A23" s="67">
         <v>21</v>
       </c>
@@ -7930,7 +8529,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30">
+    <row r="24" spans="1:8" ht="32">
       <c r="A24" s="67">
         <v>22</v>
       </c>
@@ -7956,7 +8555,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="30">
+    <row r="25" spans="1:8" ht="32">
       <c r="A25" s="67">
         <v>23</v>
       </c>
@@ -7982,7 +8581,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="30">
+    <row r="26" spans="1:8" ht="32">
       <c r="A26" s="67">
         <v>24</v>
       </c>
@@ -8008,7 +8607,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="390">
+    <row r="27" spans="1:8" ht="409.6">
       <c r="A27" s="67">
         <v>25</v>
       </c>
@@ -8034,7 +8633,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30">
+    <row r="28" spans="1:8" ht="32">
       <c r="A28" s="67">
         <v>26</v>
       </c>
@@ -8060,7 +8659,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="30">
+    <row r="29" spans="1:8" ht="32">
       <c r="A29" s="67">
         <v>27</v>
       </c>
@@ -8086,7 +8685,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="30">
+    <row r="30" spans="1:8" ht="32">
       <c r="A30" s="67">
         <v>28</v>
       </c>
@@ -8112,7 +8711,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="30">
+    <row r="31" spans="1:8" ht="32">
       <c r="A31" s="67">
         <v>29</v>
       </c>
@@ -8138,7 +8737,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30">
+    <row r="32" spans="1:8" ht="32">
       <c r="A32" s="67">
         <v>30</v>
       </c>
@@ -8164,7 +8763,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="30">
+    <row r="33" spans="1:8" ht="32">
       <c r="A33" s="67">
         <v>31</v>
       </c>
@@ -8190,7 +8789,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="60">
+    <row r="34" spans="1:8" ht="64">
       <c r="A34" s="67">
         <v>32</v>
       </c>
@@ -8209,14 +8808,14 @@
       <c r="F34" s="67" t="s">
         <v>685</v>
       </c>
-      <c r="G34" s="114" t="s">
+      <c r="G34" s="72" t="s">
         <v>732</v>
       </c>
       <c r="H34" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="75">
+    <row r="35" spans="1:8" ht="64">
       <c r="A35" s="67">
         <v>33</v>
       </c>
@@ -8235,14 +8834,14 @@
       <c r="F35" s="67" t="s">
         <v>685</v>
       </c>
-      <c r="G35" s="114" t="s">
+      <c r="G35" s="72" t="s">
         <v>734</v>
       </c>
       <c r="H35" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="165">
+    <row r="36" spans="1:8" ht="176">
       <c r="A36" s="67">
         <v>34</v>
       </c>
@@ -8268,7 +8867,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="165">
+    <row r="37" spans="1:8" ht="176">
       <c r="A37" s="67">
         <v>35</v>
       </c>
@@ -8294,7 +8893,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="60">
+    <row r="38" spans="1:8" ht="64">
       <c r="A38" s="67">
         <v>36</v>
       </c>
@@ -8313,14 +8912,14 @@
       <c r="F38" s="67" t="s">
         <v>685</v>
       </c>
-      <c r="G38" s="114" t="s">
+      <c r="G38" s="72" t="s">
         <v>740</v>
       </c>
       <c r="H38" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="30">
+    <row r="39" spans="1:8" ht="32">
       <c r="A39" s="67">
         <v>37</v>
       </c>
@@ -8346,7 +8945,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="30">
+    <row r="40" spans="1:8" ht="32">
       <c r="A40" s="67">
         <v>38</v>
       </c>
@@ -8372,7 +8971,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="75">
+    <row r="41" spans="1:8" ht="64">
       <c r="A41" s="67">
         <v>39</v>
       </c>
@@ -8391,14 +8990,14 @@
       <c r="F41" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="G41" s="114" t="s">
+      <c r="G41" s="72" t="s">
         <v>750</v>
       </c>
       <c r="H41" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="315">
+    <row r="42" spans="1:8" ht="335">
       <c r="A42" s="67">
         <v>40</v>
       </c>
@@ -8424,7 +9023,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="165">
+    <row r="43" spans="1:8" ht="176">
       <c r="A43" s="67">
         <v>41</v>
       </c>
@@ -8450,7 +9049,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="135">
+    <row r="44" spans="1:8" ht="144">
       <c r="A44" s="67">
         <v>42</v>
       </c>
@@ -8469,14 +9068,14 @@
       <c r="F44" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G44" s="114" t="s">
+      <c r="G44" s="72" t="s">
         <v>754</v>
       </c>
       <c r="H44" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="165">
+    <row r="45" spans="1:8" ht="176">
       <c r="A45" s="67">
         <v>43</v>
       </c>
@@ -8495,14 +9094,14 @@
       <c r="F45" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G45" s="114" t="s">
+      <c r="G45" s="72" t="s">
         <v>756</v>
       </c>
       <c r="H45" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="255">
+    <row r="46" spans="1:8" ht="272">
       <c r="A46" s="67">
         <v>44</v>
       </c>
@@ -8528,7 +9127,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="165">
+    <row r="47" spans="1:8" ht="176">
       <c r="A47" s="67">
         <v>45</v>
       </c>
@@ -8547,14 +9146,14 @@
       <c r="F47" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G47" s="114" t="s">
+      <c r="G47" s="72" t="s">
         <v>761</v>
       </c>
       <c r="H47" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30">
+    <row r="48" spans="1:8" ht="32">
       <c r="A48" s="67">
         <v>46</v>
       </c>
@@ -8564,6 +9163,9 @@
       <c r="C48" s="67">
         <v>1</v>
       </c>
+      <c r="D48" s="67" t="s">
+        <v>757</v>
+      </c>
       <c r="E48" s="68" t="s">
         <v>766</v>
       </c>
@@ -8577,7 +9179,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="135">
+    <row r="49" spans="1:8" ht="144">
       <c r="A49" s="67">
         <v>47</v>
       </c>
@@ -8587,6 +9189,9 @@
       <c r="C49" s="67">
         <v>1</v>
       </c>
+      <c r="D49" s="67" t="s">
+        <v>757</v>
+      </c>
       <c r="E49" s="68" t="s">
         <v>768</v>
       </c>
@@ -8600,7 +9205,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30">
+    <row r="50" spans="1:8" ht="32">
       <c r="A50" s="67">
         <v>48</v>
       </c>
@@ -8626,7 +9231,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="165">
+    <row r="51" spans="1:8" ht="176">
       <c r="A51" s="67">
         <v>49</v>
       </c>
@@ -8652,7 +9257,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="330">
+    <row r="52" spans="1:8" ht="350">
       <c r="A52" s="67">
         <v>50</v>
       </c>
@@ -8671,14 +9276,14 @@
       <c r="F52" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G52" s="114" t="s">
+      <c r="G52" s="72" t="s">
         <v>774</v>
       </c>
       <c r="H52" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="60">
+    <row r="53" spans="1:8" ht="64">
       <c r="A53" s="67">
         <v>51</v>
       </c>
@@ -8697,14 +9302,14 @@
       <c r="F53" s="67" t="s">
         <v>685</v>
       </c>
-      <c r="G53" s="114" t="s">
+      <c r="G53" s="72" t="s">
         <v>777</v>
       </c>
       <c r="H53" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30">
+    <row r="54" spans="1:8" ht="32">
       <c r="A54" s="67">
         <v>52</v>
       </c>
@@ -8730,7 +9335,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30">
+    <row r="55" spans="1:8" ht="32">
       <c r="A55" s="67">
         <v>53</v>
       </c>
@@ -8756,7 +9361,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30">
+    <row r="56" spans="1:8" ht="32">
       <c r="A56" s="67">
         <v>54</v>
       </c>
@@ -8782,7 +9387,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="165">
+    <row r="57" spans="1:8" ht="176">
       <c r="A57" s="67">
         <v>55</v>
       </c>
@@ -8808,7 +9413,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="150">
+    <row r="58" spans="1:8" ht="160">
       <c r="A58" s="67">
         <v>56</v>
       </c>
@@ -8834,7 +9439,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="165">
+    <row r="59" spans="1:8" ht="176">
       <c r="A59" s="67">
         <v>57</v>
       </c>
@@ -8860,7 +9465,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="165">
+    <row r="60" spans="1:8" ht="176">
       <c r="A60" s="67">
         <v>58</v>
       </c>
@@ -8886,7 +9491,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="30">
+    <row r="61" spans="1:8" ht="32">
       <c r="A61" s="67">
         <v>59</v>
       </c>
@@ -8912,7 +9517,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="30">
+    <row r="62" spans="1:8" ht="32">
       <c r="A62" s="67">
         <v>60</v>
       </c>
@@ -8938,7 +9543,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="150">
+    <row r="63" spans="1:8" ht="160">
       <c r="A63" s="67">
         <v>61</v>
       </c>
@@ -8964,7 +9569,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="135">
+    <row r="64" spans="1:8" ht="144">
       <c r="A64" s="67">
         <v>62</v>
       </c>
@@ -8990,7 +9595,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="165">
+    <row r="65" spans="1:8" ht="176">
       <c r="A65" s="67">
         <v>63</v>
       </c>
@@ -9016,7 +9621,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="165">
+    <row r="66" spans="1:8" ht="176">
       <c r="A66" s="67">
         <v>64</v>
       </c>
@@ -9042,7 +9647,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="150">
+    <row r="67" spans="1:8" ht="160">
       <c r="A67" s="67">
         <v>65</v>
       </c>
@@ -9068,7 +9673,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="330">
+    <row r="68" spans="1:8" ht="350">
       <c r="A68" s="67">
         <v>66</v>
       </c>
@@ -9094,7 +9699,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="150">
+    <row r="69" spans="1:8" ht="160">
       <c r="A69" s="67">
         <v>67</v>
       </c>
@@ -9120,7 +9725,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="150">
+    <row r="70" spans="1:8" ht="160">
       <c r="A70" s="67">
         <v>68</v>
       </c>
@@ -9139,14 +9744,14 @@
       <c r="F70" s="67" t="s">
         <v>696</v>
       </c>
-      <c r="G70" s="114" t="s">
+      <c r="G70" s="72" t="s">
         <v>812</v>
       </c>
       <c r="H70" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="90">
+    <row r="71" spans="1:8" ht="96">
       <c r="A71" s="67">
         <v>69</v>
       </c>
@@ -9172,7 +9777,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="75">
+    <row r="72" spans="1:8" ht="80">
       <c r="A72" s="67">
         <v>70</v>
       </c>
@@ -9198,7 +9803,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="120">
+    <row r="73" spans="1:8" ht="128">
       <c r="A73" s="67">
         <v>71</v>
       </c>
@@ -9224,7 +9829,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="30">
+    <row r="74" spans="1:8" ht="32">
       <c r="A74" s="67">
         <v>72</v>
       </c>
@@ -9250,7 +9855,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="30">
+    <row r="75" spans="1:8" ht="32">
       <c r="A75" s="67">
         <v>73</v>
       </c>
@@ -9276,7 +9881,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="30">
+    <row r="76" spans="1:8" ht="32">
       <c r="A76" s="67">
         <v>74</v>
       </c>
@@ -9302,7 +9907,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="30">
+    <row r="77" spans="1:8" ht="32">
       <c r="A77" s="67">
         <v>75</v>
       </c>
@@ -9328,7 +9933,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="60">
+    <row r="78" spans="1:8" ht="64">
       <c r="A78" s="67">
         <v>76</v>
       </c>
@@ -9347,14 +9952,14 @@
       <c r="F78" s="67" t="s">
         <v>667</v>
       </c>
-      <c r="G78" s="114" t="s">
+      <c r="G78" s="72" t="s">
         <v>831</v>
       </c>
       <c r="H78" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="30">
+    <row r="79" spans="1:8" ht="32">
       <c r="A79" s="67">
         <v>77</v>
       </c>
@@ -9380,7 +9985,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="30">
+    <row r="80" spans="1:8" ht="32">
       <c r="A80" s="67">
         <v>78</v>
       </c>
@@ -9406,7 +10011,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="30">
+    <row r="81" spans="1:8" ht="32">
       <c r="A81" s="67">
         <v>79</v>
       </c>
@@ -9432,7 +10037,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="30">
+    <row r="82" spans="1:8" ht="32">
       <c r="A82" s="67">
         <v>80</v>
       </c>
@@ -9458,7 +10063,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="30">
+    <row r="83" spans="1:8" ht="32">
       <c r="A83" s="67">
         <v>81</v>
       </c>
@@ -9484,7 +10089,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="60">
+    <row r="84" spans="1:8" ht="64">
       <c r="A84" s="67">
         <v>82</v>
       </c>
@@ -9503,14 +10108,14 @@
       <c r="F84" s="67" t="s">
         <v>667</v>
       </c>
-      <c r="G84" s="114" t="s">
+      <c r="G84" s="72" t="s">
         <v>842</v>
       </c>
       <c r="H84" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="60">
+    <row r="85" spans="1:8" ht="64">
       <c r="A85" s="67">
         <v>83</v>
       </c>
@@ -9536,7 +10141,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="30">
+    <row r="86" spans="1:8" ht="32">
       <c r="A86" s="67">
         <v>84</v>
       </c>
@@ -9562,7 +10167,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="150">
+    <row r="87" spans="1:8" ht="160">
       <c r="A87" s="67">
         <v>85</v>
       </c>
@@ -9581,14 +10186,14 @@
       <c r="F87" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G87" s="114" t="s">
+      <c r="G87" s="72" t="s">
         <v>849</v>
       </c>
       <c r="H87" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="30">
+    <row r="88" spans="1:8" ht="32">
       <c r="A88" s="67">
         <v>86</v>
       </c>
@@ -9614,7 +10219,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="30">
+    <row r="89" spans="1:8" ht="32">
       <c r="A89" s="67">
         <v>87</v>
       </c>
@@ -9640,7 +10245,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="30">
+    <row r="90" spans="1:8" ht="32">
       <c r="A90" s="67">
         <v>88</v>
       </c>
@@ -9666,7 +10271,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="150">
+    <row r="91" spans="1:8" ht="160">
       <c r="A91" s="67">
         <v>89</v>
       </c>
@@ -9685,14 +10290,14 @@
       <c r="F91" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G91" s="114" t="s">
+      <c r="G91" s="72" t="s">
         <v>857</v>
       </c>
       <c r="H91" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="30">
+    <row r="92" spans="1:8" ht="32">
       <c r="A92" s="67">
         <v>90</v>
       </c>
@@ -9718,7 +10323,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="30">
+    <row r="93" spans="1:8" ht="32">
       <c r="A93" s="67">
         <v>91</v>
       </c>
@@ -9744,7 +10349,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30">
+    <row r="94" spans="1:8" ht="32">
       <c r="A94" s="67">
         <v>92</v>
       </c>
@@ -9770,7 +10375,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="30">
+    <row r="95" spans="1:8" ht="32">
       <c r="A95" s="67">
         <v>93</v>
       </c>
@@ -9796,7 +10401,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="30">
+    <row r="96" spans="1:8" ht="32">
       <c r="A96" s="67">
         <v>94</v>
       </c>
@@ -9822,7 +10427,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="60">
+    <row r="97" spans="1:8" ht="64">
       <c r="A97" s="67">
         <v>95</v>
       </c>
@@ -9841,14 +10446,14 @@
       <c r="F97" s="67" t="s">
         <v>691</v>
       </c>
-      <c r="G97" s="114" t="s">
+      <c r="G97" s="72" t="s">
         <v>870</v>
       </c>
       <c r="H97" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="30">
+    <row r="98" spans="1:8" ht="32">
       <c r="A98" s="67">
         <v>96</v>
       </c>
@@ -9874,7 +10479,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="60">
+    <row r="99" spans="1:8" ht="64">
       <c r="A99" s="67">
         <v>97</v>
       </c>
@@ -9900,7 +10505,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="30">
+    <row r="100" spans="1:8" ht="32">
       <c r="A100" s="67">
         <v>98</v>
       </c>
@@ -9926,7 +10531,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="30">
+    <row r="101" spans="1:8" ht="32">
       <c r="A101" s="67">
         <v>99</v>
       </c>
@@ -9952,7 +10557,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="30">
+    <row r="102" spans="1:8" ht="32">
       <c r="A102" s="67">
         <v>100</v>
       </c>
@@ -9978,7 +10583,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="30">
+    <row r="103" spans="1:8" ht="32">
       <c r="A103" s="67">
         <v>101</v>
       </c>
@@ -10004,7 +10609,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="30">
+    <row r="104" spans="1:8" ht="32">
       <c r="A104" s="67">
         <v>102</v>
       </c>
@@ -10030,7 +10635,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="30">
+    <row r="105" spans="1:8" ht="32">
       <c r="A105" s="67">
         <v>103</v>
       </c>
@@ -10056,7 +10661,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="30">
+    <row r="106" spans="1:8" ht="32">
       <c r="A106" s="67">
         <v>104</v>
       </c>
@@ -10082,7 +10687,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="30">
+    <row r="107" spans="1:8" ht="32">
       <c r="A107" s="67">
         <v>105</v>
       </c>
@@ -10108,7 +10713,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="30">
+    <row r="108" spans="1:8" ht="32">
       <c r="A108" s="67">
         <v>106</v>
       </c>
@@ -10134,7 +10739,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="60">
+    <row r="109" spans="1:8" ht="64">
       <c r="A109" s="67">
         <v>107</v>
       </c>
@@ -10153,14 +10758,14 @@
       <c r="F109" s="67" t="s">
         <v>897</v>
       </c>
-      <c r="G109" s="114" t="s">
+      <c r="G109" s="72" t="s">
         <v>896</v>
       </c>
       <c r="H109" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="30">
+    <row r="110" spans="1:8" ht="32">
       <c r="A110" s="67">
         <v>108</v>
       </c>
@@ -10186,7 +10791,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="30">
+    <row r="111" spans="1:8" ht="32">
       <c r="A111" s="67">
         <v>109</v>
       </c>
@@ -10212,7 +10817,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="30">
+    <row r="112" spans="1:8" ht="32">
       <c r="A112" s="67">
         <v>110</v>
       </c>
@@ -10238,7 +10843,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="90">
+    <row r="113" spans="1:8" ht="96">
       <c r="A113" s="67">
         <v>111</v>
       </c>
@@ -10264,7 +10869,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="30">
+    <row r="114" spans="1:8" ht="32">
       <c r="A114" s="67">
         <v>112</v>
       </c>
@@ -10290,7 +10895,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="30">
+    <row r="115" spans="1:8" ht="32">
       <c r="A115" s="67">
         <v>113</v>
       </c>
@@ -10316,7 +10921,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="30">
+    <row r="116" spans="1:8" ht="32">
       <c r="A116" s="67">
         <v>114</v>
       </c>
@@ -10342,7 +10947,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="30">
+    <row r="117" spans="1:8" ht="32">
       <c r="A117" s="67">
         <v>115</v>
       </c>
@@ -10368,7 +10973,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="60">
+    <row r="118" spans="1:8" ht="64">
       <c r="A118" s="67">
         <v>116</v>
       </c>
@@ -10387,14 +10992,14 @@
       <c r="F118" s="67" t="s">
         <v>667</v>
       </c>
-      <c r="G118" s="114" t="s">
+      <c r="G118" s="72" t="s">
         <v>918</v>
       </c>
       <c r="H118" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="30">
+    <row r="119" spans="1:8" ht="32">
       <c r="A119" s="67">
         <v>117</v>
       </c>
@@ -10420,7 +11025,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30">
+    <row r="120" spans="1:8" ht="32">
       <c r="A120" s="67">
         <v>118</v>
       </c>
@@ -10446,7 +11051,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="30">
+    <row r="121" spans="1:8" ht="32">
       <c r="A121" s="67">
         <v>119</v>
       </c>
@@ -10472,7 +11077,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="30">
+    <row r="122" spans="1:8" ht="32">
       <c r="A122" s="67">
         <v>120</v>
       </c>
@@ -10498,7 +11103,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="150">
+    <row r="123" spans="1:8" ht="160">
       <c r="A123" s="67">
         <v>121</v>
       </c>
@@ -10524,7 +11129,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="30">
+    <row r="124" spans="1:8" ht="32">
       <c r="A124" s="67">
         <v>122</v>
       </c>
@@ -10550,7 +11155,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="30">
+    <row r="125" spans="1:8" ht="32">
       <c r="A125" s="67">
         <v>123</v>
       </c>
@@ -10576,7 +11181,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="30">
+    <row r="126" spans="1:8" ht="32">
       <c r="A126" s="67">
         <v>124</v>
       </c>
@@ -10602,7 +11207,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="30">
+    <row r="127" spans="1:8" ht="32">
       <c r="A127" s="67">
         <v>125</v>
       </c>
@@ -10628,7 +11233,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="60">
+    <row r="128" spans="1:8" ht="64">
       <c r="A128" s="67">
         <v>126</v>
       </c>
@@ -10647,14 +11252,14 @@
       <c r="F128" s="67" t="s">
         <v>691</v>
       </c>
-      <c r="G128" s="114" t="s">
+      <c r="G128" s="72" t="s">
         <v>940</v>
       </c>
       <c r="H128" s="66" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="30">
+    <row r="129" spans="1:8" ht="32">
       <c r="A129" s="67">
         <v>127</v>
       </c>
@@ -10693,31 +11298,53 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="62" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>662</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="73" t="s">
+        <v>655</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>658</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="H1" t="s">
+        <v>669</v>
+      </c>
+      <c r="I1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="48">
       <c r="A2" s="4">
         <v>128</v>
       </c>
@@ -10727,8 +11354,23 @@
       <c r="C2" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="4">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="G2" t="s">
+        <v>945</v>
+      </c>
+      <c r="H2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="32">
       <c r="A3" s="4">
         <v>129</v>
       </c>
@@ -10738,8 +11380,23 @@
       <c r="C3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="4">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="G3" t="s">
+        <v>947</v>
+      </c>
+      <c r="H3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="32">
       <c r="A4" s="4">
         <v>130</v>
       </c>
@@ -10749,8 +11406,23 @@
       <c r="C4" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="G4" t="s">
+        <v>949</v>
+      </c>
+      <c r="H4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="32">
       <c r="A5" s="4">
         <v>131</v>
       </c>
@@ -10760,8 +11432,23 @@
       <c r="C5" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="G5" t="s">
+        <v>954</v>
+      </c>
+      <c r="H5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="32">
       <c r="A6" s="4">
         <v>132</v>
       </c>
@@ -10771,8 +11458,23 @@
       <c r="C6" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="G6" t="s">
+        <v>955</v>
+      </c>
+      <c r="H6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="32">
       <c r="A7" s="4">
         <v>133</v>
       </c>
@@ -10782,8 +11484,23 @@
       <c r="C7" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="G7" t="s">
+        <v>958</v>
+      </c>
+      <c r="H7" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="272">
       <c r="A8" s="4">
         <v>134</v>
       </c>
@@ -10793,8 +11510,23 @@
       <c r="C8" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="4">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="G8" t="s">
+        <v>962</v>
+      </c>
+      <c r="H8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="32">
       <c r="A9" s="4">
         <v>135</v>
       </c>
@@ -10804,8 +11536,26 @@
       <c r="C9" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="G9" t="s">
+        <v>963</v>
+      </c>
+      <c r="H9" t="s">
+        <v>669</v>
+      </c>
+      <c r="I9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="32">
       <c r="A10" s="4">
         <v>136</v>
       </c>
@@ -10815,8 +11565,23 @@
       <c r="C10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="4">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="G10" t="s">
+        <v>965</v>
+      </c>
+      <c r="H10" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="32">
       <c r="A11" s="4">
         <v>137</v>
       </c>
@@ -10826,8 +11591,23 @@
       <c r="C11" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="4">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="G11" t="s">
+        <v>967</v>
+      </c>
+      <c r="H11" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="32">
       <c r="A12" s="4">
         <v>138</v>
       </c>
@@ -10837,8 +11617,23 @@
       <c r="C12" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="4">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="G12" t="s">
+        <v>969</v>
+      </c>
+      <c r="H12" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="288">
       <c r="A13" s="4">
         <v>139</v>
       </c>
@@ -10848,8 +11643,23 @@
       <c r="C13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="4">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="G13" t="s">
+        <v>971</v>
+      </c>
+      <c r="H13" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="240">
       <c r="A14" s="4">
         <v>140</v>
       </c>
@@ -10859,8 +11669,23 @@
       <c r="C14" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="4">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="G14" t="s">
+        <v>973</v>
+      </c>
+      <c r="H14" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="32">
       <c r="A15" s="4">
         <v>141</v>
       </c>
@@ -10870,8 +11695,23 @@
       <c r="C15" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="4">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="G15" t="s">
+        <v>975</v>
+      </c>
+      <c r="H15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="32">
       <c r="A16" s="4">
         <v>142</v>
       </c>
@@ -10881,8 +11721,23 @@
       <c r="C16" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="4">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="G16" t="s">
+        <v>977</v>
+      </c>
+      <c r="H16" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="32">
       <c r="A17" s="4">
         <v>143</v>
       </c>
@@ -10892,8 +11747,23 @@
       <c r="C17" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="4">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="G17" t="s">
+        <v>979</v>
+      </c>
+      <c r="H17" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="32">
       <c r="A18" s="4">
         <v>144</v>
       </c>
@@ -10903,8 +11773,23 @@
       <c r="C18" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="4">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="G18" t="s">
+        <v>981</v>
+      </c>
+      <c r="H18" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="32">
       <c r="A19" s="4">
         <v>145</v>
       </c>
@@ -10914,8 +11799,23 @@
       <c r="C19" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="4">
+        <v>8</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="G19" t="s">
+        <v>983</v>
+      </c>
+      <c r="H19" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="32">
       <c r="A20" s="4">
         <v>146</v>
       </c>
@@ -10925,8 +11825,23 @@
       <c r="C20" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="4">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="G20" t="s">
+        <v>985</v>
+      </c>
+      <c r="H20" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="32">
       <c r="A21" s="4">
         <v>147</v>
       </c>
@@ -10936,8 +11851,23 @@
       <c r="C21" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="4">
+        <v>7</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="G21" t="s">
+        <v>987</v>
+      </c>
+      <c r="H21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="32">
       <c r="A22" s="4">
         <v>148</v>
       </c>
@@ -10947,8 +11877,23 @@
       <c r="C22" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="4">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="G22" t="s">
+        <v>990</v>
+      </c>
+      <c r="H22" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="32">
       <c r="A23" s="4">
         <v>149</v>
       </c>
@@ -10958,8 +11903,23 @@
       <c r="C23" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="4">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="G23" t="s">
+        <v>992</v>
+      </c>
+      <c r="H23" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="192">
       <c r="A24" s="4">
         <v>150</v>
       </c>
@@ -10969,8 +11929,23 @@
       <c r="C24" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="4">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="G24" t="s">
+        <v>995</v>
+      </c>
+      <c r="H24" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="272">
       <c r="A25" s="4">
         <v>151</v>
       </c>
@@ -10980,8 +11955,23 @@
       <c r="C25" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="G25" t="s">
+        <v>997</v>
+      </c>
+      <c r="H25" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="32">
       <c r="A26" s="4">
         <v>152</v>
       </c>
@@ -10991,8 +11981,23 @@
       <c r="C26" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="4">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>999</v>
+      </c>
+      <c r="H26" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="32">
       <c r="A27" s="4">
         <v>153</v>
       </c>
@@ -11002,8 +12007,23 @@
       <c r="C27" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="4">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H27" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="256">
       <c r="A28" s="4">
         <v>154</v>
       </c>
@@ -11013,8 +12033,23 @@
       <c r="C28" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="4">
+        <v>8</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H28" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="256">
       <c r="A29" s="4">
         <v>155</v>
       </c>
@@ -11024,8 +12059,23 @@
       <c r="C29" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="4">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H29" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="32">
       <c r="A30" s="4">
         <v>156</v>
       </c>
@@ -11035,8 +12085,23 @@
       <c r="C30" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="4">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H30" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="32">
       <c r="A31" s="4">
         <v>157</v>
       </c>
@@ -11046,8 +12111,23 @@
       <c r="C31" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="4">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H31" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="32">
       <c r="A32" s="4">
         <v>158</v>
       </c>
@@ -11057,8 +12137,23 @@
       <c r="C32" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="4">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H32" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="32">
       <c r="A33" s="4">
         <v>159</v>
       </c>
@@ -11068,8 +12163,23 @@
       <c r="C33" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="4">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1013</v>
+      </c>
+      <c r="H33" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="32">
       <c r="A34" s="4">
         <v>160</v>
       </c>
@@ -11079,8 +12189,23 @@
       <c r="C34" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H34" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="32">
       <c r="A35" s="4">
         <v>161</v>
       </c>
@@ -11090,8 +12215,23 @@
       <c r="C35" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="4">
+        <v>2</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="32">
       <c r="A36" s="4">
         <v>162</v>
       </c>
@@ -11101,8 +12241,23 @@
       <c r="C36" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="4">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H36" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="32">
       <c r="A37" s="4">
         <v>163</v>
       </c>
@@ -11112,8 +12267,23 @@
       <c r="C37" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="4">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H37" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="32">
       <c r="A38" s="4">
         <v>164</v>
       </c>
@@ -11123,8 +12293,23 @@
       <c r="C38" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="4">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1026</v>
+      </c>
+      <c r="H38" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="32">
       <c r="A39" s="4">
         <v>165</v>
       </c>
@@ -11134,8 +12319,23 @@
       <c r="C39" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="4">
+        <v>6</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H39" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="32">
       <c r="A40" s="4">
         <v>166</v>
       </c>
@@ -11145,8 +12345,23 @@
       <c r="C40" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="4">
+        <v>8</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H40" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="32">
       <c r="A41" s="4">
         <v>167</v>
       </c>
@@ -11156,8 +12371,23 @@
       <c r="C41" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="4">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H41" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="32">
       <c r="A42" s="4">
         <v>168</v>
       </c>
@@ -11167,8 +12397,23 @@
       <c r="C42" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="4">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H42" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="32">
       <c r="A43" s="4">
         <v>169</v>
       </c>
@@ -11178,8 +12423,23 @@
       <c r="C43" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="4">
+        <v>6</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H43" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="32">
       <c r="A44" s="4">
         <v>170</v>
       </c>
@@ -11189,8 +12449,23 @@
       <c r="C44" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="4">
+        <v>7</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H44" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="32">
       <c r="A45" s="4">
         <v>171</v>
       </c>
@@ -11200,8 +12475,23 @@
       <c r="C45" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="4">
+        <v>7</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H45" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="32">
       <c r="A46" s="4">
         <v>172</v>
       </c>
@@ -11211,8 +12501,23 @@
       <c r="C46" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="4">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H46" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="32">
       <c r="A47" s="4">
         <v>173</v>
       </c>
@@ -11222,8 +12527,23 @@
       <c r="C47" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="4">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H47" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="32">
       <c r="A48" s="4">
         <v>174</v>
       </c>
@@ -11233,8 +12553,23 @@
       <c r="C48" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="4">
+        <v>4</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H48" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="32">
       <c r="A49" s="4">
         <v>175</v>
       </c>
@@ -11244,8 +12579,23 @@
       <c r="C49" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="4">
+        <v>4</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H49" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="32">
       <c r="A50" s="4">
         <v>176</v>
       </c>
@@ -11255,8 +12605,23 @@
       <c r="C50" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="4">
+        <v>4</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H50" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="32">
       <c r="A51" s="4">
         <v>177</v>
       </c>
@@ -11266,8 +12631,23 @@
       <c r="C51" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="4">
+        <v>4</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H51" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="32">
       <c r="A52" s="4">
         <v>178</v>
       </c>
@@ -11277,8 +12657,23 @@
       <c r="C52" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="4">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H52" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="32">
       <c r="A53" s="4">
         <v>179</v>
       </c>
@@ -11288,8 +12683,23 @@
       <c r="C53" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="4">
+        <v>8</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H53" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="32">
       <c r="A54" s="4">
         <v>180</v>
       </c>
@@ -11299,8 +12709,23 @@
       <c r="C54" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="4">
+        <v>8</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H54" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="32">
       <c r="A55" s="4">
         <v>181</v>
       </c>
@@ -11310,8 +12735,23 @@
       <c r="C55" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="4">
+        <v>8</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H55" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="32">
       <c r="A56" s="4">
         <v>182</v>
       </c>
@@ -11321,8 +12761,23 @@
       <c r="C56" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="4">
+        <v>7</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H56" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="32">
       <c r="A57" s="4">
         <v>183</v>
       </c>
@@ -11332,8 +12787,23 @@
       <c r="C57" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="4">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G57" t="s">
+        <v>992</v>
+      </c>
+      <c r="H57" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="32">
       <c r="A58" s="4">
         <v>184</v>
       </c>
@@ -11343,8 +12813,23 @@
       <c r="C58" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="4">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G58" t="s">
+        <v>990</v>
+      </c>
+      <c r="H58" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="32">
       <c r="A59" s="4">
         <v>185</v>
       </c>
@@ -11354,8 +12839,23 @@
       <c r="C59" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="4">
+        <v>7</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G59" t="s">
+        <v>987</v>
+      </c>
+      <c r="H59" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="32">
       <c r="A60" s="4">
         <v>186</v>
       </c>
@@ -11365,8 +12865,23 @@
       <c r="C60" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="4">
+        <v>2</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H60" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="32">
       <c r="A61" s="4">
         <v>187</v>
       </c>
@@ -11376,8 +12891,23 @@
       <c r="C61" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="4">
+        <v>6</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H61" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="32">
       <c r="A62" s="4">
         <v>188</v>
       </c>
@@ -11387,8 +12917,23 @@
       <c r="C62" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="4">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H62" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="32">
       <c r="A63" s="4">
         <v>189</v>
       </c>
@@ -11398,8 +12943,23 @@
       <c r="C63" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="4">
+        <v>8</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H63" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="32">
       <c r="A64" s="4">
         <v>190</v>
       </c>
@@ -11409,8 +12969,23 @@
       <c r="C64" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1084</v>
+      </c>
+      <c r="H64" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="32">
       <c r="A65" s="4">
         <v>191</v>
       </c>
@@ -11419,6 +12994,21 @@
       </c>
       <c r="C65" s="4">
         <v>2</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H65" t="s">
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -11434,31 +13024,47 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="59.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="5" max="5" width="44.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
+    <row r="1" spans="1:7" ht="21">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1</v>
+        <v>1087</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="73" t="s">
+        <v>655</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>658</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4">
         <v>192</v>
       </c>
@@ -11469,7 +13075,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3" s="4">
         <v>193</v>
       </c>
@@ -11480,7 +13086,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:7">
       <c r="A4" s="4">
         <v>194</v>
       </c>
@@ -11491,7 +13097,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:7">
       <c r="A5" s="4">
         <v>195</v>
       </c>
@@ -11502,7 +13108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:7">
       <c r="A6" s="4">
         <v>196</v>
       </c>
@@ -11513,7 +13119,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:7">
       <c r="A7" s="4">
         <v>197</v>
       </c>
@@ -11524,7 +13130,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:7">
       <c r="A8" s="4">
         <v>198</v>
       </c>
@@ -11535,7 +13141,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:7">
       <c r="A9" s="4">
         <v>199</v>
       </c>
@@ -11546,7 +13152,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:7">
       <c r="A10" s="4">
         <v>200</v>
       </c>
@@ -11557,7 +13163,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>201</v>
       </c>
@@ -11568,7 +13174,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>202</v>
       </c>
@@ -11579,7 +13185,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:7">
       <c r="A13" s="4">
         <v>203</v>
       </c>
@@ -11590,7 +13196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:7">
       <c r="A14" s="4">
         <v>204</v>
       </c>
@@ -11601,7 +13207,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:7">
       <c r="A15" s="4">
         <v>205</v>
       </c>
@@ -11612,7 +13218,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:7">
       <c r="A16" s="4">
         <v>206</v>
       </c>
@@ -12181,13 +13787,13 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="49" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="4" max="4" width="36.5" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
@@ -13478,7 +15084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" ht="16">
       <c r="A93" s="4">
         <v>91</v>
       </c>
@@ -14015,12 +15621,12 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
@@ -14952,12 +16558,12 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">

--- a/J1587 DA - Xav.xlsx
+++ b/J1587 DA - Xav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xavier Biancardi\PycharmProjects\Display_rep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E45C476-5D9F-48DB-B0C1-7B51DF3645DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4531E7DC-31AD-4285-AA5E-8432F409B6E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{518D265B-68D4-4247-BD98-CED029082955}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{518D265B-68D4-4247-BD98-CED029082955}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="945">
   <si>
     <t>PID</t>
   </si>
@@ -3448,12 +3448,15 @@
     <t xml:space="preserve">PID/a,
 a = Transmission oil pressure </t>
   </si>
+  <si>
+    <t>Description2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3511,6 +3514,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3761,7 +3770,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3912,52 +3921,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4020,6 +3987,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4038,8 +4023,35 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4410,12 +4422,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B521781-C555-4FBA-B6F7-F1DAC33C9D1A}" name="Table2" displayName="Table2" ref="A1:C65" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
-  <autoFilter ref="A1:C65" xr:uid="{16F1F122-3E87-45D2-8FC9-9D3F0531F4BF}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B521781-C555-4FBA-B6F7-F1DAC33C9D1A}" name="Table2" displayName="Table2" ref="A1:G65" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28">
+  <autoFilter ref="A1:G65" xr:uid="{16F1F122-3E87-45D2-8FC9-9D3F0531F4BF}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B6EC38D7-C1D3-420B-9AAA-DED5C0E4E129}" name="PID" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{0E889316-95EF-461D-A56F-9E52488C9C03}" name="DESCRIPTION"/>
     <tableColumn id="3" xr3:uid="{371B201C-6DB4-415E-9AA4-5089B6015C97}" name="NUMBER OF DATA BYTE(s)" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{DD780F7C-4D92-4350-9D86-E6E7E8E43EA4}" name="Priority"/>
+    <tableColumn id="5" xr3:uid="{778C5793-9ECB-4EB2-9DC5-14471C43B21A}" name="Format"/>
+    <tableColumn id="6" xr3:uid="{46112C34-9AFF-45CC-82BF-069B3DD17141}" name="Resolution"/>
+    <tableColumn id="7" xr3:uid="{D21C087E-35B7-4BFD-8C7E-7672056DC502}" name="Description2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4793,10 +4809,10 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:20">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="89"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="62"/>
       <c r="E2" s="62"/>
       <c r="F2" s="62"/>
@@ -4804,8 +4820,8 @@
       <c r="H2" s="62"/>
     </row>
     <row r="3" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="62"/>
       <c r="E3" s="62"/>
       <c r="F3" s="62"/>
@@ -4814,18 +4830,18 @@
     </row>
     <row r="4" spans="2:20" ht="15.75" thickBot="1"/>
     <row r="5" spans="2:20">
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="C5" s="93"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="62"/>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="82" t="s">
         <v>254</v>
       </c>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="98"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="84"/>
       <c r="J5" s="63"/>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -4836,14 +4852,14 @@
       <c r="Q5" s="63"/>
     </row>
     <row r="6" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B6" s="94"/>
-      <c r="C6" s="95"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="62"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="101"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="63"/>
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
@@ -4855,24 +4871,24 @@
     </row>
     <row r="7" spans="2:20" ht="15.75" thickBot="1"/>
     <row r="8" spans="2:20">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="100" t="s">
         <v>253</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="110"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="102"/>
       <c r="F8" s="14"/>
-      <c r="G8" s="108" t="s">
+      <c r="G8" s="100" t="s">
         <v>384</v>
       </c>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="110"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="102"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
@@ -4880,20 +4896,20 @@
       <c r="T8" s="14"/>
     </row>
     <row r="9" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B9" s="111"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="113"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="105"/>
       <c r="F9" s="14"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="113"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="105"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
@@ -4902,79 +4918,79 @@
     </row>
     <row r="10" spans="2:20" ht="15.75" thickBot="1"/>
     <row r="11" spans="2:20">
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="110" t="s">
         <v>385</v>
       </c>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="84"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="14"/>
-      <c r="G11" s="82" t="s">
+      <c r="G11" s="110" t="s">
         <v>386</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="83"/>
-      <c r="L11" s="83"/>
-      <c r="M11" s="84"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="112"/>
     </row>
     <row r="12" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="115"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="87"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="115"/>
     </row>
     <row r="16" spans="2:20" ht="15.75" thickBot="1"/>
     <row r="17" spans="2:21" ht="15" customHeight="1">
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="88" t="s">
         <v>587</v>
       </c>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
-      <c r="H17" s="79" t="s">
+      <c r="C17" s="89"/>
+      <c r="D17" s="90"/>
+      <c r="H17" s="94" t="s">
         <v>588</v>
       </c>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="81"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="95"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="96"/>
     </row>
     <row r="18" spans="2:21" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B18" s="105"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="107"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="78"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="93"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="99"/>
     </row>
     <row r="19" spans="2:21" ht="21">
       <c r="B19" s="15" t="s">
@@ -4986,12 +5002,12 @@
       <c r="H19" s="40" t="s">
         <v>589</v>
       </c>
-      <c r="I19" s="72" t="s">
+      <c r="I19" s="106" t="s">
         <v>590</v>
       </c>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="106"/>
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
       <c r="O19" s="41"/>
@@ -5532,16 +5548,16 @@
         <v>582</v>
       </c>
       <c r="H41" s="1"/>
-      <c r="I41" s="73" t="s">
+      <c r="I41" s="107" t="s">
         <v>619</v>
       </c>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="75"/>
+      <c r="J41" s="108"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="108"/>
+      <c r="M41" s="108"/>
+      <c r="N41" s="108"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="109"/>
     </row>
     <row r="42" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
       <c r="B42" s="30" t="s">
@@ -5557,14 +5573,14 @@
         <v>584</v>
       </c>
       <c r="H42" s="1"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
-      <c r="M42" s="77"/>
-      <c r="N42" s="77"/>
-      <c r="O42" s="77"/>
-      <c r="P42" s="78"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="98"/>
+      <c r="K42" s="98"/>
+      <c r="L42" s="98"/>
+      <c r="M42" s="98"/>
+      <c r="N42" s="98"/>
+      <c r="O42" s="98"/>
+      <c r="P42" s="99"/>
     </row>
     <row r="43" spans="2:20" ht="15.75">
       <c r="B43" s="30" t="s">
@@ -5776,27 +5792,27 @@
     </row>
     <row r="61" spans="8:16" ht="15.75">
       <c r="H61" s="1"/>
-      <c r="I61" s="79" t="s">
+      <c r="I61" s="94" t="s">
         <v>638</v>
       </c>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="80"/>
-      <c r="O61" s="80"/>
-      <c r="P61" s="81"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="95"/>
+      <c r="L61" s="95"/>
+      <c r="M61" s="95"/>
+      <c r="N61" s="95"/>
+      <c r="O61" s="95"/>
+      <c r="P61" s="96"/>
     </row>
     <row r="62" spans="8:16" ht="16.5" thickBot="1">
       <c r="H62" s="1"/>
-      <c r="I62" s="76"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="77"/>
-      <c r="L62" s="77"/>
-      <c r="M62" s="77"/>
-      <c r="N62" s="77"/>
-      <c r="O62" s="77"/>
-      <c r="P62" s="78"/>
+      <c r="I62" s="97"/>
+      <c r="J62" s="98"/>
+      <c r="K62" s="98"/>
+      <c r="L62" s="98"/>
+      <c r="M62" s="98"/>
+      <c r="N62" s="98"/>
+      <c r="O62" s="98"/>
+      <c r="P62" s="99"/>
     </row>
     <row r="63" spans="8:16" ht="15.75">
       <c r="H63" s="1"/>
@@ -5965,6 +5981,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I41:P42"/>
+    <mergeCell ref="I61:P62"/>
+    <mergeCell ref="B11:E12"/>
+    <mergeCell ref="G11:M12"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B5:C6"/>
     <mergeCell ref="E5:I6"/>
@@ -5972,11 +5993,6 @@
     <mergeCell ref="H17:U18"/>
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="G8:O9"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I41:P42"/>
-    <mergeCell ref="I61:P62"/>
-    <mergeCell ref="B11:E12"/>
-    <mergeCell ref="G11:M12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7317,7 +7333,7 @@
   <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -8209,7 +8225,7 @@
       <c r="F34" s="67" t="s">
         <v>685</v>
       </c>
-      <c r="G34" s="114" t="s">
+      <c r="G34" s="72" t="s">
         <v>732</v>
       </c>
       <c r="H34" s="66" t="s">
@@ -8235,7 +8251,7 @@
       <c r="F35" s="67" t="s">
         <v>685</v>
       </c>
-      <c r="G35" s="114" t="s">
+      <c r="G35" s="72" t="s">
         <v>734</v>
       </c>
       <c r="H35" s="66" t="s">
@@ -8313,7 +8329,7 @@
       <c r="F38" s="67" t="s">
         <v>685</v>
       </c>
-      <c r="G38" s="114" t="s">
+      <c r="G38" s="72" t="s">
         <v>740</v>
       </c>
       <c r="H38" s="66" t="s">
@@ -8391,7 +8407,7 @@
       <c r="F41" s="67" t="s">
         <v>748</v>
       </c>
-      <c r="G41" s="114" t="s">
+      <c r="G41" s="72" t="s">
         <v>750</v>
       </c>
       <c r="H41" s="66" t="s">
@@ -8469,7 +8485,7 @@
       <c r="F44" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G44" s="114" t="s">
+      <c r="G44" s="72" t="s">
         <v>754</v>
       </c>
       <c r="H44" s="66" t="s">
@@ -8495,7 +8511,7 @@
       <c r="F45" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G45" s="114" t="s">
+      <c r="G45" s="72" t="s">
         <v>756</v>
       </c>
       <c r="H45" s="66" t="s">
@@ -8547,7 +8563,7 @@
       <c r="F47" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G47" s="114" t="s">
+      <c r="G47" s="72" t="s">
         <v>761</v>
       </c>
       <c r="H47" s="66" t="s">
@@ -8671,7 +8687,7 @@
       <c r="F52" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G52" s="114" t="s">
+      <c r="G52" s="72" t="s">
         <v>774</v>
       </c>
       <c r="H52" s="66" t="s">
@@ -8697,7 +8713,7 @@
       <c r="F53" s="67" t="s">
         <v>685</v>
       </c>
-      <c r="G53" s="114" t="s">
+      <c r="G53" s="72" t="s">
         <v>777</v>
       </c>
       <c r="H53" s="66" t="s">
@@ -9139,7 +9155,7 @@
       <c r="F70" s="67" t="s">
         <v>696</v>
       </c>
-      <c r="G70" s="114" t="s">
+      <c r="G70" s="72" t="s">
         <v>812</v>
       </c>
       <c r="H70" s="66" t="s">
@@ -9347,7 +9363,7 @@
       <c r="F78" s="67" t="s">
         <v>667</v>
       </c>
-      <c r="G78" s="114" t="s">
+      <c r="G78" s="72" t="s">
         <v>831</v>
       </c>
       <c r="H78" s="66" t="s">
@@ -9503,7 +9519,7 @@
       <c r="F84" s="67" t="s">
         <v>667</v>
       </c>
-      <c r="G84" s="114" t="s">
+      <c r="G84" s="72" t="s">
         <v>842</v>
       </c>
       <c r="H84" s="66" t="s">
@@ -9581,7 +9597,7 @@
       <c r="F87" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G87" s="114" t="s">
+      <c r="G87" s="72" t="s">
         <v>849</v>
       </c>
       <c r="H87" s="66" t="s">
@@ -9685,7 +9701,7 @@
       <c r="F91" s="67" t="s">
         <v>659</v>
       </c>
-      <c r="G91" s="114" t="s">
+      <c r="G91" s="72" t="s">
         <v>857</v>
       </c>
       <c r="H91" s="66" t="s">
@@ -9841,7 +9857,7 @@
       <c r="F97" s="67" t="s">
         <v>691</v>
       </c>
-      <c r="G97" s="114" t="s">
+      <c r="G97" s="72" t="s">
         <v>870</v>
       </c>
       <c r="H97" s="66" t="s">
@@ -10153,7 +10169,7 @@
       <c r="F109" s="67" t="s">
         <v>897</v>
       </c>
-      <c r="G109" s="114" t="s">
+      <c r="G109" s="72" t="s">
         <v>896</v>
       </c>
       <c r="H109" s="66" t="s">
@@ -10387,7 +10403,7 @@
       <c r="F118" s="67" t="s">
         <v>667</v>
       </c>
-      <c r="G118" s="114" t="s">
+      <c r="G118" s="72" t="s">
         <v>918</v>
       </c>
       <c r="H118" s="66" t="s">
@@ -10647,7 +10663,7 @@
       <c r="F128" s="67" t="s">
         <v>691</v>
       </c>
-      <c r="G128" s="114" t="s">
+      <c r="G128" s="72" t="s">
         <v>940</v>
       </c>
       <c r="H128" s="66" t="s">
@@ -10693,10 +10709,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -10704,9 +10720,13 @@
     <col min="1" max="1" width="22.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="97.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.140625" customWidth="1"/>
+    <col min="7" max="7" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -10716,8 +10736,23 @@
       <c r="C1" s="7" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="73" t="s">
+        <v>655</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>656</v>
+      </c>
+      <c r="F1" s="73" t="s">
+        <v>658</v>
+      </c>
+      <c r="G1" s="73" t="s">
+        <v>944</v>
+      </c>
+      <c r="H1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
         <v>128</v>
       </c>
@@ -10727,8 +10762,11 @@
       <c r="C2" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="H2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="4">
         <v>129</v>
       </c>
@@ -10738,8 +10776,11 @@
       <c r="C3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="H3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
         <v>130</v>
       </c>
@@ -10749,8 +10790,11 @@
       <c r="C4" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="H4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4">
         <v>131</v>
       </c>
@@ -10760,8 +10804,11 @@
       <c r="C5" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="H5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="4">
         <v>132</v>
       </c>
@@ -10771,8 +10818,11 @@
       <c r="C6" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="H6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>133</v>
       </c>
@@ -10782,8 +10832,11 @@
       <c r="C7" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="H7" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>134</v>
       </c>
@@ -10793,8 +10846,11 @@
       <c r="C8" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="H8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="4">
         <v>135</v>
       </c>
@@ -10804,8 +10860,11 @@
       <c r="C9" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="H9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>136</v>
       </c>
@@ -10815,8 +10874,11 @@
       <c r="C10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="H10" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>137</v>
       </c>
@@ -10826,8 +10888,11 @@
       <c r="C11" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="H11" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>138</v>
       </c>
@@ -10837,8 +10902,11 @@
       <c r="C12" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="H12" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="4">
         <v>139</v>
       </c>
@@ -10848,8 +10916,11 @@
       <c r="C13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="H13" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4">
         <v>140</v>
       </c>
@@ -10859,8 +10930,11 @@
       <c r="C14" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="H14" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="4">
         <v>141</v>
       </c>
@@ -10870,8 +10944,11 @@
       <c r="C15" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="H15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="4">
         <v>142</v>
       </c>
@@ -10881,8 +10958,11 @@
       <c r="C16" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="H16" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="4">
         <v>143</v>
       </c>
@@ -10892,8 +10972,11 @@
       <c r="C17" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="H17" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="4">
         <v>144</v>
       </c>
@@ -10903,8 +10986,11 @@
       <c r="C18" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="H18" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="4">
         <v>145</v>
       </c>
@@ -10914,8 +11000,11 @@
       <c r="C19" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="H19" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="4">
         <v>146</v>
       </c>
@@ -10925,8 +11014,11 @@
       <c r="C20" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="H20" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="4">
         <v>147</v>
       </c>
@@ -10936,8 +11028,11 @@
       <c r="C21" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="H21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>148</v>
       </c>
@@ -10947,8 +11042,11 @@
       <c r="C22" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="H22" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>149</v>
       </c>
@@ -10958,8 +11056,11 @@
       <c r="C23" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="H23" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>150</v>
       </c>
@@ -10969,8 +11070,11 @@
       <c r="C24" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="H24" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>151</v>
       </c>
@@ -10980,8 +11084,11 @@
       <c r="C25" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="H25" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>152</v>
       </c>
@@ -10991,8 +11098,11 @@
       <c r="C26" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="H26" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>153</v>
       </c>
@@ -11002,8 +11112,11 @@
       <c r="C27" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="H27" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>154</v>
       </c>
@@ -11013,8 +11126,11 @@
       <c r="C28" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="H28" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>155</v>
       </c>
@@ -11024,8 +11140,11 @@
       <c r="C29" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="H29" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>156</v>
       </c>
@@ -11035,8 +11154,11 @@
       <c r="C30" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="H30" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>157</v>
       </c>
@@ -11046,8 +11168,11 @@
       <c r="C31" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="H31" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>158</v>
       </c>
@@ -11057,8 +11182,11 @@
       <c r="C32" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="H32" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>159</v>
       </c>
@@ -11068,8 +11196,11 @@
       <c r="C33" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="H33" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>160</v>
       </c>
@@ -11079,8 +11210,11 @@
       <c r="C34" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="H34" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <v>161</v>
       </c>
@@ -11090,8 +11224,11 @@
       <c r="C35" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="H35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="4">
         <v>162</v>
       </c>
@@ -11101,8 +11238,11 @@
       <c r="C36" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="H36" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
         <v>163</v>
       </c>
@@ -11112,8 +11252,11 @@
       <c r="C37" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="H37" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="4">
         <v>164</v>
       </c>
@@ -11123,8 +11266,11 @@
       <c r="C38" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="H38" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="4">
         <v>165</v>
       </c>
@@ -11134,8 +11280,11 @@
       <c r="C39" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="H39" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
         <v>166</v>
       </c>
@@ -11145,8 +11294,11 @@
       <c r="C40" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="H40" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="4">
         <v>167</v>
       </c>
@@ -11156,8 +11308,11 @@
       <c r="C41" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="H41" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="4">
         <v>168</v>
       </c>
@@ -11167,8 +11322,11 @@
       <c r="C42" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="H42" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="4">
         <v>169</v>
       </c>
@@ -11178,8 +11336,11 @@
       <c r="C43" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="H43" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="4">
         <v>170</v>
       </c>
@@ -11189,8 +11350,11 @@
       <c r="C44" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="H44" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="4">
         <v>171</v>
       </c>
@@ -11200,8 +11364,11 @@
       <c r="C45" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="H45" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="4">
         <v>172</v>
       </c>
@@ -11211,8 +11378,11 @@
       <c r="C46" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="H46" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="4">
         <v>173</v>
       </c>
@@ -11222,8 +11392,11 @@
       <c r="C47" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="H47" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="4">
         <v>174</v>
       </c>
@@ -11233,8 +11406,11 @@
       <c r="C48" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="H48" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="4">
         <v>175</v>
       </c>
@@ -11244,8 +11420,11 @@
       <c r="C49" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="H49" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="4">
         <v>176</v>
       </c>
@@ -11255,8 +11434,11 @@
       <c r="C50" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="H50" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="4">
         <v>177</v>
       </c>
@@ -11266,8 +11448,11 @@
       <c r="C51" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="H51" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="4">
         <v>178</v>
       </c>
@@ -11277,8 +11462,11 @@
       <c r="C52" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="H52" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="4">
         <v>179</v>
       </c>
@@ -11288,8 +11476,11 @@
       <c r="C53" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="H53" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="4">
         <v>180</v>
       </c>
@@ -11299,8 +11490,11 @@
       <c r="C54" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="H54" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="4">
         <v>181</v>
       </c>
@@ -11310,8 +11504,11 @@
       <c r="C55" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="H55" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="4">
         <v>182</v>
       </c>
@@ -11321,8 +11518,11 @@
       <c r="C56" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="H56" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="4">
         <v>183</v>
       </c>
@@ -11332,8 +11532,11 @@
       <c r="C57" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="H57" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="4">
         <v>184</v>
       </c>
@@ -11343,8 +11546,11 @@
       <c r="C58" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="H58" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="4">
         <v>185</v>
       </c>
@@ -11354,8 +11560,11 @@
       <c r="C59" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="H59" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="4">
         <v>186</v>
       </c>
@@ -11365,8 +11574,11 @@
       <c r="C60" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="H60" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="4">
         <v>187</v>
       </c>
@@ -11376,8 +11588,11 @@
       <c r="C61" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="H61" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="4">
         <v>188</v>
       </c>
@@ -11387,8 +11602,11 @@
       <c r="C62" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="H62" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="4">
         <v>189</v>
       </c>
@@ -11398,8 +11616,11 @@
       <c r="C63" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="H63" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="4">
         <v>190</v>
       </c>
@@ -11409,8 +11630,11 @@
       <c r="C64" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="H64" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="4">
         <v>191</v>
       </c>
@@ -11420,8 +11644,12 @@
       <c r="C65" s="4">
         <v>2</v>
       </c>
+      <c r="H65" t="s">
+        <v>669</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -11436,7 +11664,7 @@
   </sheetPr>
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/J1587 DA - Xav.xlsx
+++ b/J1587 DA - Xav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Xavier/Desktop/Kivystuff/Truck Monitoring/Truck Screen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF88DFEA-6366-914F-B46B-FBB6C2168E11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285E15DB-E460-6441-9054-0A9D164BB93C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" activeTab="4" xr2:uid="{518D265B-68D4-4247-BD98-CED029082955}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" activeTab="1" xr2:uid="{518D265B-68D4-4247-BD98-CED029082955}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="7" r:id="rId1"/>
@@ -6586,8 +6586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B987EB9-2B7F-41FC-B8FF-2D038FB617ED}">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15"/>
@@ -7915,8 +7915,8 @@
   </sheetPr>
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11300,8 +11300,8 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView zoomScale="62" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A48" zoomScale="113" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13026,8 +13026,8 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A52" zoomScale="90" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>

--- a/J1587 DA - Xav.xlsx
+++ b/J1587 DA - Xav.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Xavier/Desktop/Kivystuff/Truck Monitoring/Truck Screen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285E15DB-E460-6441-9054-0A9D164BB93C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B4DB01-A378-B243-81DE-685C8E5114D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" activeTab="1" xr2:uid="{518D265B-68D4-4247-BD98-CED029082955}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17480" activeTab="4" xr2:uid="{518D265B-68D4-4247-BD98-CED029082955}"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="7" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="1127">
   <si>
     <t>PID</t>
   </si>
@@ -4029,6 +4029,263 @@
   </si>
   <si>
     <t>NAME</t>
+  </si>
+  <si>
+    <t>PID,n,a,b,c/d,c,c,c,c,c,c,c
+Byte count of data within this section that follows this character. This excludes characters MID, PID 192, and n, but it includes a, b, c, or d type characters.
+PID from page 1 (PIDs 0 to 254) specifying the parameter that has been selected.
+The last section number (total number of sections minus ONE) and the current section number. The upper nibble contains the last section number (1 to 15). The lower nibble contains the current section number and is limited to the range 0 to 15. Section numbers are assigned in ascending order.
+Data portion of sectioned parameters. May be 1 to 14 characters in the first packet, as byte d is transmitted only in the first packet. May be 1 to 15 characters in the middle and ending packets.
+Total byte count of the original data. It is the same value as the byte count of the parameter being sectioned. This character is broadcast only in the first packet. The value must be greater than 17 but is limited to 239.</t>
+  </si>
+  <si>
+    <t>Defined by the specified sanctioned parameter</t>
+  </si>
+  <si>
+    <t>Parameter specific</t>
+  </si>
+  <si>
+    <t>PID,naaaaaaa
+n— Byte count of data that follows this character
+a— Diagnostic codes defined by the component manufacturer in an application document.</t>
+  </si>
+  <si>
+    <t>Defined by manufacturer application document</t>
+  </si>
+  <si>
+    <t>Used to transmit parameters that are longer than what is limited by SAE J1708. A specified parameter can be broken into sections with each section being transmitted in a different message.</t>
+  </si>
+  <si>
+    <t>Used to notify other components on the data link of the diagnostic condition of the transmitting electronic component. The parameter contains a list of diagnostic codes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used to notify other components on the data link of the diagnostic condition of the transmitting electronic component. The parameter contains a list of diagnostic codes and occurrence counts. </t>
+  </si>
+  <si>
+    <t>Used to request additional information about a given diagnostic code or clear its count.</t>
+  </si>
+  <si>
+    <t>PID,n a b c a b c a b c a b c a b c a b c...
+Byte count of data that follows this character. This excludes characters MID, PID 194, and n but includes a, b and c type characters.
+SID or PID of a standard diagnostic code.
+Diagnostic code character.
+Bit 8: Occurrence Count included
+1=count is included
+0=count not included
+Bit 7: Current Status of fault
+1=fault is inactive
+0=fault is active
+Bit 6: Type of diagnostic code
+1=standard diagnostic code
+0=expansion diagnostic code (PID or SID from page 2)
+Bit 5: Low character identifier for a standard diagnostic code
+1=low character is subsystem identifier (SID)
+0=low character is parameter identifier (PID)</t>
+  </si>
+  <si>
+    <t>PID,nabc
+n— Number of parameter data characters = 3
+a— MID of device to which request is directed.
+b— SID or PID of a standard diagnostic code.
+c— Diagnostic code character
+Bits 8-7:
+(00)—Request an ASCII descriptive message for the given SID or PID 
+(01)—Request count be cleared for the given diagnostic code on the device
+with the given MID.
+(10)—Request counts be cleared for all diagnostic codes on the device with
+the given MID. The diagnostic code given in this transmission is ignored. 
+(11)—Request additional diagnostic information for the given diagnostic code, the content of which is defined in a manufacturer’s application document.
+Bit 6:  Type of diagnostic code
+1=standard diagnostic code
+0=expansion diagnostic code (PID or SID from page 2)
+Bit 5:  Low character identifier for a standard diagnostic code 
+1=low character is subsystem identifier (SID)
+0=low character is parameter identifier (PID)
+Bits 4-1: Failure mode identifier (FMI) of a standard diagnostic code</t>
+  </si>
+  <si>
+    <t>Used to acknowledge the clearing of diagnostic codes or supply additional information about a diagnostic code as requested by PID 195.</t>
+  </si>
+  <si>
+    <t>PID,n a b c c c c c c c c c c ....
+n— Byte count of data that follows this character. This excludes characters MID, PID 196,
+and n, but includes a, b, c type characters.
+a— SID or PID of a standard diagnostic code.
+b— Diagnostic code character
+Bits 8-7:
+(00)—Message is an ASCII descriptive message for the given SID or PID. (01)—The count has been cleared for the given diagnostic code.
+(10)—All clearable diagnostic counts have been cleared for this device. (11)—Message is additional diagnostic information for the given diagnostic
+code, the content of which is defined in a manufacturer’s application
+document.
+Bit 6: Type of diagnostic code
+1=standard diagnostic code
+0=expansion diagnostic code (PID or SID from page 2) 
+Bit 5:  Low character identifier for a standard diagnostic code 1=low character is subsystem identifier (SID)
+0=low character is parameter identifier (PID)
+Bits 4-1: Failure mode identifier (FMI) of a standard diagnostic code.
+c— If Bits 7 and 8 of character b are (00), the data in field C is an ASCII string, which describes the given SID or PID. If Bits 7 and 8 of character b are (11), the data in field C are defined by the manufacturer’s application document with the exception that the first five characters of the data define the make of the component, which is responding. The five characters defining the make correspond to the codes defined in the American Trucking Association Vehicle Maintenance Reporting Standard (ATA/VMRS). It is suggested that spaces (ASCII 32) are used to fill the remaining characters if the ATA/VMRS make code is less than five characters in length. Data type c would be omitted if Bits 7 and 8 of character b are either (01) or (10) or if no data of the type requested is available.</t>
+  </si>
+  <si>
+    <t>See Appendix B.</t>
+  </si>
+  <si>
+    <t>Used to request the traction control unit to temporarily disable the traction control function during vehicle testing.</t>
+  </si>
+  <si>
+    <t>PID,n a b b b ...
+n— Byte count of data that follows this character a— Traction control disable state character
+Bits 8-7: Request/response
+(00)—Indicates that the message is a request directed to the traction control
+unit
+(01)—Indicates that the message is a response from the traction control unit. (10)—Error
+(11)—Not viable.
+Bit 6-4: Traction Control Active/Passive
+(000)—Traction control function passive
+(001)—Traction control differential braking function active
+(010)—Traction control engine control function active
+(011)—Traction control differential braking and engine control functions active 
+(100)—Reserved
+(101)—Reserved
+(110)—Error
+(111)—Not available
+Bit 3-1: Traction Control Function Enabled/Disabled
+(000)—Traction control differential braking and engine control functions
+disabled
+(001)—Traction control differential braking enabled
+Traction control engine control function disabled
+(010)—Traction control differential braking disabled
+Traction control engine control function enabled
+(011)—Traction enabled
+control differential braking and engine control functions
+(100)—Reserved (101)—Reserved (110)—Error (111)—Not available
+b— Access code. An ASCII string of 0 to 15 bytes which is selected by the manufacturer of the traction control unit to protect the traction control function from becoming disabled by accident or due to malfunction of the requesting units.</t>
+  </si>
+  <si>
+    <t>Character 1 = Binary
+Characters 2-x = ASCII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To be assigned. </t>
+  </si>
+  <si>
+    <t>Temperature of the air exiting the Particulate trap.</t>
+  </si>
+  <si>
+    <t>PID,naaaa
+n— Number of parameter data characters = 4 
+a— Particulate Trap Gas Outlet Temperature</t>
+  </si>
+  <si>
+    <t>See Appendix F.</t>
+  </si>
+  <si>
+    <t>Used to transfer schedule information about designated time points along a route.</t>
+  </si>
+  <si>
+    <t>PID,nabbbbcde
+n— Number of parameter data characters = 8
+a— Time point type identifier
+0 = Reserved for SAE assignment 1 = Scheduled Time of Arrival
+2 = Estimated Time of Arrival
+3 = Actual Time of Arrival
+4 = Schedule Time of Departure 
+5 = Estimated Time of Departure 6 = Actual Time of Departure 
+7-255 = Reserved
+b— Time point location identifier - Represents a specific location in a transit route associated with the time stamp represented in characters c, d and e.
+c— Seconds
+d— Minutes
+e— Hours</t>
+  </si>
+  <si>
+    <t>Character 1 = Integer
+Character 2-5 = Long Integer 
+Character 6 = 0.25 s/bit 
+Character 7 = 1 min/bit 
+Character 8 = 1 h/bit</t>
+  </si>
+  <si>
+    <t>Identifies the owning agency and/or the operating agency of a vehicle.</t>
+  </si>
+  <si>
+    <t>PID,n[aaa]b[ccc]
+n— Number of parameter data characters
+a— Owning Agency identification field
+b— ASCII “*”
+c— Operating Agency identification field</t>
+  </si>
+  <si>
+    <t>Used to obtain the cashbox identification and value of contents.</t>
+  </si>
+  <si>
+    <t>PID,naabbbb
+n— Number of parameter data characters = 6
+a— Cashbox Identification
+b— Cashbox Revenue</t>
+  </si>
+  <si>
+    <t>Character 1-2 = Binary
+Character 3-6 = (single local monetary unit) x 0.01 (e.g. U.S. dollar x 0.01 = 1 cent)</t>
+  </si>
+  <si>
+    <t>0.05 h</t>
+  </si>
+  <si>
+    <t>PID,naaaa
+n— Number of parameter data characters = 4 a— Total refrigerant compressor hours</t>
+  </si>
+  <si>
+    <t>Accumulated number of hours that the air conditioner refrigerant compressor has been engaged.</t>
+  </si>
+  <si>
+    <t>To be used to send trailer ABS control and warning lamp status. A tractor mounted ECU may broadcast this message and report the ABS status of all trailers at once.</t>
+  </si>
+  <si>
+    <t>PID,nabc
+n— Number of parameter data characters (see Note 4)
+a— ABS Control Status, Trailer
+Bits 8-7: ABS brake control Status, Trailer # 1 
+Bits 6-5: ABS warning lamp, Trailer # 1
+Bits 4-3: Trailer ABS Control Status
+Bits 2-1: Tractor Mounted Trailer ABS Lamp
+b— ABS Control Status, Trailer
+Bits 8-7: ABS brake control Status, Trailer # 3 
+Bits 6-5: ABS warning lamp, Trailer # 3
+Bits 4-3: ABS brake control Status, Trailer # 2 
+Bits 2-1: ABS warning lamp, Trailer # 2
+c— ABS Control Status, Trailer
+Bits 8-7: ABS brake control Status, Trailer # 5 
+Bits 6-5: ABS warning lamp, Trailer #5
+Bits 4-3: ABS brake control Status, Trailer # 4 
+Bits 2-1: ABS warning lamp, Trailer # 4
+00 Off/Not Active
+01 On/Active
+10 Error condition
+11 Not available</t>
+  </si>
+  <si>
+    <t>Communicates the tire temperature(s) by sequence number. (Not position specific)</t>
+  </si>
+  <si>
+    <t>PID,naaa...
+n— Number of parameter data characters 
+a— Tire temperature by sequence number
+251-253 = Reserved for future assignment by SAE 
+254 = Error
+255 = Not available</t>
+  </si>
+  <si>
+    <t>2.5 *F per bit</t>
+  </si>
+  <si>
+    <t>PID to communicate the tire pressure(s) by sequence number. (Not position specific)</t>
+  </si>
+  <si>
+    <t>PID,naaa...
+n— Number of parameter data characters 
+a— Tire pressure by sequence number
+251-253 = Reserved for future assignment by SAE 
+254 = Error
+255 = Not available</t>
   </si>
 </sst>
 </file>
@@ -4630,10 +4887,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="44">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4788,6 +5042,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -4831,6 +5088,9 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4973,7 +5233,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AD4AF160-CAC1-41E9-8591-E348BB04A206}" name="Table7" displayName="Table7" ref="A1:C130" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AD4AF160-CAC1-41E9-8591-E348BB04A206}" name="Table7" displayName="Table7" ref="A1:C130" totalsRowShown="0" headerRowDxfId="43">
   <autoFilter ref="A1:C130" xr:uid="{3FAA1825-644E-4C24-9544-9AAC1496BEFF}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8D45D789-AA8E-4F75-B14D-93DB541F2659}" name="MIDs:"/>
@@ -4985,31 +5245,31 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3536308-3EBF-4D1A-ADFD-4763E21E03C8}" name="Table1" displayName="Table1" ref="A1:G129" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B3536308-3EBF-4D1A-ADFD-4763E21E03C8}" name="Table1" displayName="Table1" ref="A1:G129" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A1:G129" xr:uid="{5825FDD7-124C-4604-835D-A83B5F69E43F}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7F56B9EF-7AB1-4F17-AD03-00E189154D08}" name="PID" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{1E76FFCB-CA25-4944-ADCC-080F5A5CCF86}" name="Name" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{6DFCBABC-4D6D-41EE-9C62-E166B1098D21}" name="NUMBER OF DATA BYTE(s)" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{1C8FEB7C-9E06-6043-AFC2-6F3B3659F3BA}" name="Priority" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{84A05634-46A5-D642-802B-9DC80BC72432}" name="Format" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{48E2D8E8-CAD9-B541-89EB-5B79FBF21BEE}" name="Resolution" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{0545F52A-45B5-0643-854A-045374F87CEF}" name="Description" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{7F56B9EF-7AB1-4F17-AD03-00E189154D08}" name="PID" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{1E76FFCB-CA25-4944-ADCC-080F5A5CCF86}" name="Name" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{6DFCBABC-4D6D-41EE-9C62-E166B1098D21}" name="NUMBER OF DATA BYTE(s)" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{1C8FEB7C-9E06-6043-AFC2-6F3B3659F3BA}" name="Priority" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{84A05634-46A5-D642-802B-9DC80BC72432}" name="Format" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{48E2D8E8-CAD9-B541-89EB-5B79FBF21BEE}" name="Resolution" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{0545F52A-45B5-0643-854A-045374F87CEF}" name="Description" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B521781-C555-4FBA-B6F7-F1DAC33C9D1A}" name="Table2" displayName="Table2" ref="A1:G65" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9B521781-C555-4FBA-B6F7-F1DAC33C9D1A}" name="Table2" displayName="Table2" ref="A1:G65" totalsRowShown="0" headerRowDxfId="33" headerRowBorderDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="A1:G65" xr:uid="{16F1F122-3E87-45D2-8FC9-9D3F0531F4BF}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B6EC38D7-C1D3-420B-9AAA-DED5C0E4E129}" name="PID" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{B6EC38D7-C1D3-420B-9AAA-DED5C0E4E129}" name="PID" dataDxfId="30"/>
     <tableColumn id="2" xr3:uid="{0E889316-95EF-461D-A56F-9E52488C9C03}" name="Name"/>
-    <tableColumn id="3" xr3:uid="{371B201C-6DB4-415E-9AA4-5089B6015C97}" name="NUMBER OF DATA BYTE(s)" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{57A3A3AD-2CC8-ED4B-9752-E44A78E3D014}" name="Priority" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{371B201C-6DB4-415E-9AA4-5089B6015C97}" name="NUMBER OF DATA BYTE(s)" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{57A3A3AD-2CC8-ED4B-9752-E44A78E3D014}" name="Priority" dataDxfId="28"/>
     <tableColumn id="5" xr3:uid="{6D77E486-02C3-2845-AC58-F2992D59A29D}" name="Format"/>
-    <tableColumn id="6" xr3:uid="{A516089B-557C-2749-A52C-807B9D002EF8}" name="Resolution" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{A516089B-557C-2749-A52C-807B9D002EF8}" name="Resolution" dataDxfId="27"/>
     <tableColumn id="8" xr3:uid="{05744BE8-1E22-7B44-81EC-075F7ECA3024}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -5023,7 +5283,7 @@
     <tableColumn id="1" xr3:uid="{1B82DAE6-8E2F-450B-8F9E-36197193A8B9}" name="PID" dataDxfId="23"/>
     <tableColumn id="2" xr3:uid="{E7568FDB-7502-4ECC-82E7-AAE8912D71F1}" name="NAME"/>
     <tableColumn id="3" xr3:uid="{5EF0E721-D9B8-4A88-9D6A-944E78B20C4B}" name="NUMBER OF DATA BYTE(s)" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{AF8EF2BA-E839-0E45-9C04-F2A4342BE110}" name="Priority"/>
+    <tableColumn id="4" xr3:uid="{AF8EF2BA-E839-0E45-9C04-F2A4342BE110}" name="Priority" dataDxfId="21"/>
     <tableColumn id="5" xr3:uid="{2C9FEEC0-E449-1445-BEDB-D3164844FEAA}" name="Format"/>
     <tableColumn id="6" xr3:uid="{2A22B418-FE23-D543-9B99-CCC4BD304DB3}" name="Resolution"/>
     <tableColumn id="7" xr3:uid="{3D930BE9-FE84-D747-9942-F2EB42D143FB}" name="Description"/>
@@ -5033,39 +5293,39 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A4A04B0B-E2A8-4514-90D9-9D85659D6F17}" name="Table4" displayName="Table4" ref="A1:D129" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A4A04B0B-E2A8-4514-90D9-9D85659D6F17}" name="Table4" displayName="Table4" ref="A1:D129" totalsRowShown="0" headerRowDxfId="20" dataDxfId="18" headerRowBorderDxfId="19" tableBorderDxfId="17">
   <autoFilter ref="A1:D129" xr:uid="{A6F50F0A-CC6C-48E8-8219-A71C2B0EDD0A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1B0BE57F-1D3C-45F3-92FC-AFF6EE4F1782}" name="EXTENSION" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{B7F3C7F5-9B6C-46B4-B08D-44AD8EA0354B}" name="PID" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{1B0BE57F-1D3C-45F3-92FC-AFF6EE4F1782}" name="EXTENSION" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{B7F3C7F5-9B6C-46B4-B08D-44AD8EA0354B}" name="PID" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{B2D1AF4A-6266-4DBA-8354-97634037444F}" name="DESCRIPTION"/>
-    <tableColumn id="4" xr3:uid="{D8145220-342A-4B61-BFC3-0EFA0A923104}" name="NUMBER OF DATA BYTE(s)" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{D8145220-342A-4B61-BFC3-0EFA0A923104}" name="NUMBER OF DATA BYTE(s)" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5E2B707C-B16F-48B6-8796-02B5F255C7D7}" name="Table5" displayName="Table5" ref="A1:D65" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{5E2B707C-B16F-48B6-8796-02B5F255C7D7}" name="Table5" displayName="Table5" ref="A1:D65" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <autoFilter ref="A1:D65" xr:uid="{278BD2DA-253C-466D-BE88-EA2E44E2F531}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{133C1978-BE4C-4983-81BB-A5F97B8FC9A0}" name="EXTENSION" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{051CFE1E-D2A1-4183-98EB-772C3DB9F3F7}" name="PID" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{133C1978-BE4C-4983-81BB-A5F97B8FC9A0}" name="EXTENSION" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{051CFE1E-D2A1-4183-98EB-772C3DB9F3F7}" name="PID" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{22B52AC4-B3CA-4C1A-A6FC-9BB4603AC534}" name="DESCRIPTION"/>
-    <tableColumn id="4" xr3:uid="{C2A7C8D9-6842-4396-8BF0-2DB437904A30}" name="NUMBER OF DATA BYTE(s)" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{C2A7C8D9-6842-4396-8BF0-2DB437904A30}" name="NUMBER OF DATA BYTE(s)" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0A2FB50E-C0BB-46FF-BBAC-6D9CD9FF6E86}" name="Table6" displayName="Table6" ref="A1:D65" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0A2FB50E-C0BB-46FF-BBAC-6D9CD9FF6E86}" name="Table6" displayName="Table6" ref="A1:D65" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
   <autoFilter ref="A1:D65" xr:uid="{2986F331-E8C5-453E-81CE-1C00ED385F21}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{60272FA4-4A7F-4880-83FC-686D489D1528}" name="EXTENSION" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{31369B14-A909-42C5-94C1-C4C9C47F981C}" name="PID" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{60272FA4-4A7F-4880-83FC-686D489D1528}" name="EXTENSION" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{31369B14-A909-42C5-94C1-C4C9C47F981C}" name="PID" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{20351968-3D18-4500-AAF0-B578B5910EC3}" name="DESCRIPTION"/>
-    <tableColumn id="4" xr3:uid="{28FBBBF0-5A34-4A54-AC2B-85D2247B908B}" name="NUMBER OF DATA BYTE(s)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{28FBBBF0-5A34-4A54-AC2B-85D2247B908B}" name="NUMBER OF DATA BYTE(s)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6586,8 +6846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B987EB9-2B7F-41FC-B8FF-2D038FB617ED}">
   <dimension ref="A1:C130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15"/>
@@ -11300,7 +11560,7 @@
   </sheetPr>
   <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="113" workbookViewId="0">
+    <sheetView topLeftCell="A53" zoomScale="113" workbookViewId="0">
       <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
@@ -13024,10 +13284,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="90" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -13035,13 +13295,13 @@
     <col min="1" max="1" width="14.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="59.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21">
+    <row r="1" spans="1:8" ht="21">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -13064,7 +13324,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" ht="320">
       <c r="A2" s="4">
         <v>192</v>
       </c>
@@ -13074,8 +13334,23 @@
       <c r="C2" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="D2" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="64">
       <c r="A3" s="4">
         <v>193</v>
       </c>
@@ -13085,8 +13360,23 @@
       <c r="C3" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="D3" s="4">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="304">
       <c r="A4" s="4">
         <v>194</v>
       </c>
@@ -13096,8 +13386,23 @@
       <c r="C4" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="D4" s="4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F4" t="s">
+        <v>659</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="409.6">
       <c r="A5" s="4">
         <v>195</v>
       </c>
@@ -13107,8 +13412,23 @@
       <c r="C5" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="D5" s="4">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="409.6">
       <c r="A6" s="4">
         <v>196</v>
       </c>
@@ -13118,8 +13438,23 @@
       <c r="C6" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="D6" s="4">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>659</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="4">
         <v>197</v>
       </c>
@@ -13129,8 +13464,23 @@
       <c r="C7" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="D7" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H7" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="4">
         <v>198</v>
       </c>
@@ -13140,8 +13490,23 @@
       <c r="C8" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="D8" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H8" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="409.6">
       <c r="A9" s="4">
         <v>199</v>
       </c>
@@ -13151,8 +13516,23 @@
       <c r="C9" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="D9" s="4">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H9" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="4">
         <v>200</v>
       </c>
@@ -13162,8 +13542,23 @@
       <c r="C10" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="D10" s="59" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E10" s="59" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F10" s="59" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G10" s="59" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H10" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="4">
         <v>201</v>
       </c>
@@ -13173,8 +13568,23 @@
       <c r="C11" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="D11" s="59" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E11" s="59" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F11" s="59" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H11" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="4">
         <v>202</v>
       </c>
@@ -13184,8 +13594,23 @@
       <c r="C12" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="D12" s="59" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H12" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="48">
       <c r="A13" s="4">
         <v>203</v>
       </c>
@@ -13195,8 +13620,23 @@
       <c r="C13" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="D13" s="4">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H13" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="4">
         <v>204</v>
       </c>
@@ -13206,8 +13646,23 @@
       <c r="C14" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="D14" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H14" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="272">
       <c r="A15" s="4">
         <v>205</v>
       </c>
@@ -13217,8 +13672,23 @@
       <c r="C15" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="D15" s="4">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="80">
       <c r="A16" s="4">
         <v>206</v>
       </c>
@@ -13228,8 +13698,23 @@
       <c r="C16" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="4">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H16" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="64">
       <c r="A17" s="4">
         <v>207</v>
       </c>
@@ -13239,8 +13724,23 @@
       <c r="C17" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="4">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H17" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="48">
       <c r="A18" s="4">
         <v>208</v>
       </c>
@@ -13250,8 +13750,23 @@
       <c r="C18" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="4">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H18" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="350">
       <c r="A19" s="4">
         <v>209</v>
       </c>
@@ -13261,8 +13776,23 @@
       <c r="C19" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="4">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F19" t="s">
+        <v>659</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H19" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="96">
       <c r="A20" s="4">
         <v>210</v>
       </c>
@@ -13272,8 +13802,23 @@
       <c r="C20" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="4">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H20" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="96">
       <c r="A21" s="4">
         <v>211</v>
       </c>
@@ -13283,8 +13828,17 @@
       <c r="C21" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="E21" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1125</v>
+      </c>
+      <c r="H21" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="4">
         <v>212</v>
       </c>
@@ -13294,8 +13848,11 @@
       <c r="C22" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="H22" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="4">
         <v>213</v>
       </c>
@@ -13305,8 +13862,11 @@
       <c r="C23" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="H23" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="4">
         <v>214</v>
       </c>
@@ -13316,8 +13876,11 @@
       <c r="C24" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="H24" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="4">
         <v>215</v>
       </c>
@@ -13327,8 +13890,11 @@
       <c r="C25" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="H25" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="4">
         <v>216</v>
       </c>
@@ -13338,8 +13904,11 @@
       <c r="C26" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="H26" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="4">
         <v>217</v>
       </c>
@@ -13349,8 +13918,11 @@
       <c r="C27" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="H27" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="4">
         <v>218</v>
       </c>
@@ -13360,8 +13932,11 @@
       <c r="C28" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="H28" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4">
         <v>219</v>
       </c>
@@ -13371,8 +13946,11 @@
       <c r="C29" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="H29" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4">
         <v>220</v>
       </c>
@@ -13382,8 +13960,11 @@
       <c r="C30" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="H30" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4">
         <v>221</v>
       </c>
@@ -13393,8 +13974,11 @@
       <c r="C31" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="H31" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="4">
         <v>222</v>
       </c>
@@ -13404,8 +13988,11 @@
       <c r="C32" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="H32" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="4">
         <v>223</v>
       </c>
@@ -13415,8 +14002,11 @@
       <c r="C33" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="H33" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="4">
         <v>224</v>
       </c>
@@ -13426,8 +14016,11 @@
       <c r="C34" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="H34" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="4">
         <v>225</v>
       </c>
@@ -13437,8 +14030,11 @@
       <c r="C35" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="H35" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="4">
         <v>226</v>
       </c>
@@ -13448,8 +14044,11 @@
       <c r="C36" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="H36" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="4">
         <v>227</v>
       </c>
@@ -13459,8 +14058,11 @@
       <c r="C37" s="4" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="H37" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="4">
         <v>228</v>
       </c>
@@ -13470,8 +14072,11 @@
       <c r="C38" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="H38" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="4">
         <v>229</v>
       </c>
@@ -13481,8 +14086,11 @@
       <c r="C39" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="H39" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
         <v>230</v>
       </c>
@@ -13492,8 +14100,11 @@
       <c r="C40" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="H40" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="4">
         <v>231</v>
       </c>
@@ -13503,8 +14114,11 @@
       <c r="C41" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="H41" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="4">
         <v>232</v>
       </c>
@@ -13514,8 +14128,11 @@
       <c r="C42" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="H42" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="4">
         <v>233</v>
       </c>
@@ -13525,8 +14142,11 @@
       <c r="C43" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="H43" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="4">
         <v>234</v>
       </c>
@@ -13536,8 +14156,11 @@
       <c r="C44" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="H44" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="4">
         <v>235</v>
       </c>
@@ -13547,8 +14170,11 @@
       <c r="C45" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="H45" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="4">
         <v>236</v>
       </c>
@@ -13558,8 +14184,11 @@
       <c r="C46" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="H46" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="4">
         <v>237</v>
       </c>
@@ -13569,8 +14198,11 @@
       <c r="C47" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="H47" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="4">
         <v>238</v>
       </c>
@@ -13580,8 +14212,11 @@
       <c r="C48" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="H48" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="4">
         <v>239</v>
       </c>
@@ -13591,8 +14226,11 @@
       <c r="C49" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="H49" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="4">
         <v>240</v>
       </c>
@@ -13602,8 +14240,11 @@
       <c r="C50" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="H50" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="4">
         <v>241</v>
       </c>
@@ -13613,8 +14254,11 @@
       <c r="C51" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="H51" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="4">
         <v>242</v>
       </c>
@@ -13624,8 +14268,11 @@
       <c r="C52" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="H52" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="4">
         <v>243</v>
       </c>
@@ -13635,8 +14282,11 @@
       <c r="C53" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="H53" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="4">
         <v>244</v>
       </c>
@@ -13646,8 +14296,11 @@
       <c r="C54" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="H54" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="4">
         <v>245</v>
       </c>
@@ -13657,8 +14310,11 @@
       <c r="C55" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="H55" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="4">
         <v>246</v>
       </c>
@@ -13668,8 +14324,11 @@
       <c r="C56" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="H56" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="4">
         <v>247</v>
       </c>
@@ -13679,8 +14338,11 @@
       <c r="C57" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="H57" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="4">
         <v>248</v>
       </c>
@@ -13690,8 +14352,11 @@
       <c r="C58" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="H58" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="4">
         <v>249</v>
       </c>
@@ -13701,8 +14366,11 @@
       <c r="C59" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="H59" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="4">
         <v>250</v>
       </c>
@@ -13712,8 +14380,11 @@
       <c r="C60" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="H60" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="4">
         <v>251</v>
       </c>
@@ -13723,8 +14394,11 @@
       <c r="C61" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="H61" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="4">
         <v>252</v>
       </c>
@@ -13734,8 +14408,11 @@
       <c r="C62" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="H62" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="4">
         <v>253</v>
       </c>
@@ -13745,8 +14422,11 @@
       <c r="C63" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="H63" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="4">
         <v>254</v>
       </c>
@@ -13756,8 +14436,11 @@
       <c r="C64" s="4" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="H64" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="4">
         <v>255</v>
       </c>
@@ -13766,6 +14449,9 @@
       </c>
       <c r="C65" s="4" t="s">
         <v>388</v>
+      </c>
+      <c r="H65" t="s">
+        <v>669</v>
       </c>
     </row>
   </sheetData>
